--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1302,4 +1302,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
+    <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <xsd:import namespace="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7b850dbe-2bbc-4312-b635-0ac631df3b32" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="이미지 태그" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="341aef24-7ea0-46c4-a120-5a2ec65f53ba" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e91ce72-769a-45b6-b2e9-1e3503954573" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="공유 대상" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="세부 정보 공유" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{10d9cc29-6347-4d98-9ab9-24822785e9e3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1e91ce72-769a-45b6-b2e9-1e3503954573">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬자동생성\r2mAutoMakeCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen-my.sharepoint.com/personal/mssung_webzen_com/Documents/자동문서생성-20210014i1/r2mAutoMakeCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CD44A9-8DAA-46C2-BB14-DD759EB0881A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
-  <si>
-    <t>전체 서버</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="166">
   <si>
     <t>계정당 1회</t>
-  </si>
-  <si>
-    <t>ItemID0</t>
-  </si>
-  <si>
-    <t>Count0</t>
   </si>
   <si>
     <t>Server</t>
@@ -181,14 +172,424 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CarftLimit</t>
+    <t>서버당 100회</t>
+  </si>
+  <si>
+    <t>계정당 2회</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[20%][이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>화이트데이 선물 상자Ⅰ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>콜포트의 축복[귀속]</t>
+  </si>
+  <si>
+    <t>특별한 비약 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>특별한 모둠 꼬치구이[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[30%][귀속]</t>
+  </si>
+  <si>
+    <t>화이트데이 선물 상자Ⅱ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>화이트데이 출석 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서버당 100회</t>
-  </si>
-  <si>
-    <t>계정당 2회</t>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅰ[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅱ[귀속]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅲ[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅳ[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅴ[귀속]</t>
+  </si>
+  <si>
+    <t>전리품 상자 제작서[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅵ[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅶ[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅷ[귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01 환영 보상 상자Ⅸ[귀속]</t>
+  </si>
+  <si>
+    <t>상급 뽑기권 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>타나토스01 전용 출석 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타나토스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버당 1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합 코인 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>불안정한 영혼석[고급][귀속]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[희귀][귀속]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[영웅][귀속]</t>
+  </si>
+  <si>
+    <t>축복받은 장비 각인석[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>매터리얼 상자[일반~고급][귀속]</t>
+  </si>
+  <si>
+    <t>고급 서번트 확정 뽑기권[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>고급 변신 확정 뽑기권[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>최상급 전투의 마법 주문서[귀속]</t>
+  </si>
+  <si>
+    <t>최상급 회복의 마법 주문서[귀속]</t>
+  </si>
+  <si>
+    <t>최상급 아드레날린 증폭 포션[귀속]</t>
+  </si>
+  <si>
+    <t>고급 포인트 충전석 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>전설 서번트 소환 주문서 상자[귀속]</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>상급 뽑기권 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>넛츠와 함께하는 출석 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 서버</t>
+  </si>
+  <si>
+    <t>화이트데이 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 합성 20회</t>
+  </si>
+  <si>
+    <t>인형 테디 서번트 카드[귀속]</t>
+  </si>
+  <si>
+    <t>서번트 합성 20회</t>
+  </si>
+  <si>
+    <t>아이템 제작 30회 성공</t>
+  </si>
+  <si>
+    <t>5,000,000 골드 소모</t>
+  </si>
+  <si>
+    <t>아무 마물 30,000마리 처치</t>
+  </si>
+  <si>
+    <t>일일 미션 50회 수행</t>
+  </si>
+  <si>
+    <t>계승자의 의지 물약[귀속]</t>
+  </si>
+  <si>
+    <t>스페셜 던전 마물 10,000마리 처치</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>요일 던전 마물 2,500마리 처치</t>
+  </si>
+  <si>
+    <t>고급~희귀 서번트 뽑기권[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>시간의 모래 15개 사용</t>
+  </si>
+  <si>
+    <t>변신 획득 30회</t>
+  </si>
+  <si>
+    <t>특별한 제작 비급서 조각 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>서번트 획득 30회</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>Good Bye Winter 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체서버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존서버(타나토스 제외)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 마물 25,000마리 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[1시간][귀속]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,000,000 골드 소모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 비약 상자[이벤트][귀속]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 미션 25회 수행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예 코인 상자[귀속]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 마물 50,000마리 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,000,000 골드 소모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜포트의 축복[귀속]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 미션 50회 수행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로얄 코인 상자[귀속]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 전체 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 포인트 충전석 상자[귀속]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄맞이 미션 이벤트</t>
+  </si>
+  <si>
+    <t>CraftIngred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기[이벤트][귀속] x1
+설탕[이벤트][귀속] x1</t>
+  </si>
+  <si>
+    <t>오렌지[이벤트][귀속] x1
+설탕[이벤트][귀속] x1</t>
+  </si>
+  <si>
+    <t>딸기[이벤트][귀속] x1
+오렌지[이벤트][귀속] x1
+멜론[이벤트][귀속] x1</t>
+  </si>
+  <si>
+    <t>딸기[이벤트][귀속] x50
+오렌지[이벤트][귀속] x50
+멜론[이벤트][귀속] x50
+설탕[이벤트][귀속] x50</t>
+  </si>
+  <si>
+    <t>설탕[이벤트][귀속] x10
+-&gt; 대체 아이템 - 딸기[이벤트][귀속] x10
+-&gt; 대체 아이템 - 오렌지[이벤트][귀속] x10
+-&gt; 대체 아이템 - 멜론[이벤트][귀속] x10</t>
+  </si>
+  <si>
+    <t>드랍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트데이 드랍 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>오렌지[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>멜론[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>설탕[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>타나토스01</t>
+  </si>
+  <si>
+    <t>맵 드롭률 20% 상승</t>
+  </si>
+  <si>
+    <t>맵 드롭률 20% 상승 (용기의 전장은 5% 상승)</t>
+  </si>
+  <si>
+    <t>드랍률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜포트 대륙 / 필드 던전 / 스페셜 던전 / 요일 던전 / 천공의 섬 엘테르
+일루미나의 성지 / 메테오스의 레어 / 만월의 유적지 / 메테오스의 탑</t>
+  </si>
+  <si>
+    <t>콜포트 대륙 / 필드 던전</t>
+  </si>
+  <si>
+    <t>스페셜 던전 / 요일 던전 / 천공의 섬 엘테르</t>
+  </si>
+  <si>
+    <t>일루미나의 성지 / 메테오스의 레어 / 만월의 유적지</t>
+  </si>
+  <si>
+    <t>메테오스의 탑 / 용기의 전장</t>
+  </si>
+  <si>
+    <t>드랍률 상승 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득량</t>
+  </si>
+  <si>
+    <t>최대 소지 무게</t>
+  </si>
+  <si>
+    <t>물리 공격력</t>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+  </si>
+  <si>
+    <t>물리 방어력</t>
+  </si>
+  <si>
+    <t>마법 방어력</t>
+  </si>
+  <si>
+    <t>경험치 획득량</t>
+  </si>
+  <si>
+    <t>계약 효과 증가</t>
+  </si>
+  <si>
+    <t>물리 명중력</t>
+  </si>
+  <si>
+    <t>마법 명중력</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>치명타 확률</t>
+  </si>
+  <si>
+    <t>딸기맛 사탕 도감</t>
+  </si>
+  <si>
+    <t>오렌지맛 사탕 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCount_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCount_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기맛 사탕</t>
+  </si>
+  <si>
+    <t>오렌지맛 사탕</t>
+  </si>
+  <si>
+    <t>ItemID_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,7 +599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,14 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -262,6 +655,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -282,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,13 +763,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,7 +818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -402,38 +849,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,531 +1236,2853 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>146</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="9">
+        <v>44980</v>
+      </c>
+      <c r="O2" s="9">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>147</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="9">
+        <v>44994</v>
+      </c>
+      <c r="O12" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>148</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="9">
+        <v>44994</v>
+      </c>
+      <c r="O22" s="10">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>149</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="7">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N42" s="9">
+        <v>44994</v>
+      </c>
+      <c r="O42" s="10">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="7">
+        <v>20</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="7">
+        <v>5</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="7">
+        <v>10</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="7">
+        <v>5</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="7">
+        <v>5</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="7">
+        <v>4</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="7">
+        <v>4</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7">
+        <v>5</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="7">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="7">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="7">
+        <v>40</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="7">
+        <v>2</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="7">
+        <v>2</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="7">
+        <v>3</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>365</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" s="10">
+        <v>44980</v>
+      </c>
+      <c r="O62" s="10">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="7">
+        <v>5</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="7">
+        <v>5</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>366</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O69" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="7">
+        <v>8</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>367</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="7">
+        <v>10</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N76" s="10">
+        <v>44980</v>
+      </c>
+      <c r="O76" s="10">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="7">
+        <v>8</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="7">
+        <v>8</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="13">
+        <v>5</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="13">
+        <v>10</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="7">
+        <v>10</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="7">
+        <v>100</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>368</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="15">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N83" s="10">
+        <v>44987</v>
+      </c>
+      <c r="O83" s="10">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F84" s="15">
+        <v>10</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="15">
+        <v>20</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="15">
+        <v>3</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F87" s="15">
+        <v>5</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="15">
+        <v>20</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="15">
+        <v>10</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>30008</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N90" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O90" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>30009</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N91" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O91" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>30010</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N92" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O92" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>30011</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N93" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O93" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N94" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O94" s="10">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N95" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O95" s="10">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N96" s="10">
+        <f>O95</f>
+        <v>45001</v>
+      </c>
+      <c r="O96" s="10">
+        <f>N96+7</f>
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N97" s="10">
+        <f t="shared" ref="N97:N98" si="0">O96</f>
+        <v>45008</v>
+      </c>
+      <c r="O97" s="10">
+        <f t="shared" ref="O97:O99" si="1">N97+7</f>
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N98" s="10">
+        <f t="shared" si="0"/>
+        <v>45015</v>
+      </c>
+      <c r="O98" s="10">
+        <f t="shared" si="1"/>
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>1102</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="G99" s="15">
+        <v>910505</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I99" s="15">
+        <v>1</v>
+      </c>
+      <c r="J99" s="7"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N99" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O99" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="15">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>146</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="8" t="s">
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" s="15">
+        <v>3</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F102" s="15">
+        <v>3</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="15">
+        <v>3</v>
+      </c>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" s="15">
+        <v>3</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>1103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G105" s="15">
+        <v>910506</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I105" s="15">
+        <v>1</v>
+      </c>
+      <c r="J105" s="7"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N105" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O105" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" s="15">
+        <v>3</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" s="15">
+        <v>3</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" s="15">
+        <v>400</v>
+      </c>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+    </row>
+    <row r="111" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>20007</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L111" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7">
-        <v>44980</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="M111" s="7"/>
+      <c r="N111" s="10">
         <v>44994</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>365</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="O111" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M112" s="7"/>
+      <c r="N112" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O112" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M113" s="7"/>
+      <c r="N113" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O113" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="10">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>20007</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L114" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9">
+      <c r="M114" s="7"/>
+      <c r="N114" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O114" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7">
         <v>10000000</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="K115" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M115" s="7"/>
+      <c r="N115" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O115" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7">
+        <v>500000</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L116" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9">
-        <v>500000</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="10">
+        <v>44994</v>
+      </c>
+      <c r="O116" s="10">
+        <v>45015</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1305,6 +4092,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -1527,19 +4323,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen-my.sharepoint.com/personal/mssung_webzen_com/Documents/자동문서생성-20210014i1/r2mAutoMakeCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CD44A9-8DAA-46C2-BB14-DD759EB0881A}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A946AC5-E5D2-4F7F-8231-626E125CA4D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$116</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1240,7 +1243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3579,7 +3582,7 @@
         <v>45008</v>
       </c>
       <c r="O97" s="10">
-        <f t="shared" ref="O97:O99" si="1">N97+7</f>
+        <f t="shared" ref="O97:O98" si="1">N97+7</f>
         <v>45015</v>
       </c>
     </row>
@@ -4085,6 +4088,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O116" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4092,15 +4096,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -4323,15 +4318,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4348,4 +4344,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen-my.sharepoint.com/personal/mssung_webzen_com/Documents/자동문서생성-20210014i1/r2mAutoMakeCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A946AC5-E5D2-4F7F-8231-626E125CA4D3}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F096F6EB-10DA-4644-90A4-9FC28BCAB55D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$116</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="187">
   <si>
     <t>계정당 1회</t>
   </si>
@@ -593,6 +594,69 @@
   <si>
     <t>ItemID_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][귀속] X 6</t>
+  </si>
+  <si>
+    <t>희귀 변신 확정 뽑기권 조각[귀속] X 1</t>
+  </si>
+  <si>
+    <t>전리품 상자 제작서[귀속] X 11</t>
+  </si>
+  <si>
+    <t>상급 매터리얼 상자[귀속] X 1</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[귀속] X 2</t>
+  </si>
+  <si>
+    <t>장비 각인석[귀속] X 10</t>
+  </si>
+  <si>
+    <t>최상급 특수 매터리얼 상자[귀속] X 1</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][귀속] X 2</t>
+  </si>
+  <si>
+    <t>희귀 서번트 확정 뽑기권 조각[귀속] X 1</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[귀속] X 3</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][귀속] X 2</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][귀속] X2</t>
+  </si>
+  <si>
+    <t>영웅 포인트 충전석 상자[귀속] X 2</t>
+  </si>
+  <si>
+    <t>영웅 포인트 충전석 상자[귀속] X 3</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][귀속] X 3</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][귀속] X 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전리품 상자 제작서[귀속] X 22 </t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][귀속] X 6</t>
+  </si>
+  <si>
+    <t>타나토스의 강림[귀속] X 1</t>
+  </si>
+  <si>
+    <t>경험치 상승 매터리얼[이벤트][귀속] X 1</t>
+  </si>
+  <si>
+    <t>전리품 상자 제작서[귀속] X 22</t>
   </si>
 </sst>
 </file>
@@ -602,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,8 +750,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,8 +777,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -792,6 +870,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +1009,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1243,7 +1355,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4092,6 +4204,282 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A6365E-0AE6-4708-9D82-DAB22957BDFB}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="30.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C99E72E-5D3D-45D1-8079-BDFF1011ACE6}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A7D166-4387-49B7-AFA1-210028A9537E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="31845" yWindow="540" windowWidth="22440" windowHeight="14130" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$U$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1756,10 +1756,10 @@
   <dimension ref="G1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="M26:S28"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3134,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7654,15 +7654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -7885,15 +7876,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7910,4 +7902,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A7D166-4387-49B7-AFA1-210028A9537E}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578777B6-8AEC-453D-A488-BFEFDB26288F}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="540" windowWidth="22440" windowHeight="14130" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
-    <sheet name="230330 업데이트" sheetId="3" r:id="rId2"/>
-    <sheet name="230223 업데이트" sheetId="1" r:id="rId3"/>
+    <sheet name="230427 업데이트" sheetId="6" r:id="rId2"/>
+    <sheet name="230330 업데이트" sheetId="3" r:id="rId3"/>
+    <sheet name="230223 업데이트" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="268">
   <si>
     <t>최종수정일</t>
   </si>
@@ -144,220 +146,325 @@
     <t>행복 가득 선물 상자[이벤트][귀속]</t>
   </si>
   <si>
+    <t>미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복이 자라는 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정당 1회</t>
+  </si>
+  <si>
+    <t>서번트 획득 60회</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][이벤트]</t>
+  </si>
+  <si>
+    <t>변신 획득 60회</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][이벤트]</t>
+  </si>
+  <si>
+    <t>아이템 분해 15회 성공</t>
+  </si>
+  <si>
+    <t>특별한 영혼석 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3,000,000 골드 사용</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>아무 마물 20,000마리 처치</t>
+  </si>
+  <si>
+    <t>특별한 제작 재료 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>일일 미션 60회 수행</t>
+  </si>
+  <si>
+    <t>상급 시간의 모래 주머니[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>미션 이벤트 전체 완료</t>
+  </si>
+  <si>
+    <t>행운의 씨앗 매터리얼 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>봄을 담은 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서번트 합성 20회</t>
+  </si>
+  <si>
+    <t>화전[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>변신 합성 20회</t>
+  </si>
+  <si>
+    <t>일일 미션 50회 수행</t>
+  </si>
+  <si>
+    <t>아이템 제작 30회</t>
+  </si>
+  <si>
+    <t>화전 사용 30회</t>
+  </si>
+  <si>
+    <t>화전 사용 50회</t>
+  </si>
+  <si>
+    <t>드랍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 맞이 드랍 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 맵</t>
+  </si>
+  <si>
+    <t>벚꽃 잎[이벤트]</t>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 맞이 제작 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃반지 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>계정당 10개</t>
+  </si>
+  <si>
+    <t>벚꽃 잎[이벤트] x100</t>
+  </si>
+  <si>
+    <t>하얀 벚꽃[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>벚꽃 잎[이벤트] x10</t>
+  </si>
+  <si>
+    <t>분홍 벚꽃[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>계정당 100회</t>
+  </si>
+  <si>
+    <t>벚꽃 잎[이벤트] x5</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][이벤트] 1개</t>
+  </si>
+  <si>
+    <t>계정당 4회</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][이벤트] 1개</t>
+  </si>
+  <si>
+    <t>도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 벚꽃 도감</t>
+  </si>
+  <si>
+    <t>경험치 획득량</t>
+  </si>
+  <si>
+    <t>힘</t>
+  </si>
+  <si>
+    <t>민첩</t>
+  </si>
+  <si>
+    <t>지능</t>
+  </si>
+  <si>
+    <t>물리 피해 감소</t>
+  </si>
+  <si>
+    <t>마법 피해 감소</t>
+  </si>
+  <si>
+    <t>분홍 벚꽃 도감</t>
+  </si>
+  <si>
+    <t xml:space="preserve">계약 효과 증가 </t>
+  </si>
+  <si>
+    <t>물리 방어력</t>
+  </si>
+  <si>
+    <t>마법 방어력</t>
+  </si>
+  <si>
+    <t>물리 공격력(근접)</t>
+  </si>
+  <si>
+    <t>물리 공격력(원거리)</t>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+  </si>
+  <si>
+    <t>QuestID</t>
+  </si>
+  <si>
+    <t>감사의 달 출석 이벤트</t>
+  </si>
+  <si>
+    <t>서버당 1회</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자[귀속]</t>
+  </si>
+  <si>
+    <t>명예 코인 상자[귀속]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[1시간][귀속]</t>
+  </si>
+  <si>
+    <t>상급 특수 매터리얼 상자[귀속]</t>
+  </si>
+  <si>
+    <t>카네이션 매터리얼 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>1000일 동행 기념 출석 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급 회복의 마법 주문서[귀속]</t>
+  </si>
+  <si>
+    <t>최상급 전투의 마법 주문서[귀속]</t>
+  </si>
+  <si>
+    <t>최상급 아드레날린 증폭 포션[귀속]</t>
+  </si>
+  <si>
+    <t>계승자의 의지 물약[귀속]</t>
+  </si>
+  <si>
+    <t>1,000일 기념 선물 상자Ⅰ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[30%][귀속]</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>최상급 매터리얼 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>1,000일 기념 선물 상자 Ⅱ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>감사의 달 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서번트 획득 30회</t>
+  </si>
+  <si>
+    <t>변신 획득 30회</t>
+  </si>
+  <si>
+    <t>서번트 합성 15회</t>
+  </si>
+  <si>
+    <t>변신 합성 15회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아무 마물 30,000마리 처치 </t>
+  </si>
+  <si>
+    <t>1000일 동행 기념 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁨이 늘어나는 선물 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>아이템 제작 10회</t>
+  </si>
+  <si>
+    <t>강화 주문서 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>아이템 제작 20회</t>
+  </si>
+  <si>
+    <t>아무 장비나 강화 시도 10회</t>
+  </si>
+  <si>
+    <t>일반 매터리얼 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>아무 장비나 강화 시도 20회</t>
+  </si>
+  <si>
+    <t>행운의 매터리얼 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>일일 미션 60회 달성</t>
+  </si>
+  <si>
+    <t>시간의 모래 15개 사용</t>
+  </si>
+  <si>
+    <t>1000일 동행 감사 드랍 이벤트</t>
+  </si>
+  <si>
+    <t>별 조각[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>1000일 동행 감사 제작 이벤트</t>
+  </si>
+  <si>
     <t>봄을 담은 출석 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강화 주문서 상자[이벤트][귀속]</t>
-  </si>
-  <si>
     <t>경험치 증폭제[20%][이벤트][귀속]</t>
   </si>
   <si>
-    <t>시간의 모래 주머니[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>로얄 코인 상자[귀속]</t>
-  </si>
-  <si>
     <t>벚꽃 선물 상자Ⅰ[이벤트][귀속]</t>
   </si>
   <si>
-    <t>경험치 증폭제[30%][귀속]</t>
-  </si>
-  <si>
-    <t>명예 코인 상자[귀속]</t>
-  </si>
-  <si>
     <t>봉인된 영혼석[영웅][귀속]</t>
   </si>
   <si>
     <t>벚꽃 선물 상자 Ⅱ[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복이 자라는 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정당 1회</t>
-  </si>
-  <si>
-    <t>서번트 획득 60회</t>
-  </si>
-  <si>
-    <t>상급 변신 뽑기권[11회][이벤트]</t>
-  </si>
-  <si>
-    <t>변신 획득 60회</t>
-  </si>
-  <si>
-    <t>상급 서번트 뽑기권[11회][이벤트]</t>
-  </si>
-  <si>
-    <t>아이템 분해 15회 성공</t>
-  </si>
-  <si>
-    <t>특별한 영혼석 상자[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>3,000,000 골드 사용</t>
-  </si>
-  <si>
-    <t>아무 마물 20,000마리 처치</t>
-  </si>
-  <si>
-    <t>특별한 제작 재료 상자[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>일일 미션 60회 수행</t>
-  </si>
-  <si>
-    <t>상급 시간의 모래 주머니[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>미션 이벤트 전체 완료</t>
-  </si>
-  <si>
-    <t>행운의 씨앗 매터리얼 상자[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>봄을 담은 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서번트 합성 20회</t>
-  </si>
-  <si>
-    <t>화전[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>변신 합성 20회</t>
-  </si>
-  <si>
-    <t>일일 미션 50회 수행</t>
-  </si>
-  <si>
-    <t>아이템 제작 30회</t>
-  </si>
-  <si>
-    <t>화전 사용 30회</t>
-  </si>
-  <si>
-    <t>화전 사용 50회</t>
-  </si>
-  <si>
-    <t>드랍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벚꽃 맞이 드랍 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 맵</t>
-  </si>
-  <si>
-    <t>벚꽃 잎[이벤트]</t>
-  </si>
-  <si>
-    <t>제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벚꽃 맞이 제작 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃반지 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 10개</t>
-  </si>
-  <si>
-    <t>벚꽃 잎[이벤트] x100</t>
-  </si>
-  <si>
-    <t>하얀 벚꽃[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>벚꽃 잎[이벤트] x10</t>
-  </si>
-  <si>
-    <t>분홍 벚꽃[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>상급 아드레날린 증폭 포션[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 100회</t>
-  </si>
-  <si>
-    <t>벚꽃 잎[이벤트] x5</t>
-  </si>
-  <si>
-    <t>상급 회복의 마법 주문서[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>상급 전투의 마법 주문서[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>상급 변신 뽑기권[11회][이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 4회</t>
-  </si>
-  <si>
-    <t>상급 서번트 뽑기권[11회][이벤트] 1개</t>
-  </si>
-  <si>
-    <t>도감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 벚꽃 도감</t>
-  </si>
-  <si>
-    <t>경험치 획득량</t>
-  </si>
-  <si>
-    <t>힘</t>
-  </si>
-  <si>
-    <t>민첩</t>
-  </si>
-  <si>
-    <t>지능</t>
-  </si>
-  <si>
-    <t>물리 피해 감소</t>
-  </si>
-  <si>
-    <t>마법 피해 감소</t>
-  </si>
-  <si>
-    <t>분홍 벚꽃 도감</t>
-  </si>
-  <si>
-    <t xml:space="preserve">계약 효과 증가 </t>
-  </si>
-  <si>
-    <t>물리 방어력</t>
-  </si>
-  <si>
-    <t>마법 방어력</t>
-  </si>
-  <si>
-    <t>물리 공격력(근접)</t>
-  </si>
-  <si>
-    <t>물리 공격력(원거리)</t>
-  </si>
-  <si>
-    <t>마법 공격력</t>
   </si>
   <si>
     <t>EventID</t>
@@ -380,15 +487,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>빛나는 유피테르의 계약서[1시간][귀속]</t>
-  </si>
-  <si>
-    <t>상급 특수 매터리얼 상자[귀속]</t>
-  </si>
-  <si>
-    <t>최상급 매터리얼 상자[이벤트][귀속]</t>
-  </si>
-  <si>
     <t>화이트데이 출석 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,15 +573,6 @@
     <t>고급 변신 확정 뽑기권[이벤트][귀속]</t>
   </si>
   <si>
-    <t>최상급 전투의 마법 주문서[귀속]</t>
-  </si>
-  <si>
-    <t>최상급 회복의 마법 주문서[귀속]</t>
-  </si>
-  <si>
-    <t>최상급 아드레날린 증폭 포션[귀속]</t>
-  </si>
-  <si>
     <t>고급 포인트 충전석 상자[이벤트][귀속]</t>
   </si>
   <si>
@@ -546,9 +635,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계승자의 의지 물약[귀속]</t>
-  </si>
-  <si>
     <t>스페셜 던전 마물 10,000마리 처치</t>
   </si>
   <si>
@@ -561,19 +647,7 @@
     <t>고급~희귀 서번트 뽑기권[이벤트][귀속]</t>
   </si>
   <si>
-    <t>시간의 모래 15개 사용</t>
-  </si>
-  <si>
-    <t>변신 획득 30회</t>
-  </si>
-  <si>
     <t>특별한 제작 비급서 조각 상자[이벤트][귀속]</t>
-  </si>
-  <si>
-    <t>서번트 획득 30회</t>
-  </si>
-  <si>
-    <t>희귀 포인트 충전석 상자[이벤트][귀속]</t>
   </si>
   <si>
     <t>봄맞이 미션 이벤트</t>
@@ -772,6 +846,77 @@
 -&gt; 대체 아이템 - 딸기[이벤트][귀속] x10
 -&gt; 대체 아이템 - 오렌지[이벤트][귀속] x10
 -&gt; 대체 아이템 - 멜론[이벤트][귀속] x10</t>
+  </si>
+  <si>
+    <t>빛을 품은 상자[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>쌍둥이자리 좌[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>쌍둥이자리 우[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[20%][귀속] 1개</t>
+  </si>
+  <si>
+    <t>솜사탕[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자[귀속] 1개</t>
+  </si>
+  <si>
+    <t>명예 코인 상자[귀속] 1개</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>고급~희귀 서번트 뽑기권[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>계정당 1개</t>
+  </si>
+  <si>
+    <t>계정당 100개</t>
+  </si>
+  <si>
+    <t>서버당 100개</t>
+  </si>
+  <si>
+    <t>별 조각 1000개</t>
+  </si>
+  <si>
+    <t>별 조각 10개</t>
+  </si>
+  <si>
+    <t>별 조각 3000개</t>
+  </si>
+  <si>
+    <t>별 조각 2000개</t>
+  </si>
+  <si>
+    <t>별 조각 200개</t>
+  </si>
+  <si>
+    <t>쌍둥이자리 좌 도감</t>
+  </si>
+  <si>
+    <t>쌍둥이자리 우 도감</t>
+  </si>
+  <si>
+    <t>쌍둥이자리 좌[이벤트][귀속] 1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이자리 우[이벤트][귀속] 1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 피해 감소(근접)</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(원거리)</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,6 +1312,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,7 +1918,7 @@
   </sheetPr>
   <dimension ref="G1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2112,13 +2275,13 @@
         <v>370</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>18</v>
@@ -2130,13 +2293,13 @@
         <v>45029</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7">
         <v>630006</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R12" s="7">
         <v>1</v>
@@ -2158,13 +2321,13 @@
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7">
         <v>660006</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R13" s="7">
         <v>1</v>
@@ -2186,13 +2349,13 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7">
         <v>910427</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="R14" s="7">
         <v>20</v>
@@ -2214,13 +2377,13 @@
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7">
         <v>910317</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R15" s="7">
         <v>5</v>
@@ -2242,13 +2405,13 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7">
         <v>910357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="R16" s="7">
         <v>20</v>
@@ -2270,13 +2433,13 @@
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7">
         <v>910477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="R17" s="7">
         <v>5</v>
@@ -2298,13 +2461,13 @@
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
       <c r="O18" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P18" s="7">
         <v>910513</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="R18" s="7">
         <v>1</v>
@@ -2322,13 +2485,13 @@
         <v>371</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>18</v>
@@ -2340,13 +2503,13 @@
         <v>45043</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="P19" s="21">
         <v>910515</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R19" s="21">
         <v>20</v>
@@ -2368,13 +2531,13 @@
       <c r="M20" s="23"/>
       <c r="N20" s="24"/>
       <c r="O20" s="21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P20" s="21">
         <v>910515</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R20" s="21">
         <v>20</v>
@@ -2396,13 +2559,13 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P21" s="21">
         <v>910515</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R21" s="21">
         <v>30</v>
@@ -2424,13 +2587,13 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P22" s="21">
         <v>910515</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R22" s="21">
         <v>30</v>
@@ -2452,13 +2615,13 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P23" s="21">
         <v>910515</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R23" s="21">
         <v>30</v>
@@ -2480,13 +2643,13 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P24" s="21">
         <v>910515</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R24" s="21">
         <v>30</v>
@@ -2508,13 +2671,13 @@
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P25" s="21">
         <v>910515</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R25" s="21">
         <v>40</v>
@@ -2532,10 +2695,10 @@
         <v>30012</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
@@ -2548,11 +2711,11 @@
         <v>45043</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="P26" s="31"/>
       <c r="Q26" s="31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="R26" s="31">
         <v>0.6</v>
@@ -2570,10 +2733,10 @@
         <v>20008</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21" t="s">
@@ -2588,17 +2751,17 @@
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21">
         <v>10000000</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U27" s="27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
@@ -2616,17 +2779,17 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21">
         <v>10000000</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U28" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
@@ -2644,17 +2807,17 @@
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21">
         <v>10000000</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U29" s="28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
@@ -2672,17 +2835,17 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21">
         <v>100000</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
@@ -2700,17 +2863,17 @@
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21">
         <v>100000</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U31" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
@@ -2728,17 +2891,17 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21">
         <v>100000</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U32" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
@@ -2756,17 +2919,17 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="R33" s="32"/>
       <c r="S33" s="21">
         <v>10000000</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
@@ -2784,17 +2947,17 @@
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="R34" s="32"/>
       <c r="S34" s="21">
         <v>10000000</v>
       </c>
       <c r="T34" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="U34" s="30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
@@ -2806,10 +2969,10 @@
         <v>1104</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
@@ -2822,11 +2985,11 @@
         <v>45043</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P35" s="31"/>
       <c r="Q35" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="R35" s="31">
         <v>0.1</v>
@@ -2850,7 +3013,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
       <c r="Q36" s="31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R36" s="31">
         <v>3</v>
@@ -2874,7 +3037,7 @@
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="R37" s="31">
         <v>3</v>
@@ -2898,7 +3061,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
       <c r="Q38" s="31" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R38" s="31">
         <v>3</v>
@@ -2922,7 +3085,7 @@
       <c r="O39" s="31"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="31" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R39" s="31">
         <v>1</v>
@@ -2946,7 +3109,7 @@
       <c r="O40" s="31"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R40" s="31">
         <v>1</v>
@@ -2964,10 +3127,10 @@
         <v>1105</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
@@ -2980,11 +3143,11 @@
         <v>45043</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="32" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R41" s="32">
         <v>0.05</v>
@@ -3008,7 +3171,7 @@
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R42" s="32">
         <v>3</v>
@@ -3032,7 +3195,7 @@
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="32" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R43" s="32">
         <v>3</v>
@@ -3056,7 +3219,7 @@
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="R44" s="32">
         <v>2</v>
@@ -3080,7 +3243,7 @@
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R45" s="21">
         <v>2</v>
@@ -3104,7 +3267,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R46" s="21">
         <v>2</v>
@@ -3127,11 +3290,1907 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481331F9-E6D8-431C-BD91-EB6EDB09BB53}">
+  <dimension ref="A1:T58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>45040</v>
+      </c>
+      <c r="B2" s="5">
+        <v>152</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45043</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45057</v>
+      </c>
+      <c r="I2" s="5">
+        <v>90001800</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
+        <v>910182</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5">
+        <v>90001801</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>501004</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="5">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5">
+        <v>90001802</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <v>501001</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="5">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5">
+        <v>90001803</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <v>910444</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5">
+        <v>90001804</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>910445</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5">
+        <v>90001805</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <v>910442</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="5">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5">
+        <v>90001806</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <v>600017</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5">
+        <v>90001807</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <v>501015</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5">
+        <v>90001808</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>910113</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>90001809</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>910395</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B12" s="21">
+        <v>153</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="23">
+        <v>45057</v>
+      </c>
+      <c r="H12" s="24">
+        <v>45071</v>
+      </c>
+      <c r="I12" s="21">
+        <v>90001810</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21">
+        <v>262</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="21">
+        <v>5</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="21">
+        <v>90001811</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21">
+        <v>272</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="21">
+        <v>5</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="21">
+        <v>90001812</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21">
+        <v>62</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="21">
+        <v>20</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="21">
+        <v>90001813</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21">
+        <v>280</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="21">
+        <v>5</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="21">
+        <v>90001814</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21">
+        <v>910520</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="21">
+        <v>1</v>
+      </c>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="21">
+        <v>90001815</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
+        <v>123</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="21">
+        <v>20</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="21">
+        <v>90001816</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
+        <v>910477</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="21">
+        <v>5</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="21">
+        <v>90001817</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21">
+        <v>1110277</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="21">
+        <v>20</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="21">
+        <v>90001818</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21">
+        <v>510212</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="21">
+        <v>90001819</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21">
+        <v>910521</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B22" s="7">
+        <v>372</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45043</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45057</v>
+      </c>
+      <c r="I22" s="5">
+        <v>90003407</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="7">
+        <v>630006</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7">
+        <v>90003408</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7">
+        <v>660006</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7">
+        <v>90003409</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="7">
+        <v>910427</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="7">
+        <v>20</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7">
+        <v>90003410</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="7">
+        <v>910317</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7">
+        <v>90003411</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="7">
+        <v>910357</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="7">
+        <v>20</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7">
+        <v>90003412</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="7">
+        <v>910477</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <v>45040</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7">
+        <v>90003413</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7">
+        <v>910513</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B29" s="21">
+        <v>373</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="23">
+        <v>45057</v>
+      </c>
+      <c r="H29" s="24">
+        <v>45071</v>
+      </c>
+      <c r="I29" s="21">
+        <v>90003414</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="21">
+        <v>910523</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="21">
+        <v>1</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="21">
+        <v>90003415</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="21">
+        <v>910120</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="21">
+        <v>5</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21">
+        <v>90003416</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="21">
+        <v>910120</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="21">
+        <v>10</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21">
+        <v>90003417</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="21">
+        <v>910105</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="21">
+        <v>3</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21">
+        <v>90003418</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="21">
+        <v>501006</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="21">
+        <v>1</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21">
+        <v>90003419</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="21">
+        <v>262</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="21">
+        <v>10</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
+        <v>45040</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21">
+        <v>90003420</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="21">
+        <v>272</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="21">
+        <v>10</v>
+      </c>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B36" s="7">
+        <v>30013</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="10">
+        <v>45043</v>
+      </c>
+      <c r="H36" s="9">
+        <v>45071</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B37" s="21">
+        <v>20009</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="24">
+        <v>45043</v>
+      </c>
+      <c r="H37" s="24">
+        <v>45071</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+    </row>
+    <row r="43" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+    </row>
+    <row r="44" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M44" s="29"/>
+      <c r="N44" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+    </row>
+    <row r="45" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="29"/>
+      <c r="N45" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
+        <v>45041</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1106</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="10">
+        <v>45043</v>
+      </c>
+      <c r="H46" s="39">
+        <v>45085</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M46" s="15">
+        <v>100</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="M48" s="15">
+        <v>100</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="15">
+        <v>3</v>
+      </c>
+      <c r="N49" s="7"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50" s="15">
+        <v>1</v>
+      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="M51" s="15">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>45041</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="15">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
+        <v>45041</v>
+      </c>
+      <c r="B53" s="21">
+        <v>1107</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="24">
+        <v>45043</v>
+      </c>
+      <c r="H53" s="39">
+        <v>45085</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M53" s="29">
+        <v>100</v>
+      </c>
+      <c r="N53" s="21"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+    </row>
+    <row r="54" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" s="29">
+        <v>1</v>
+      </c>
+      <c r="N54" s="21"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+    </row>
+    <row r="55" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="29">
+        <v>1</v>
+      </c>
+      <c r="N55" s="21"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+    </row>
+    <row r="56" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="M56" s="29">
+        <v>1</v>
+      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+    </row>
+    <row r="57" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="M57" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+    </row>
+    <row r="58" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37">
+        <v>45041</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:T58" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
@@ -3446,7 +5505,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>17</v>
@@ -3465,7 +5524,7 @@
         <v>910120</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="L12" s="21">
         <v>10</v>
@@ -3491,7 +5550,7 @@
         <v>910443</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="L13" s="21">
         <v>10</v>
@@ -3517,7 +5576,7 @@
         <v>910317</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L14" s="21">
         <v>5</v>
@@ -3543,7 +5602,7 @@
         <v>501004</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="L15" s="21">
         <v>20</v>
@@ -3569,7 +5628,7 @@
         <v>910511</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="L16" s="21">
         <v>1</v>
@@ -3595,7 +5654,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="L17" s="21">
         <v>20</v>
@@ -3621,7 +5680,7 @@
         <v>501001</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="L18" s="21">
         <v>20</v>
@@ -3647,7 +5706,7 @@
         <v>910317</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L19" s="21">
         <v>5</v>
@@ -3673,7 +5732,7 @@
         <v>6300</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="L20" s="21">
         <v>10</v>
@@ -3699,7 +5758,7 @@
         <v>910512</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="L21" s="21">
         <v>1</v>
@@ -3717,13 +5776,13 @@
         <v>370</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>18</v>
@@ -3735,13 +5794,13 @@
         <v>45029</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J22" s="7">
         <v>630006</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7">
         <v>1</v>
@@ -3759,13 +5818,13 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J23" s="7">
         <v>660006</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7">
         <v>1</v>
@@ -3783,13 +5842,13 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J24" s="7">
         <v>910427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L24" s="7">
         <v>20</v>
@@ -3807,13 +5866,13 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J25" s="7">
         <v>910317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -3831,13 +5890,13 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J26" s="7">
         <v>910357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7">
         <v>20</v>
@@ -3855,13 +5914,13 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J27" s="7">
         <v>910477</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -3879,13 +5938,13 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J28" s="7">
         <v>910513</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7">
         <v>1</v>
@@ -3899,13 +5958,13 @@
         <v>371</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>18</v>
@@ -3917,13 +5976,13 @@
         <v>45043</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J29" s="21">
         <v>910515</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L29" s="21">
         <v>20</v>
@@ -3945,13 +6004,13 @@
       <c r="G30" s="23"/>
       <c r="H30" s="24"/>
       <c r="I30" s="21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J30" s="21">
         <v>910515</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L30" s="21">
         <v>20</v>
@@ -3973,13 +6032,13 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J31" s="21">
         <v>910515</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L31" s="21">
         <v>30</v>
@@ -4001,13 +6060,13 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J32" s="21">
         <v>910515</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L32" s="21">
         <v>30</v>
@@ -4029,13 +6088,13 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J33" s="21">
         <v>910515</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L33" s="21">
         <v>30</v>
@@ -4057,13 +6116,13 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J34" s="21">
         <v>910515</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L34" s="21">
         <v>30</v>
@@ -4085,13 +6144,13 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" s="21">
         <v>910515</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L35" s="21">
         <v>40</v>
@@ -4109,10 +6168,10 @@
         <v>30012</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -4125,11 +6184,11 @@
         <v>45043</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L36" s="15">
         <v>0.6</v>
@@ -4143,10 +6202,10 @@
         <v>20008</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -4161,17 +6220,17 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="21">
         <v>10000000</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
@@ -4189,17 +6248,17 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21">
         <v>10000000</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
@@ -4217,17 +6276,17 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L39" s="21"/>
       <c r="M39" s="21">
         <v>10000000</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P39" s="25"/>
       <c r="Q39" s="25"/>
@@ -4245,17 +6304,17 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21">
         <v>100000</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
@@ -4273,17 +6332,17 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="21">
         <v>100000</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P41" s="25"/>
       <c r="Q41" s="25"/>
@@ -4301,17 +6360,17 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21">
         <v>100000</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O42" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
@@ -4329,17 +6388,17 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L43" s="29"/>
       <c r="M43" s="21">
         <v>10000000</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O43" s="30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
@@ -4357,17 +6416,17 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="21">
         <v>10000000</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O44" s="30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
@@ -4379,10 +6438,10 @@
         <v>1104</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
@@ -4395,11 +6454,11 @@
         <v>45043</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L45" s="15">
         <v>0.1</v>
@@ -4419,7 +6478,7 @@
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L46" s="15">
         <v>3</v>
@@ -4439,7 +6498,7 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L47" s="15">
         <v>3</v>
@@ -4459,7 +6518,7 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L48" s="15">
         <v>3</v>
@@ -4479,7 +6538,7 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L49" s="15">
         <v>1</v>
@@ -4499,7 +6558,7 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L50" s="15">
         <v>1</v>
@@ -4513,10 +6572,10 @@
         <v>1105</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21" t="s">
@@ -4529,11 +6588,11 @@
         <v>45043</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="29" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L51" s="29">
         <v>0.05</v>
@@ -4557,7 +6616,7 @@
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L52" s="29">
         <v>3</v>
@@ -4581,7 +6640,7 @@
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L53" s="29">
         <v>3</v>
@@ -4605,7 +6664,7 @@
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L54" s="29">
         <v>2</v>
@@ -4629,7 +6688,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
       <c r="K55" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L55" s="21">
         <v>2</v>
@@ -4653,7 +6712,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L56" s="21">
         <v>2</v>
@@ -4674,14 +6733,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4707,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -4726,13 +6785,13 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -4761,12 +6820,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H2" s="6">
         <v>20</v>
@@ -4777,7 +6836,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>18</v>
@@ -4796,7 +6855,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5">
         <v>20</v>
@@ -4818,7 +6877,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H4" s="5">
         <v>3</v>
@@ -4840,7 +6899,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
@@ -4862,7 +6921,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
@@ -4884,7 +6943,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
@@ -4906,7 +6965,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -4995,7 +7054,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -5074,7 +7133,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -5096,7 +7155,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5184,7 +7243,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5206,7 +7265,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5229,12 +7288,12 @@
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>4000000</v>
@@ -5248,7 +7307,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="P22" s="9">
         <v>44994</v>
@@ -5286,7 +7345,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5308,7 +7367,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5330,7 +7389,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5352,7 +7411,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5374,7 +7433,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5418,7 +7477,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -5440,7 +7499,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5462,7 +7521,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5506,7 +7565,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -5528,7 +7587,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5572,7 +7631,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -5594,7 +7653,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -5616,7 +7675,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -5638,7 +7697,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -5660,7 +7719,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -5683,12 +7742,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -5702,7 +7761,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P42" s="9">
         <v>44994</v>
@@ -5718,7 +7777,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -5740,7 +7799,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -5762,7 +7821,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -5784,7 +7843,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -5806,7 +7865,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -5828,7 +7887,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H48" s="7">
         <v>5</v>
@@ -5850,7 +7909,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -5872,7 +7931,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -5894,7 +7953,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -5916,7 +7975,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -5938,7 +7997,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -5960,7 +8019,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="H54" s="7">
         <v>10</v>
@@ -5982,7 +8041,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -6004,7 +8063,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -6026,7 +8085,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -6048,7 +8107,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -6070,7 +8129,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -6114,7 +8173,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -6134,17 +8193,17 @@
         <v>365</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -6155,7 +8214,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>18</v>
@@ -6172,11 +8231,11 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H63" s="7">
         <v>5</v>
@@ -6196,11 +8255,11 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H64" s="7">
         <v>5</v>
@@ -6220,11 +8279,11 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -6244,11 +8303,11 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -6268,11 +8327,11 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -6292,11 +8351,11 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -6316,17 +8375,17 @@
         <v>366</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -6337,7 +8396,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>18</v>
@@ -6354,11 +8413,11 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -6378,11 +8437,11 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -6402,11 +8461,11 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -6426,11 +8485,11 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -6450,11 +8509,11 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -6474,11 +8533,11 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -6498,17 +8557,17 @@
         <v>367</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="H76" s="7">
         <v>10</v>
@@ -6519,7 +8578,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>18</v>
@@ -6536,11 +8595,11 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H77" s="7">
         <v>8</v>
@@ -6560,11 +8619,11 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -6584,11 +8643,11 @@
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
       <c r="E79" s="7" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H79" s="13">
         <v>5</v>
@@ -6608,11 +8667,11 @@
       <c r="C80" s="7"/>
       <c r="D80" s="12"/>
       <c r="E80" s="7" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H80" s="13">
         <v>10</v>
@@ -6632,11 +8691,11 @@
       <c r="C81" s="7"/>
       <c r="D81" s="12"/>
       <c r="E81" s="7" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="H81" s="7">
         <v>10</v>
@@ -6656,11 +8715,11 @@
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
       <c r="E82" s="7" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="H82" s="7">
         <v>100</v>
@@ -6680,17 +8739,17 @@
         <v>368</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H83" s="15">
         <v>3</v>
@@ -6701,10 +8760,10 @@
       <c r="L83" s="7"/>
       <c r="M83" s="13"/>
       <c r="N83" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P83" s="10">
         <v>44987</v>
@@ -6718,11 +8777,11 @@
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="H84" s="15">
         <v>10</v>
@@ -6742,11 +8801,11 @@
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H85" s="15">
         <v>20</v>
@@ -6766,11 +8825,11 @@
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
       <c r="E86" s="15" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H86" s="15">
         <v>3</v>
@@ -6790,11 +8849,11 @@
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
       <c r="E87" s="15" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H87" s="15">
         <v>5</v>
@@ -6814,11 +8873,11 @@
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
       <c r="E88" s="15" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="H88" s="15">
         <v>20</v>
@@ -6838,11 +8897,11 @@
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
       <c r="E89" s="15" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H89" s="15">
         <v>10</v>
@@ -6862,15 +8921,15 @@
         <v>30008</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="H90" s="15">
         <v>0.2</v>
@@ -6882,7 +8941,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P90" s="10">
         <v>44994</v>
@@ -6896,15 +8955,15 @@
         <v>30009</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="H91" s="15">
         <v>0.2</v>
@@ -6916,7 +8975,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P91" s="10">
         <v>44994</v>
@@ -6930,15 +8989,15 @@
         <v>30010</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H92" s="15">
         <v>0.2</v>
@@ -6950,7 +9009,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P92" s="10">
         <v>44994</v>
@@ -6964,15 +9023,15 @@
         <v>30011</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H93" s="15">
         <v>0.16</v>
@@ -6984,7 +9043,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P93" s="10">
         <v>44994</v>
@@ -6996,17 +9055,17 @@
     <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -7016,7 +9075,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="P94" s="10">
         <v>44994</v>
@@ -7028,17 +9087,17 @@
     <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -7048,7 +9107,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P95" s="10">
         <v>44994</v>
@@ -7060,17 +9119,17 @@
     <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -7080,7 +9139,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P96" s="10">
         <f>Q95</f>
@@ -7094,17 +9153,17 @@
     <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -7114,7 +9173,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P97" s="10">
         <f t="shared" ref="P97:P98" si="0">Q96</f>
@@ -7128,17 +9187,17 @@
     <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -7148,7 +9207,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P98" s="10">
         <f t="shared" si="0"/>
@@ -7164,15 +9223,15 @@
         <v>1102</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="H99" s="15">
         <v>0.05</v>
@@ -7181,7 +9240,7 @@
         <v>910505</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K99" s="15">
         <v>1</v>
@@ -7190,7 +9249,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P99" s="10">
         <v>44994</v>
@@ -7206,7 +9265,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="H100" s="15">
         <v>4</v>
@@ -7228,7 +9287,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H101" s="15">
         <v>3</v>
@@ -7250,7 +9309,7 @@
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H102" s="15">
         <v>3</v>
@@ -7272,7 +9331,7 @@
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
       <c r="G103" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H103" s="15">
         <v>3</v>
@@ -7294,7 +9353,7 @@
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
       <c r="G104" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H104" s="15">
         <v>3</v>
@@ -7314,15 +9373,15 @@
         <v>1103</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H105" s="15">
         <v>0.1</v>
@@ -7331,7 +9390,7 @@
         <v>910506</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K105" s="15">
         <v>1</v>
@@ -7340,7 +9399,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="P105" s="10">
         <v>44994</v>
@@ -7356,7 +9415,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="H106" s="15">
         <v>0.05</v>
@@ -7378,7 +9437,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="H107" s="15">
         <v>3</v>
@@ -7400,7 +9459,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="H108" s="15">
         <v>3</v>
@@ -7422,7 +9481,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="H109" s="15">
         <v>400</v>
@@ -7444,7 +9503,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="H110" s="15">
         <v>0.03</v>
@@ -7464,15 +9523,15 @@
         <v>20007</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -7482,10 +9541,10 @@
         <v>10000000</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="10">
@@ -7502,7 +9561,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -7512,10 +9571,10 @@
         <v>10000000</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O112" s="7"/>
       <c r="P112" s="10">
@@ -7532,7 +9591,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -7542,10 +9601,10 @@
         <v>1000000</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="10">
@@ -7562,7 +9621,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -7572,10 +9631,10 @@
         <v>10000000</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="10">
@@ -7592,7 +9651,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -7602,10 +9661,10 @@
         <v>10000000</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="10">
@@ -7622,7 +9681,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -7632,10 +9691,10 @@
         <v>500000</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="10">
@@ -7654,6 +9713,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -7876,16 +9944,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7902,12 +9969,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578777B6-8AEC-453D-A488-BFEFDB26288F}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{265CBB09-92EA-4588-A545-6FD422003E5F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="274">
   <si>
     <t>최종수정일</t>
   </si>
@@ -427,13 +427,7 @@
     <t>아무 장비나 강화 시도 10회</t>
   </si>
   <si>
-    <t>일반 매터리얼 상자[이벤트][귀속]</t>
-  </si>
-  <si>
     <t>아무 장비나 강화 시도 20회</t>
-  </si>
-  <si>
-    <t>행운의 매터리얼 상자[이벤트][귀속]</t>
   </si>
   <si>
     <t>일일 미션 60회 달성</t>
@@ -857,9 +851,6 @@
     <t>쌍둥이자리 우[이벤트][귀속] 1개</t>
   </si>
   <si>
-    <t>경험치 증폭제[20%][귀속] 1개</t>
-  </si>
-  <si>
     <t>솜사탕[이벤트][귀속] 1개</t>
   </si>
   <si>
@@ -917,6 +908,33 @@
   </si>
   <si>
     <t>물리 피해 감소(원거리)</t>
+  </si>
+  <si>
+    <t>상급 뽑기권 상자[귀속]</t>
+  </si>
+  <si>
+    <t>포근한 선물 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[영웅]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권 [11회] [이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권 [11회] [이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>데모자르의 축복[귀속]</t>
+  </si>
+  <si>
+    <t>희귀 매터리얼 확정 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>계정당 8회</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[30%][귀속] 1개</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,6 +1348,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3294,10 +3321,10 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3373,7 +3400,7 @@
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
-        <v>45040</v>
+        <v>45042</v>
       </c>
       <c r="B2" s="5">
         <v>152</v>
@@ -3400,22 +3427,22 @@
         <v>90001800</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="5">
-        <v>910182</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="6">
-        <v>10</v>
+      <c r="K2" s="40">
+        <v>262</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="41">
+        <v>5</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
-        <v>45040</v>
+      <c r="A3" s="38">
+        <v>45042</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3428,22 +3455,22 @@
         <v>90001801</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5">
-        <v>501004</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="5">
-        <v>20</v>
+      <c r="K3" s="40">
+        <v>272</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="40">
+        <v>5</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
-        <v>45040</v>
+      <c r="A4" s="38">
+        <v>45042</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3456,13 +3483,13 @@
         <v>90001802</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <v>501001</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="K4" s="40">
+        <v>62</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="40">
         <v>20</v>
       </c>
       <c r="N4" s="5"/>
@@ -3470,8 +3497,8 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
-        <v>45040</v>
+      <c r="A5" s="38">
+        <v>45042</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3484,13 +3511,13 @@
         <v>90001803</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>910444</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="40">
+        <v>280</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="40">
         <v>5</v>
       </c>
       <c r="N5" s="5"/>
@@ -3498,8 +3525,8 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
-        <v>45040</v>
+      <c r="A6" s="38">
+        <v>45042</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3512,22 +3539,22 @@
         <v>90001804</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>910445</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
+      <c r="K6" s="40">
+        <v>910395</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
-        <v>45040</v>
+      <c r="A7" s="38">
+        <v>45042</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3540,13 +3567,13 @@
         <v>90001805</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5">
-        <v>910442</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="K7" s="40">
+        <v>123</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="40">
         <v>20</v>
       </c>
       <c r="N7" s="5"/>
@@ -3554,8 +3581,8 @@
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
-        <v>45040</v>
+      <c r="A8" s="38">
+        <v>45042</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3568,13 +3595,13 @@
         <v>90001806</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>600017</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="K8" s="40">
+        <v>910477</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="40">
         <v>5</v>
       </c>
       <c r="N8" s="5"/>
@@ -3582,8 +3609,8 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
-        <v>45040</v>
+      <c r="A9" s="38">
+        <v>45042</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3596,22 +3623,22 @@
         <v>90001807</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <v>501015</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
+      <c r="K9" s="40">
+        <v>1110277</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="40">
+        <v>20</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
-        <v>45040</v>
+      <c r="A10" s="38">
+        <v>45042</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3624,22 +3651,22 @@
         <v>90001808</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <v>910113</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2</v>
+      <c r="K10" s="40">
+        <v>510212</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="40">
+        <v>1</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
-        <v>45040</v>
+      <c r="A11" s="38">
+        <v>45042</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3652,22 +3679,22 @@
         <v>90001809</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="7">
-        <v>910395</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
+      <c r="K11" s="42">
+        <v>910415</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="M11" s="42">
+        <v>3</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
-        <v>45040</v>
+      <c r="A12" s="38">
+        <v>45042</v>
       </c>
       <c r="B12" s="21">
         <v>153</v>
@@ -3694,13 +3721,13 @@
         <v>90001810</v>
       </c>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
+      <c r="K12" s="42">
         <v>262</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="42">
         <v>5</v>
       </c>
       <c r="N12" s="21"/>
@@ -3712,8 +3739,8 @@
       <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
-        <v>45040</v>
+      <c r="A13" s="38">
+        <v>45042</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -3726,13 +3753,13 @@
         <v>90001811</v>
       </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="21">
+      <c r="K13" s="42">
         <v>272</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="42">
         <v>5</v>
       </c>
       <c r="N13" s="21"/>
@@ -3744,8 +3771,8 @@
       <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
-        <v>45040</v>
+      <c r="A14" s="38">
+        <v>45042</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -3758,13 +3785,13 @@
         <v>90001812</v>
       </c>
       <c r="J14" s="21"/>
-      <c r="K14" s="21">
+      <c r="K14" s="42">
         <v>62</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="42">
         <v>20</v>
       </c>
       <c r="N14" s="21"/>
@@ -3776,8 +3803,8 @@
       <c r="T14" s="25"/>
     </row>
     <row r="15" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
-        <v>45040</v>
+      <c r="A15" s="38">
+        <v>45042</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -3790,13 +3817,13 @@
         <v>90001813</v>
       </c>
       <c r="J15" s="21"/>
-      <c r="K15" s="21">
+      <c r="K15" s="42">
         <v>280</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="42">
         <v>5</v>
       </c>
       <c r="N15" s="21"/>
@@ -3808,8 +3835,8 @@
       <c r="T15" s="25"/>
     </row>
     <row r="16" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
-        <v>45040</v>
+      <c r="A16" s="38">
+        <v>45042</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -3822,13 +3849,13 @@
         <v>90001814</v>
       </c>
       <c r="J16" s="21"/>
-      <c r="K16" s="21">
+      <c r="K16" s="42">
         <v>910520</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="42">
         <v>1</v>
       </c>
       <c r="N16" s="21"/>
@@ -3840,8 +3867,8 @@
       <c r="T16" s="25"/>
     </row>
     <row r="17" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
-        <v>45040</v>
+      <c r="A17" s="38">
+        <v>45042</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -3854,13 +3881,13 @@
         <v>90001815</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="21">
+      <c r="K17" s="42">
         <v>123</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="42">
         <v>20</v>
       </c>
       <c r="N17" s="21"/>
@@ -3872,8 +3899,8 @@
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
-        <v>45040</v>
+      <c r="A18" s="38">
+        <v>45042</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -3886,13 +3913,13 @@
         <v>90001816</v>
       </c>
       <c r="J18" s="21"/>
-      <c r="K18" s="21">
+      <c r="K18" s="42">
         <v>910477</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="42">
         <v>5</v>
       </c>
       <c r="N18" s="21"/>
@@ -3904,8 +3931,8 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
-        <v>45040</v>
+      <c r="A19" s="38">
+        <v>45042</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -3918,13 +3945,13 @@
         <v>90001817</v>
       </c>
       <c r="J19" s="21"/>
-      <c r="K19" s="21">
+      <c r="K19" s="42">
         <v>1110277</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="42">
         <v>20</v>
       </c>
       <c r="N19" s="21"/>
@@ -3936,8 +3963,8 @@
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
-        <v>45040</v>
+      <c r="A20" s="38">
+        <v>45042</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -3950,13 +3977,13 @@
         <v>90001818</v>
       </c>
       <c r="J20" s="21"/>
-      <c r="K20" s="21">
+      <c r="K20" s="42">
         <v>510212</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="42">
         <v>1</v>
       </c>
       <c r="N20" s="21"/>
@@ -3968,8 +3995,8 @@
       <c r="T20" s="25"/>
     </row>
     <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
-        <v>45040</v>
+      <c r="A21" s="38">
+        <v>45042</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -3982,13 +4009,13 @@
         <v>90001819</v>
       </c>
       <c r="J21" s="21"/>
-      <c r="K21" s="21">
+      <c r="K21" s="42">
         <v>910521</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="42">
         <v>1</v>
       </c>
       <c r="N21" s="21"/>
@@ -4000,8 +4027,8 @@
       <c r="T21" s="25"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
-        <v>45040</v>
+      <c r="A22" s="38">
+        <v>45042</v>
       </c>
       <c r="B22" s="7">
         <v>372</v>
@@ -4030,13 +4057,13 @@
       <c r="J22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="7">
-        <v>630006</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="7">
+      <c r="K22" s="42">
+        <v>910522</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="M22" s="42">
         <v>1</v>
       </c>
       <c r="N22" s="7"/>
@@ -4044,8 +4071,8 @@
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="34">
-        <v>45040</v>
+      <c r="A23" s="38">
+        <v>45042</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
@@ -4060,22 +4087,22 @@
       <c r="J23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="7">
-        <v>660006</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
+      <c r="K23" s="42">
+        <v>6300</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="M23" s="42">
+        <v>5</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="34">
-        <v>45040</v>
+      <c r="A24" s="38">
+        <v>45042</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
@@ -4090,22 +4117,22 @@
       <c r="J24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="7">
-        <v>910427</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="7">
-        <v>20</v>
+      <c r="K24" s="42">
+        <v>6300</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="M24" s="42">
+        <v>5</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="34">
-        <v>45040</v>
+      <c r="A25" s="38">
+        <v>45042</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
@@ -4120,22 +4147,22 @@
       <c r="J25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K25" s="7">
-        <v>910317</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5</v>
+      <c r="K25" s="42">
+        <v>630006</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="42">
+        <v>1</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="34">
-        <v>45040</v>
+      <c r="A26" s="38">
+        <v>45042</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
@@ -4150,22 +4177,22 @@
       <c r="J26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="7">
-        <v>910357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="7">
-        <v>20</v>
+      <c r="K26" s="42">
+        <v>660006</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="M26" s="42">
+        <v>1</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="34">
-        <v>45040</v>
+      <c r="A27" s="38">
+        <v>45042</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
@@ -4180,13 +4207,13 @@
       <c r="J27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="7">
-        <v>910477</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="K27" s="42">
+        <v>600017</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="42">
         <v>5</v>
       </c>
       <c r="N27" s="7"/>
@@ -4194,8 +4221,8 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="34">
-        <v>45040</v>
+      <c r="A28" s="38">
+        <v>45042</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
@@ -4210,22 +4237,22 @@
       <c r="J28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="7">
-        <v>910513</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1</v>
+      <c r="K28" s="42">
+        <v>910113</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="42">
+        <v>2</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
-        <v>45040</v>
+      <c r="A29" s="38">
+        <v>45042</v>
       </c>
       <c r="B29" s="21">
         <v>373</v>
@@ -4254,13 +4281,13 @@
       <c r="J29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="42">
         <v>910523</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="42">
         <v>1</v>
       </c>
       <c r="N29" s="21"/>
@@ -4272,8 +4299,8 @@
       <c r="T29" s="25"/>
     </row>
     <row r="30" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37">
-        <v>45040</v>
+      <c r="A30" s="38">
+        <v>45042</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -4288,13 +4315,13 @@
       <c r="J30" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K30" s="21">
-        <v>910120</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="21">
+      <c r="K30" s="42">
+        <v>151</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" s="42">
         <v>5</v>
       </c>
       <c r="N30" s="21"/>
@@ -4306,8 +4333,8 @@
       <c r="T30" s="25"/>
     </row>
     <row r="31" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
-        <v>45040</v>
+      <c r="A31" s="38">
+        <v>45042</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -4322,14 +4349,14 @@
       <c r="J31" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="42">
         <v>910120</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L31" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="21">
-        <v>10</v>
+      <c r="M31" s="42">
+        <v>20</v>
       </c>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
@@ -4340,8 +4367,8 @@
       <c r="T31" s="25"/>
     </row>
     <row r="32" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37">
-        <v>45040</v>
+      <c r="A32" s="38">
+        <v>45042</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -4356,14 +4383,14 @@
       <c r="J32" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="21">
-        <v>910105</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="21">
-        <v>3</v>
+      <c r="K32" s="42">
+        <v>910113</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="42">
+        <v>2</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -4374,8 +4401,8 @@
       <c r="T32" s="25"/>
     </row>
     <row r="33" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
-        <v>45040</v>
+      <c r="A33" s="38">
+        <v>45042</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4388,16 +4415,16 @@
         <v>90003418</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="21">
-        <v>501006</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="21">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="K33" s="42">
+        <v>262</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="42">
+        <v>5</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
@@ -4408,8 +4435,8 @@
       <c r="T33" s="25"/>
     </row>
     <row r="34" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37">
-        <v>45040</v>
+      <c r="A34" s="38">
+        <v>45042</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4422,16 +4449,16 @@
         <v>90003419</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="21">
-        <v>262</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="M34" s="21">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="K34" s="42">
+        <v>910114</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" s="42">
+        <v>1</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
@@ -4442,8 +4469,8 @@
       <c r="T34" s="25"/>
     </row>
     <row r="35" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
-        <v>45040</v>
+      <c r="A35" s="38">
+        <v>45042</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -4456,16 +4483,16 @@
         <v>90003420</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="21">
+        <v>121</v>
+      </c>
+      <c r="K35" s="42">
         <v>272</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="M35" s="21">
-        <v>10</v>
+      <c r="M35" s="42">
+        <v>5</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
@@ -4486,7 +4513,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -4504,7 +4531,7 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M36" s="15">
         <v>1.45</v>
@@ -4524,7 +4551,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -4540,7 +4567,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
@@ -4550,7 +4577,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
@@ -4572,17 +4599,17 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
         <v>1000</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
@@ -4604,17 +4631,17 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21">
         <v>1000</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -4622,8 +4649,8 @@
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37">
-        <v>45041</v>
+      <c r="A40" s="38">
+        <v>45042</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -4635,18 +4662,18 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
-      <c r="L40" s="21" t="s">
-        <v>248</v>
+      <c r="L40" s="42" t="s">
+        <v>273</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21">
         <v>1000</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -4668,17 +4695,17 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
         <v>1000</v>
       </c>
       <c r="O41" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="P41" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="P41" s="28" t="s">
-        <v>259</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
@@ -4700,17 +4727,17 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
         <v>1000</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -4732,17 +4759,17 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
         <v>1000</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -4750,8 +4777,8 @@
       <c r="T43" s="25"/>
     </row>
     <row r="44" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37">
-        <v>45041</v>
+      <c r="A44" s="38">
+        <v>45042</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -4764,17 +4791,17 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M44" s="29"/>
       <c r="N44" s="21">
         <v>1000</v>
       </c>
-      <c r="O44" s="21" t="s">
-        <v>241</v>
+      <c r="O44" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -4782,8 +4809,8 @@
       <c r="T44" s="25"/>
     </row>
     <row r="45" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37">
-        <v>45041</v>
+      <c r="A45" s="38">
+        <v>45042</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -4796,17 +4823,17 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="21">
         <v>1000</v>
       </c>
-      <c r="O45" s="21" t="s">
-        <v>241</v>
+      <c r="O45" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
@@ -4824,7 +4851,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -4838,11 +4865,11 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M46" s="15">
         <v>100</v>
@@ -4866,7 +4893,7 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M47" s="15">
         <v>0.05</v>
@@ -4890,7 +4917,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M48" s="15">
         <v>100</v>
@@ -4938,7 +4965,7 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M50" s="15">
         <v>1</v>
@@ -4962,7 +4989,7 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M51" s="15">
         <v>1</v>
@@ -5006,7 +5033,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21" t="s">
@@ -5020,11 +5047,11 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M53" s="29">
         <v>100</v>
@@ -5136,7 +5163,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M57" s="21">
         <v>0.03</v>
@@ -5505,7 +5532,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>17</v>
@@ -5550,7 +5577,7 @@
         <v>910443</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L13" s="21">
         <v>10</v>
@@ -5628,7 +5655,7 @@
         <v>910511</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L16" s="21">
         <v>1</v>
@@ -5732,7 +5759,7 @@
         <v>6300</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L20" s="21">
         <v>10</v>
@@ -5758,7 +5785,7 @@
         <v>910512</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21" s="21">
         <v>1</v>
@@ -6766,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -6785,13 +6812,13 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -6820,7 +6847,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7054,7 +7081,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -7133,7 +7160,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -7155,7 +7182,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7265,7 +7292,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7288,12 +7315,12 @@
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>4000000</v>
@@ -7307,7 +7334,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P22" s="9">
         <v>44994</v>
@@ -7345,7 +7372,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7367,7 +7394,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7389,7 +7416,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7411,7 +7438,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -7433,7 +7460,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7477,7 +7504,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -7499,7 +7526,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7521,7 +7548,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7565,7 +7592,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7587,7 +7614,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7631,7 +7658,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7653,7 +7680,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7675,7 +7702,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -7697,7 +7724,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -7719,7 +7746,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -7742,12 +7769,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -7761,7 +7788,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P42" s="9">
         <v>44994</v>
@@ -7777,7 +7804,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -7799,7 +7826,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -7821,7 +7848,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -7843,7 +7870,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -7909,7 +7936,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -7931,7 +7958,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7953,7 +7980,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -8063,7 +8090,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -8085,7 +8112,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -8107,7 +8134,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -8129,7 +8156,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -8173,7 +8200,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -8196,14 +8223,14 @@
         <v>29</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -8255,7 +8282,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
@@ -8279,11 +8306,11 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -8303,11 +8330,11 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -8327,11 +8354,11 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -8351,11 +8378,11 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -8378,14 +8405,14 @@
         <v>29</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -8417,7 +8444,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -8437,11 +8464,11 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -8461,11 +8488,11 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -8485,11 +8512,11 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -8513,7 +8540,7 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -8533,11 +8560,11 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -8560,7 +8587,7 @@
         <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
@@ -8595,11 +8622,11 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H77" s="7">
         <v>8</v>
@@ -8619,11 +8646,11 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -8643,7 +8670,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
       <c r="E79" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
@@ -8671,7 +8698,7 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H80" s="13">
         <v>10</v>
@@ -8715,11 +8742,11 @@
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
       <c r="E82" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H82" s="7">
         <v>100</v>
@@ -8742,14 +8769,14 @@
         <v>29</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H83" s="15">
         <v>3</v>
@@ -8763,7 +8790,7 @@
         <v>31</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P83" s="10">
         <v>44987</v>
@@ -8777,11 +8804,11 @@
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H84" s="15">
         <v>10</v>
@@ -8801,11 +8828,11 @@
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H85" s="15">
         <v>20</v>
@@ -8825,11 +8852,11 @@
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
       <c r="E86" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H86" s="15">
         <v>3</v>
@@ -8849,11 +8876,11 @@
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
       <c r="E87" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H87" s="15">
         <v>5</v>
@@ -8873,11 +8900,11 @@
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
       <c r="E88" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H88" s="15">
         <v>20</v>
@@ -8897,11 +8924,11 @@
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
       <c r="E89" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H89" s="15">
         <v>10</v>
@@ -8924,12 +8951,12 @@
         <v>54</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H90" s="15">
         <v>0.2</v>
@@ -8941,7 +8968,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P90" s="10">
         <v>44994</v>
@@ -8958,12 +8985,12 @@
         <v>54</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H91" s="15">
         <v>0.2</v>
@@ -8975,7 +9002,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P91" s="10">
         <v>44994</v>
@@ -8992,12 +9019,12 @@
         <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H92" s="15">
         <v>0.2</v>
@@ -9009,7 +9036,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P92" s="10">
         <v>44994</v>
@@ -9026,12 +9053,12 @@
         <v>54</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H93" s="15">
         <v>0.16</v>
@@ -9043,7 +9070,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P93" s="10">
         <v>44994</v>
@@ -9055,17 +9082,17 @@
     <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -9075,7 +9102,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P94" s="10">
         <v>44994</v>
@@ -9087,17 +9114,17 @@
     <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -9107,7 +9134,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P95" s="10">
         <v>44994</v>
@@ -9119,17 +9146,17 @@
     <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -9139,7 +9166,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P96" s="10">
         <f>Q95</f>
@@ -9153,17 +9180,17 @@
     <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -9173,7 +9200,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P97" s="10">
         <f t="shared" ref="P97:P98" si="0">Q96</f>
@@ -9187,17 +9214,17 @@
     <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -9207,7 +9234,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P98" s="10">
         <f t="shared" si="0"/>
@@ -9226,12 +9253,12 @@
         <v>74</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H99" s="15">
         <v>0.05</v>
@@ -9240,7 +9267,7 @@
         <v>910505</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K99" s="15">
         <v>1</v>
@@ -9249,7 +9276,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P99" s="10">
         <v>44994</v>
@@ -9265,7 +9292,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H100" s="15">
         <v>4</v>
@@ -9287,7 +9314,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H101" s="15">
         <v>3</v>
@@ -9376,7 +9403,7 @@
         <v>74</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -9390,7 +9417,7 @@
         <v>910506</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K105" s="15">
         <v>1</v>
@@ -9399,7 +9426,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P105" s="10">
         <v>44994</v>
@@ -9415,7 +9442,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H106" s="15">
         <v>0.05</v>
@@ -9437,7 +9464,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H107" s="15">
         <v>3</v>
@@ -9459,7 +9486,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H108" s="15">
         <v>3</v>
@@ -9481,7 +9508,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H109" s="15">
         <v>400</v>
@@ -9503,7 +9530,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H110" s="15">
         <v>0.03</v>
@@ -9526,12 +9553,12 @@
         <v>58</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -9541,7 +9568,7 @@
         <v>10000000</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N111" s="7" t="s">
         <v>31</v>
@@ -9561,7 +9588,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -9571,7 +9598,7 @@
         <v>10000000</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>31</v>
@@ -9591,7 +9618,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -9601,10 +9628,10 @@
         <v>1000000</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="10">
@@ -9621,7 +9648,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -9631,10 +9658,10 @@
         <v>10000000</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="10">
@@ -9651,7 +9678,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -9661,10 +9688,10 @@
         <v>10000000</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="10">
@@ -9681,7 +9708,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -9691,10 +9718,10 @@
         <v>500000</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="10">
@@ -9713,15 +9740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -9944,15 +9962,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9969,4 +9988,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{265CBB09-92EA-4588-A545-6FD422003E5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
-    <sheet name="사용법" sheetId="5" r:id="rId1"/>
-    <sheet name="230427 업데이트" sheetId="6" r:id="rId2"/>
+    <sheet name="사용법" sheetId="1" r:id="rId1"/>
+    <sheet name="230427 업데이트" sheetId="2" r:id="rId2"/>
     <sheet name="230330 업데이트" sheetId="3" r:id="rId3"/>
-    <sheet name="230223 업데이트" sheetId="1" r:id="rId4"/>
+    <sheet name="230223 업데이트" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <customWorkbookViews>
+    <customWorkbookView name="성민석 - 사용자 보기" guid="{449A71E9-8042-4C8D-AF61-6D2D9C1217BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="275">
   <si>
     <t>최종수정일</t>
   </si>
@@ -353,9 +360,6 @@
   </si>
   <si>
     <t>상급 특수 매터리얼 상자[귀속]</t>
-  </si>
-  <si>
-    <t>카네이션 매터리얼 상자[이벤트][귀속]</t>
   </si>
   <si>
     <t>1000일 동행 기념 출석 이벤트</t>
@@ -910,9 +914,6 @@
     <t>물리 피해 감소(원거리)</t>
   </si>
   <si>
-    <t>상급 뽑기권 상자[귀속]</t>
-  </si>
-  <si>
     <t>포근한 선물 상자[이벤트][귀속]</t>
   </si>
   <si>
@@ -935,6 +936,15 @@
   </si>
   <si>
     <t>경험치 증폭제[30%][귀속] 1개</t>
+  </si>
+  <si>
+    <t>일반 무기 도감 증표</t>
+  </si>
+  <si>
+    <t>일반 방어구 도감 증표</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일반 장신구 도감 증표 </t>
   </si>
 </sst>
 </file>
@@ -3309,10 +3319,19 @@
     </row>
   </sheetData>
   <autoFilter ref="H1:Y46" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <customSheetViews>
+    <customSheetView guid="{449A71E9-8042-4C8D-AF61-6D2D9C1217BF}" scale="85" showAutoFilter="1">
+      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+      <autoFilter ref="H1:Y46" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3321,10 +3340,10 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3400,7 +3419,7 @@
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B2" s="5">
         <v>152</v>
@@ -3427,14 +3446,12 @@
         <v>90001800</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="40">
-        <v>262</v>
-      </c>
+      <c r="K2" s="40"/>
       <c r="L2" s="40" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="M2" s="41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -3442,7 +3459,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3455,14 +3472,12 @@
         <v>90001801</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="40">
-        <v>272</v>
-      </c>
+      <c r="K3" s="40"/>
       <c r="L3" s="40" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="M3" s="40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -3470,7 +3485,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3483,14 +3498,12 @@
         <v>90001802</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="40">
-        <v>62</v>
-      </c>
+      <c r="K4" s="40"/>
       <c r="L4" s="40" t="s">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="M4" s="40">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -3498,7 +3511,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3511,14 +3524,12 @@
         <v>90001803</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="40">
-        <v>280</v>
-      </c>
+      <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -3526,7 +3537,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3539,11 +3550,9 @@
         <v>90001804</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="40">
-        <v>910395</v>
-      </c>
+      <c r="K6" s="40"/>
       <c r="L6" s="40" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M6" s="40">
         <v>1</v>
@@ -3554,7 +3563,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3567,14 +3576,12 @@
         <v>90001805</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="40">
-        <v>123</v>
-      </c>
+      <c r="K7" s="40"/>
       <c r="L7" s="40" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="M7" s="40">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -3582,7 +3589,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3595,14 +3602,12 @@
         <v>90001806</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="40">
-        <v>910477</v>
-      </c>
+      <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="M8" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -3610,7 +3615,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3623,14 +3628,12 @@
         <v>90001807</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="40">
-        <v>1110277</v>
-      </c>
+      <c r="K9" s="40"/>
       <c r="L9" s="40" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="M9" s="40">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3651,11 +3654,9 @@
         <v>90001808</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="40">
-        <v>510212</v>
-      </c>
+      <c r="K10" s="40"/>
       <c r="L10" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="40">
         <v>1</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3679,14 +3680,12 @@
         <v>90001809</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="42">
-        <v>910415</v>
-      </c>
+      <c r="K11" s="42"/>
       <c r="L11" s="42" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="M11" s="42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3703,7 +3702,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>31</v>
@@ -3725,7 +3724,7 @@
         <v>262</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M12" s="42">
         <v>5</v>
@@ -3757,7 +3756,7 @@
         <v>272</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="42">
         <v>5</v>
@@ -3789,7 +3788,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="42">
         <v>20</v>
@@ -3821,7 +3820,7 @@
         <v>280</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M15" s="42">
         <v>5</v>
@@ -3853,7 +3852,7 @@
         <v>910520</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="42">
         <v>1</v>
@@ -3885,7 +3884,7 @@
         <v>123</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17" s="42">
         <v>20</v>
@@ -3949,7 +3948,7 @@
         <v>1110277</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M19" s="42">
         <v>20</v>
@@ -3981,7 +3980,7 @@
         <v>510212</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="42">
         <v>1</v>
@@ -4013,7 +4012,7 @@
         <v>910521</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M21" s="42">
         <v>1</v>
@@ -4037,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -4061,7 +4060,7 @@
         <v>910522</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M22" s="42">
         <v>1</v>
@@ -4085,13 +4084,13 @@
         <v>90003408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="42">
         <v>6300</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M23" s="42">
         <v>5</v>
@@ -4115,13 +4114,13 @@
         <v>90003409</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" s="42">
         <v>6300</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M24" s="42">
         <v>5</v>
@@ -4145,13 +4144,13 @@
         <v>90003410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="42">
         <v>630006</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M25" s="42">
         <v>1</v>
@@ -4175,13 +4174,13 @@
         <v>90003411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="42">
         <v>660006</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M26" s="42">
         <v>1</v>
@@ -4235,7 +4234,7 @@
         <v>90003413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" s="42">
         <v>910113</v>
@@ -4261,7 +4260,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>31</v>
@@ -4285,7 +4284,7 @@
         <v>910523</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M29" s="42">
         <v>1</v>
@@ -4313,13 +4312,13 @@
         <v>90003415</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K30" s="42">
         <v>151</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M30" s="42">
         <v>5</v>
@@ -4347,13 +4346,13 @@
         <v>90003416</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" s="42">
         <v>910120</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M31" s="42">
         <v>20</v>
@@ -4381,7 +4380,7 @@
         <v>90003417</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K32" s="42">
         <v>910113</v>
@@ -4415,13 +4414,13 @@
         <v>90003418</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K33" s="42">
         <v>262</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M33" s="42">
         <v>5</v>
@@ -4449,13 +4448,13 @@
         <v>90003419</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K34" s="42">
         <v>910114</v>
       </c>
       <c r="L34" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M34" s="42">
         <v>1</v>
@@ -4483,13 +4482,13 @@
         <v>90003420</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K35" s="42">
         <v>272</v>
       </c>
       <c r="L35" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M35" s="42">
         <v>5</v>
@@ -4513,7 +4512,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -4531,7 +4530,7 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M36" s="15">
         <v>1.45</v>
@@ -4551,7 +4550,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -4567,7 +4566,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
@@ -4577,7 +4576,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
@@ -4599,17 +4598,17 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
         <v>1000</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
@@ -4631,17 +4630,17 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21">
         <v>1000</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -4663,17 +4662,17 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21">
         <v>1000</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -4695,17 +4694,17 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
         <v>1000</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
@@ -4727,17 +4726,17 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
         <v>1000</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -4759,17 +4758,17 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
         <v>1000</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -4791,17 +4790,17 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M44" s="29"/>
       <c r="N44" s="21">
         <v>1000</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -4823,17 +4822,17 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="21">
         <v>1000</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
@@ -4851,7 +4850,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -4865,11 +4864,11 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M46" s="15">
         <v>100</v>
@@ -4893,7 +4892,7 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M47" s="15">
         <v>0.05</v>
@@ -4917,7 +4916,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M48" s="15">
         <v>100</v>
@@ -4965,7 +4964,7 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M50" s="15">
         <v>1</v>
@@ -4989,7 +4988,7 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M51" s="15">
         <v>1</v>
@@ -5033,7 +5032,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21" t="s">
@@ -5047,11 +5046,11 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M53" s="29">
         <v>100</v>
@@ -5163,7 +5162,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M57" s="21">
         <v>0.03</v>
@@ -5206,6 +5205,15 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:T58" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <customSheetViews>
+    <customSheetView guid="{449A71E9-8042-4C8D-AF61-6D2D9C1217BF}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+      <autoFilter ref="B1:T58" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -5532,7 +5540,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>17</v>
@@ -5551,7 +5559,7 @@
         <v>910120</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="21">
         <v>10</v>
@@ -5577,7 +5585,7 @@
         <v>910443</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L13" s="21">
         <v>10</v>
@@ -5655,7 +5663,7 @@
         <v>910511</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="21">
         <v>1</v>
@@ -5681,7 +5689,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="21">
         <v>20</v>
@@ -5759,7 +5767,7 @@
         <v>6300</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" s="21">
         <v>10</v>
@@ -5785,7 +5793,7 @@
         <v>910512</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L21" s="21">
         <v>1</v>
@@ -6754,9 +6762,18 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:S56" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <customSheetViews>
+    <customSheetView guid="{449A71E9-8042-4C8D-AF61-6D2D9C1217BF}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+      <autoFilter ref="B1:S56" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6793,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -6812,13 +6829,13 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -6847,7 +6864,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6926,7 +6943,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
@@ -6970,7 +6987,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
@@ -7058,7 +7075,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7081,7 +7098,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -7160,7 +7177,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -7182,7 +7199,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7270,7 +7287,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7292,7 +7309,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7315,12 +7332,12 @@
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>4000000</v>
@@ -7334,7 +7351,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P22" s="9">
         <v>44994</v>
@@ -7372,7 +7389,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7394,7 +7411,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7416,7 +7433,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7438,7 +7455,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -7460,7 +7477,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7504,7 +7521,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -7526,7 +7543,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7548,7 +7565,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7592,7 +7609,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7614,7 +7631,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7658,7 +7675,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7680,7 +7697,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7702,7 +7719,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -7724,7 +7741,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -7746,7 +7763,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -7769,12 +7786,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -7788,7 +7805,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P42" s="9">
         <v>44994</v>
@@ -7804,7 +7821,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -7826,7 +7843,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -7848,7 +7865,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -7870,7 +7887,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -7936,7 +7953,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -7958,7 +7975,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7980,7 +7997,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -8024,7 +8041,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -8046,7 +8063,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54" s="7">
         <v>10</v>
@@ -8068,7 +8085,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -8090,7 +8107,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -8112,7 +8129,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -8134,7 +8151,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -8156,7 +8173,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -8200,7 +8217,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -8223,14 +8240,14 @@
         <v>29</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -8282,7 +8299,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
@@ -8306,11 +8323,11 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -8330,11 +8347,11 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -8354,11 +8371,11 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -8378,11 +8395,11 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -8405,14 +8422,14 @@
         <v>29</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -8444,7 +8461,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -8464,11 +8481,11 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -8488,11 +8505,11 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -8512,11 +8529,11 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -8540,7 +8557,7 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -8560,11 +8577,11 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -8587,14 +8604,14 @@
         <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H76" s="7">
         <v>10</v>
@@ -8622,11 +8639,11 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H77" s="7">
         <v>8</v>
@@ -8646,11 +8663,11 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -8670,7 +8687,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
       <c r="E79" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
@@ -8694,11 +8711,11 @@
       <c r="C80" s="7"/>
       <c r="D80" s="12"/>
       <c r="E80" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H80" s="13">
         <v>10</v>
@@ -8718,11 +8735,11 @@
       <c r="C81" s="7"/>
       <c r="D81" s="12"/>
       <c r="E81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H81" s="7">
         <v>10</v>
@@ -8742,11 +8759,11 @@
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
       <c r="E82" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" s="7">
         <v>100</v>
@@ -8769,14 +8786,14 @@
         <v>29</v>
       </c>
       <c r="D83" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H83" s="15">
         <v>3</v>
@@ -8790,7 +8807,7 @@
         <v>31</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P83" s="10">
         <v>44987</v>
@@ -8804,11 +8821,11 @@
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H84" s="15">
         <v>10</v>
@@ -8828,11 +8845,11 @@
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H85" s="15">
         <v>20</v>
@@ -8852,11 +8869,11 @@
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
       <c r="E86" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H86" s="15">
         <v>3</v>
@@ -8876,11 +8893,11 @@
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
       <c r="E87" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H87" s="15">
         <v>5</v>
@@ -8900,11 +8917,11 @@
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
       <c r="E88" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H88" s="15">
         <v>20</v>
@@ -8924,11 +8941,11 @@
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
       <c r="E89" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H89" s="15">
         <v>10</v>
@@ -8951,12 +8968,12 @@
         <v>54</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H90" s="15">
         <v>0.2</v>
@@ -8968,7 +8985,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P90" s="10">
         <v>44994</v>
@@ -8985,12 +9002,12 @@
         <v>54</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H91" s="15">
         <v>0.2</v>
@@ -9002,7 +9019,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P91" s="10">
         <v>44994</v>
@@ -9019,12 +9036,12 @@
         <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H92" s="15">
         <v>0.2</v>
@@ -9036,7 +9053,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P92" s="10">
         <v>44994</v>
@@ -9053,12 +9070,12 @@
         <v>54</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H93" s="15">
         <v>0.16</v>
@@ -9070,7 +9087,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P93" s="10">
         <v>44994</v>
@@ -9082,17 +9099,17 @@
     <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="E94" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -9102,7 +9119,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P94" s="10">
         <v>44994</v>
@@ -9114,17 +9131,17 @@
     <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="E95" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -9134,7 +9151,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P95" s="10">
         <v>44994</v>
@@ -9146,17 +9163,17 @@
     <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="E96" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -9166,7 +9183,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P96" s="10">
         <f>Q95</f>
@@ -9180,17 +9197,17 @@
     <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="E97" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -9200,7 +9217,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P97" s="10">
         <f t="shared" ref="P97:P98" si="0">Q96</f>
@@ -9214,17 +9231,17 @@
     <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="E98" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -9234,7 +9251,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P98" s="10">
         <f t="shared" si="0"/>
@@ -9253,12 +9270,12 @@
         <v>74</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H99" s="15">
         <v>0.05</v>
@@ -9267,7 +9284,7 @@
         <v>910505</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K99" s="15">
         <v>1</v>
@@ -9276,7 +9293,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P99" s="10">
         <v>44994</v>
@@ -9292,7 +9309,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H100" s="15">
         <v>4</v>
@@ -9314,7 +9331,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H101" s="15">
         <v>3</v>
@@ -9403,7 +9420,7 @@
         <v>74</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -9417,7 +9434,7 @@
         <v>910506</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K105" s="15">
         <v>1</v>
@@ -9426,7 +9443,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P105" s="10">
         <v>44994</v>
@@ -9442,7 +9459,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H106" s="15">
         <v>0.05</v>
@@ -9464,7 +9481,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H107" s="15">
         <v>3</v>
@@ -9486,7 +9503,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H108" s="15">
         <v>3</v>
@@ -9508,7 +9525,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H109" s="15">
         <v>400</v>
@@ -9530,7 +9547,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H110" s="15">
         <v>0.03</v>
@@ -9553,12 +9570,12 @@
         <v>58</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -9568,7 +9585,7 @@
         <v>10000000</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N111" s="7" t="s">
         <v>31</v>
@@ -9588,7 +9605,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -9598,7 +9615,7 @@
         <v>10000000</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>31</v>
@@ -9618,7 +9635,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -9628,10 +9645,10 @@
         <v>1000000</v>
       </c>
       <c r="M113" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="N113" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="N113" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="10">
@@ -9648,7 +9665,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -9658,10 +9675,10 @@
         <v>10000000</v>
       </c>
       <c r="M114" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="N114" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="N114" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="10">
@@ -9678,7 +9695,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -9688,10 +9705,10 @@
         <v>10000000</v>
       </c>
       <c r="M115" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="N115" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="N115" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="10">
@@ -9708,7 +9725,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -9718,10 +9735,10 @@
         <v>500000</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="10">
@@ -9733,9 +9750,18 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:Q116" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <customSheetViews>
+    <customSheetView guid="{449A71E9-8042-4C8D-AF61-6D2D9C1217BF}" scale="85" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+      <autoFilter ref="B1:Q116" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6468AD-CC19-45E9-B76B-E732ACA7D9D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="1" r:id="rId1"/>
-    <sheet name="230427 업데이트" sheetId="2" r:id="rId2"/>
-    <sheet name="230330 업데이트" sheetId="3" r:id="rId3"/>
-    <sheet name="230223 업데이트" sheetId="4" r:id="rId4"/>
+    <sheet name="230525 업데이트" sheetId="5" r:id="rId2"/>
+    <sheet name="230427 업데이트" sheetId="2" r:id="rId3"/>
+    <sheet name="230330 업데이트" sheetId="3" r:id="rId4"/>
+    <sheet name="230223 업데이트" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230525 업데이트'!$B$1:$P$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="4" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230525 업데이트'!$B$1:$P$58</definedName>
     <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="275">
   <si>
     <t>최종수정일</t>
   </si>
@@ -1239,7 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1372,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="백분율 2" xfId="5" xr:uid="{98B67D86-B04C-4176-9AB3-B5846AA634BE}"/>
@@ -1411,19 +1417,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425DF0CB-EBC6-4605-4957-455A52E191DC}"/>
@@ -1434,7 +1440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="209550"/>
+          <a:off x="0" y="200025"/>
           <a:ext cx="4095750" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1492,13 +1498,36 @@
             </a:rPr>
             <a:t>필수 입력 대상</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>우측 예시 참고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -1950,16 +1979,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6171ED9-16BC-41F2-9289-D648104F9EEF}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="G1:Y46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3325,7 +3354,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{6657E095-4761-4AA7-B190-573678AE9CC4}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3336,14 +3365,1882 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481331F9-E6D8-431C-BD91-EB6EDB09BB53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEEB964-AFF2-4339-9A20-85575924DF1A}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="5">
+        <v>152</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45043</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45057</v>
+      </c>
+      <c r="I2" s="5">
+        <v>90001800</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="41">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5">
+        <v>90001801</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="40">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5">
+        <v>90001802</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" s="40">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5">
+        <v>90001803</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="40">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5">
+        <v>90001804</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5">
+        <v>90001805</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="40">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5">
+        <v>90001806</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M8" s="40">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5">
+        <v>90001807</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="M9" s="40">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5">
+        <v>90001808</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="40">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>90001809</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="42">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="21">
+        <v>153</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="23">
+        <v>45057</v>
+      </c>
+      <c r="H12" s="24">
+        <v>45071</v>
+      </c>
+      <c r="I12" s="21">
+        <v>90001810</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="42">
+        <v>262</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="42">
+        <v>5</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="21">
+        <v>90001811</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="42">
+        <v>272</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="42">
+        <v>5</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="21">
+        <v>90001812</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="42">
+        <v>62</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="42">
+        <v>20</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="21">
+        <v>90001813</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="42">
+        <v>280</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="42">
+        <v>5</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="21">
+        <v>90001814</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="42">
+        <v>910520</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="42">
+        <v>1</v>
+      </c>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="21">
+        <v>90001815</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="42">
+        <v>123</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="42">
+        <v>20</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="21">
+        <v>90001816</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="42">
+        <v>910477</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="42">
+        <v>5</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="21">
+        <v>90001817</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="42">
+        <v>1110277</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="42">
+        <v>20</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="21">
+        <v>90001818</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="42">
+        <v>510212</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="42">
+        <v>1</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="21">
+        <v>90001819</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="42">
+        <v>910521</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="42">
+        <v>1</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="7">
+        <v>372</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45043</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45057</v>
+      </c>
+      <c r="I22" s="5">
+        <v>90003407</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="42">
+        <v>910522</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="M22" s="42">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7">
+        <v>90003408</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="42">
+        <v>6300</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" s="42">
+        <v>5</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7">
+        <v>90003409</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="42">
+        <v>6300</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="M24" s="42">
+        <v>5</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7">
+        <v>90003410</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="42">
+        <v>630006</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" s="42">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7">
+        <v>90003411</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="42">
+        <v>660006</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26" s="42">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7">
+        <v>90003412</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="42">
+        <v>600017</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="42">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7">
+        <v>90003413</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="42">
+        <v>910113</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="42">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="21">
+        <v>373</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="23">
+        <v>45057</v>
+      </c>
+      <c r="H29" s="24">
+        <v>45071</v>
+      </c>
+      <c r="I29" s="21">
+        <v>90003414</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="42">
+        <v>910523</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="42">
+        <v>1</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="21">
+        <v>90003415</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="42">
+        <v>151</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" s="42">
+        <v>5</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21">
+        <v>90003416</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="42">
+        <v>910120</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="42">
+        <v>20</v>
+      </c>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21">
+        <v>90003417</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="42">
+        <v>910113</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="42">
+        <v>2</v>
+      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21">
+        <v>90003418</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="42">
+        <v>262</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="42">
+        <v>5</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21">
+        <v>90003419</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="42">
+        <v>910114</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" s="42">
+        <v>1</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21">
+        <v>90003420</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="42">
+        <v>272</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="42">
+        <v>5</v>
+      </c>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="7">
+        <v>30013</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="10">
+        <v>45043</v>
+      </c>
+      <c r="H36" s="9">
+        <v>45071</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="21">
+        <v>20009</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="24">
+        <v>45043</v>
+      </c>
+      <c r="H37" s="24">
+        <v>45071</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+    </row>
+    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+    </row>
+    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+    </row>
+    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+    </row>
+    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" s="32"/>
+      <c r="N44" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+    </row>
+    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="32"/>
+      <c r="N45" s="21">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+    </row>
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="7">
+        <v>1106</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="10">
+        <v>45043</v>
+      </c>
+      <c r="H46" s="39">
+        <v>45085</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M46" s="31">
+        <v>100</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+    </row>
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="M47" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+    </row>
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M48" s="31">
+        <v>100</v>
+      </c>
+      <c r="N48" s="7"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+    </row>
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="31">
+        <v>3</v>
+      </c>
+      <c r="N49" s="7"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+    </row>
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M50" s="31">
+        <v>1</v>
+      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M51" s="31">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+    </row>
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="31">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+    </row>
+    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="21">
+        <v>1107</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="24">
+        <v>45043</v>
+      </c>
+      <c r="H53" s="39">
+        <v>45085</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="M53" s="32">
+        <v>100</v>
+      </c>
+      <c r="N53" s="21"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+    </row>
+    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" s="32">
+        <v>1</v>
+      </c>
+      <c r="N54" s="21"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+    </row>
+    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="32">
+        <v>1</v>
+      </c>
+      <c r="N55" s="21"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+    </row>
+    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M56" s="32">
+        <v>1</v>
+      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+    </row>
+    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="M57" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+    </row>
+    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:T58" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481331F9-E6D8-431C-BD91-EB6EDB09BB53}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:T58"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5211,7 +7108,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+      <autoFilter ref="B1:T58" xr:uid="{7E37583D-AA30-410B-9771-FF99F8946193}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5220,15 +7117,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6768,7 +8666,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+      <autoFilter ref="B1:S56" xr:uid="{06EEF279-8BEA-424D-85BD-F3CBF14AD5C7}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6777,14 +8675,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -9756,7 +11654,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{9B289874-C90E-4657-B0FA-6F7E2B8062C2}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9766,6 +11664,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -9988,16 +11895,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10014,12 +11920,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1989A8-87A8-48CC-8110-58F00DE4A920}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010FCF94-F673-4206-93F3-BF016D1443E7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="346">
   <si>
     <t>최종수정일</t>
   </si>
@@ -637,6 +637,27 @@
   </si>
   <si>
     <t>물리 피해 감소(원거리)</t>
+  </si>
+  <si>
+    <t>[프로모션] 제작 1</t>
+  </si>
+  <si>
+    <t>희귀 변신 확정 뽑기권[프로모션][귀속]</t>
+  </si>
+  <si>
+    <t>제한 없음</t>
+  </si>
+  <si>
+    <t>영웅의 흔적[귀속] 10개</t>
+  </si>
+  <si>
+    <t>[프로모션] 제작 2</t>
+  </si>
+  <si>
+    <t>영웅 변신 확정 뽑기권[프로모션][귀속]</t>
+  </si>
+  <si>
+    <t>영웅의 흔적[귀속] 18개</t>
   </si>
   <si>
     <t>감사의 달 출석 이벤트</t>
@@ -3556,7 +3577,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{FE4F4A77-4828-48E3-8A1A-A646A573556B}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{FD9B61D1-F8B0-4FAF-B190-93EA59887337}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3569,11 +3590,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEEB964-AFF2-4339-9A20-85575924DF1A}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6038,6 +6059,186 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
+    <row r="77" spans="2:20">
+      <c r="B77" s="7">
+        <v>421113</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="10">
+        <v>45085</v>
+      </c>
+      <c r="H77" s="9">
+        <v>45127</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7">
+        <v>630019</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20">
+      <c r="B78" s="7">
+        <v>421114</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="10">
+        <v>45085</v>
+      </c>
+      <c r="H78" s="9">
+        <v>45127</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7">
+        <v>630018</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="2:20">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="13"/>
+    </row>
   </sheetData>
   <autoFilter ref="B1:T76" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6051,9 +6252,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6140,10 +6341,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -6160,7 +6361,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M2" s="41">
         <v>2</v>
@@ -6186,7 +6387,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M3" s="40">
         <v>1</v>
@@ -6212,7 +6413,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M4" s="40">
         <v>1</v>
@@ -6238,7 +6439,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M5" s="40">
         <v>20</v>
@@ -6264,7 +6465,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M6" s="40">
         <v>1</v>
@@ -6290,7 +6491,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M7" s="40">
         <v>2</v>
@@ -6316,7 +6517,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M8" s="40">
         <v>2</v>
@@ -6342,7 +6543,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M9" s="40">
         <v>1</v>
@@ -6394,7 +6595,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M11" s="42">
         <v>1</v>
@@ -6414,7 +6615,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>31</v>
@@ -6564,7 +6765,7 @@
         <v>910520</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M16" s="42">
         <v>1</v>
@@ -6660,7 +6861,7 @@
         <v>1110277</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M19" s="42">
         <v>20</v>
@@ -6724,7 +6925,7 @@
         <v>910521</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M21" s="42">
         <v>1</v>
@@ -6748,7 +6949,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -6772,7 +6973,7 @@
         <v>910522</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M22" s="42">
         <v>1</v>
@@ -6802,7 +7003,7 @@
         <v>6300</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" s="42">
         <v>5</v>
@@ -6832,7 +7033,7 @@
         <v>6300</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M24" s="42">
         <v>5</v>
@@ -6862,7 +7063,7 @@
         <v>630006</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M25" s="42">
         <v>1</v>
@@ -6892,7 +7093,7 @@
         <v>660006</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M26" s="42">
         <v>1</v>
@@ -6946,7 +7147,7 @@
         <v>90003413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K28" s="42">
         <v>910113</v>
@@ -6972,7 +7173,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>31</v>
@@ -6996,7 +7197,7 @@
         <v>910523</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M29" s="42">
         <v>1</v>
@@ -7024,7 +7225,7 @@
         <v>90003415</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K30" s="42">
         <v>151</v>
@@ -7058,13 +7259,13 @@
         <v>90003416</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K31" s="42">
         <v>910120</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M31" s="42">
         <v>20</v>
@@ -7092,7 +7293,7 @@
         <v>90003417</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K32" s="42">
         <v>910113</v>
@@ -7126,7 +7327,7 @@
         <v>90003418</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K33" s="42">
         <v>262</v>
@@ -7160,7 +7361,7 @@
         <v>90003419</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K34" s="42">
         <v>910114</v>
@@ -7194,7 +7395,7 @@
         <v>90003420</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K35" s="42">
         <v>272</v>
@@ -7224,7 +7425,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -7242,7 +7443,7 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M36" s="15">
         <v>1.45</v>
@@ -7262,7 +7463,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -7278,7 +7479,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
@@ -7288,7 +7489,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
@@ -7310,7 +7511,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
@@ -7320,7 +7521,7 @@
         <v>162</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
@@ -7342,7 +7543,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21">
@@ -7352,7 +7553,7 @@
         <v>162</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -7374,7 +7575,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="42" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21">
@@ -7384,7 +7585,7 @@
         <v>168</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -7406,17 +7607,17 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
         <v>1000</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
@@ -7435,10 +7636,9 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
@@ -7448,7 +7648,7 @@
         <v>168</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -7470,7 +7670,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
@@ -7480,7 +7680,7 @@
         <v>168</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -7502,17 +7702,17 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M44" s="29"/>
       <c r="N44" s="21">
         <v>1000</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -7534,17 +7734,17 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="32" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="21">
         <v>1000</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
@@ -7562,7 +7762,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -7576,11 +7776,11 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="15" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="31" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M46" s="15">
         <v>100</v>
@@ -7744,7 +7944,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21" t="s">
@@ -7758,11 +7958,11 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="29" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M53" s="29">
         <v>100</v>
@@ -7923,7 +8123,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{BF516555-7EF8-4C83-B74B-84D60304B872}"/>
+      <autoFilter ref="B1:T58" xr:uid="{FF35DCE1-E53C-4DE1-857D-A7444BA7BD5D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8253,7 +8453,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>17</v>
@@ -8272,7 +8472,7 @@
         <v>910120</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L12" s="21">
         <v>10</v>
@@ -8298,7 +8498,7 @@
         <v>910443</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L13" s="21">
         <v>10</v>
@@ -8376,7 +8576,7 @@
         <v>910511</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L16" s="21">
         <v>1</v>
@@ -8480,7 +8680,7 @@
         <v>6300</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L20" s="21">
         <v>10</v>
@@ -8506,7 +8706,7 @@
         <v>910512</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L21" s="21">
         <v>1</v>
@@ -9481,7 +9681,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{FCCC2AFE-EAB3-41F2-A680-AF741FEA97EC}"/>
+      <autoFilter ref="B1:S56" xr:uid="{1A19EF48-E64E-4753-9F5B-3AB464489CF7}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9523,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -9542,13 +9742,13 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -9577,7 +9777,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -9656,7 +9856,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
@@ -9700,7 +9900,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
@@ -9722,7 +9922,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -9811,7 +10011,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -9890,7 +10090,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -9912,7 +10112,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -10022,7 +10222,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -10045,12 +10245,12 @@
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>4000000</v>
@@ -10064,7 +10264,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P22" s="9">
         <v>44994</v>
@@ -10102,7 +10302,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10124,7 +10324,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -10146,7 +10346,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10168,7 +10368,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -10190,7 +10390,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10234,7 +10434,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -10256,7 +10456,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10322,7 +10522,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10344,7 +10544,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -10388,7 +10588,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -10410,7 +10610,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10432,7 +10632,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -10454,7 +10654,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -10476,7 +10676,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -10499,7 +10699,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -10518,7 +10718,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P42" s="9">
         <v>44994</v>
@@ -10534,7 +10734,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -10556,7 +10756,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -10578,7 +10778,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -10600,7 +10800,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -10666,7 +10866,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -10688,7 +10888,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10710,7 +10910,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -10820,7 +11020,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -10842,7 +11042,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -10864,7 +11064,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -10886,7 +11086,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -10953,14 +11153,14 @@
         <v>29</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -11012,7 +11212,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
@@ -11036,11 +11236,11 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -11060,11 +11260,11 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -11084,11 +11284,11 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -11112,7 +11312,7 @@
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -11135,14 +11335,14 @@
         <v>29</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -11174,7 +11374,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -11194,11 +11394,11 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -11222,7 +11422,7 @@
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -11242,11 +11442,11 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -11270,7 +11470,7 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -11294,7 +11494,7 @@
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -11317,7 +11517,7 @@
         <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
@@ -11352,11 +11552,11 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H77" s="7">
         <v>8</v>
@@ -11376,11 +11576,11 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -11400,7 +11600,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
       <c r="E79" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
@@ -11428,7 +11628,7 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H80" s="13">
         <v>10</v>
@@ -11452,7 +11652,7 @@
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H81" s="7">
         <v>10</v>
@@ -11499,14 +11699,14 @@
         <v>29</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H83" s="15">
         <v>3</v>
@@ -11520,7 +11720,7 @@
         <v>31</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P83" s="10">
         <v>44987</v>
@@ -11534,11 +11734,11 @@
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H84" s="15">
         <v>10</v>
@@ -11558,11 +11758,11 @@
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H85" s="15">
         <v>20</v>
@@ -11582,11 +11782,11 @@
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
       <c r="E86" s="15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H86" s="15">
         <v>3</v>
@@ -11606,11 +11806,11 @@
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
       <c r="E87" s="15" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H87" s="15">
         <v>5</v>
@@ -11630,11 +11830,11 @@
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
       <c r="E88" s="15" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H88" s="15">
         <v>20</v>
@@ -11654,11 +11854,11 @@
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
       <c r="E89" s="15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H89" s="15">
         <v>10</v>
@@ -11681,12 +11881,12 @@
         <v>54</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H90" s="15">
         <v>0.2</v>
@@ -11698,7 +11898,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P90" s="10">
         <v>44994</v>
@@ -11715,12 +11915,12 @@
         <v>54</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H91" s="15">
         <v>0.2</v>
@@ -11732,7 +11932,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P91" s="10">
         <v>44994</v>
@@ -11749,12 +11949,12 @@
         <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H92" s="15">
         <v>0.2</v>
@@ -11766,7 +11966,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P92" s="10">
         <v>44994</v>
@@ -11783,12 +11983,12 @@
         <v>54</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H93" s="15">
         <v>0.16</v>
@@ -11800,7 +12000,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P93" s="10">
         <v>44994</v>
@@ -11812,17 +12012,17 @@
     <row r="94" spans="2:17" ht="54">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -11832,7 +12032,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P94" s="10">
         <v>44994</v>
@@ -11844,17 +12044,17 @@
     <row r="95" spans="2:17">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -11864,7 +12064,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P95" s="10">
         <v>44994</v>
@@ -11876,17 +12076,17 @@
     <row r="96" spans="2:17">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -11896,7 +12096,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P96" s="10">
         <f>Q95</f>
@@ -11910,17 +12110,17 @@
     <row r="97" spans="2:17" ht="27">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -11930,7 +12130,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P97" s="10">
         <f t="shared" ref="P97:P98" si="0">Q96</f>
@@ -11944,17 +12144,17 @@
     <row r="98" spans="2:17" ht="27">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -11964,7 +12164,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P98" s="10">
         <f t="shared" si="0"/>
@@ -11983,12 +12183,12 @@
         <v>74</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H99" s="15">
         <v>0.05</v>
@@ -11997,7 +12197,7 @@
         <v>910505</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K99" s="15">
         <v>1</v>
@@ -12006,7 +12206,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P99" s="10">
         <v>44994</v>
@@ -12022,7 +12222,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H100" s="15">
         <v>4</v>
@@ -12044,7 +12244,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H101" s="15">
         <v>3</v>
@@ -12133,7 +12333,7 @@
         <v>74</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -12147,7 +12347,7 @@
         <v>910506</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K105" s="15">
         <v>1</v>
@@ -12156,7 +12356,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P105" s="10">
         <v>44994</v>
@@ -12194,7 +12394,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H107" s="15">
         <v>3</v>
@@ -12216,7 +12416,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H108" s="15">
         <v>3</v>
@@ -12283,12 +12483,12 @@
         <v>58</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -12298,7 +12498,7 @@
         <v>10000000</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="N111" s="7" t="s">
         <v>31</v>
@@ -12318,7 +12518,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -12328,7 +12528,7 @@
         <v>10000000</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>31</v>
@@ -12348,7 +12548,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -12358,10 +12558,10 @@
         <v>1000000</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="10">
@@ -12388,10 +12588,10 @@
         <v>10000000</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="10">
@@ -12418,10 +12618,10 @@
         <v>10000000</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="10">
@@ -12438,7 +12638,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -12448,10 +12648,10 @@
         <v>500000</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="10">
@@ -12469,7 +12669,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{5B89EB38-4762-4550-A944-42BEA509B53E}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{DC7BFE9A-DA4E-4145-9A61-534ABFE6143C}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12575,10 +12775,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -12880,7 +13080,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>31</v>
@@ -13022,7 +13222,7 @@
         <v>910520</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M16" s="42">
         <v>1</v>
@@ -13112,7 +13312,7 @@
         <v>1110277</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M19" s="42">
         <v>20</v>
@@ -13172,7 +13372,7 @@
         <v>910521</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M21" s="42">
         <v>1</v>
@@ -13193,7 +13393,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -13217,7 +13417,7 @@
         <v>910522</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M22" s="42">
         <v>1</v>
@@ -13248,7 +13448,7 @@
         <v>6300</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" s="42">
         <v>5</v>
@@ -13279,7 +13479,7 @@
         <v>6300</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M24" s="42">
         <v>5</v>
@@ -13310,7 +13510,7 @@
         <v>630006</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M25" s="42">
         <v>1</v>
@@ -13341,7 +13541,7 @@
         <v>660006</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M26" s="42">
         <v>1</v>
@@ -13397,7 +13597,7 @@
         <v>90003413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K28" s="42">
         <v>910113</v>
@@ -13425,7 +13625,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>31</v>
@@ -13449,7 +13649,7 @@
         <v>910523</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M29" s="42">
         <v>1</v>
@@ -13475,7 +13675,7 @@
         <v>90003415</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K30" s="42">
         <v>151</v>
@@ -13507,13 +13707,13 @@
         <v>90003416</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K31" s="42">
         <v>910120</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M31" s="42">
         <v>20</v>
@@ -13539,7 +13739,7 @@
         <v>90003417</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K32" s="42">
         <v>910113</v>
@@ -13571,7 +13771,7 @@
         <v>90003418</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K33" s="42">
         <v>262</v>
@@ -13603,7 +13803,7 @@
         <v>90003419</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K34" s="42">
         <v>910114</v>
@@ -13635,7 +13835,7 @@
         <v>90003420</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K35" s="42">
         <v>272</v>
@@ -13662,7 +13862,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -13680,7 +13880,7 @@
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M36" s="31">
         <v>1.45</v>
@@ -13702,7 +13902,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -13718,7 +13918,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
@@ -13728,7 +13928,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
@@ -13748,7 +13948,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
@@ -13758,7 +13958,7 @@
         <v>162</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
@@ -13778,7 +13978,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21">
@@ -13788,7 +13988,7 @@
         <v>162</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -13808,7 +14008,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="42" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21">
@@ -13818,7 +14018,7 @@
         <v>168</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -13838,17 +14038,17 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
         <v>1000</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
@@ -13868,7 +14068,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
@@ -13878,7 +14078,7 @@
         <v>168</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -13898,7 +14098,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
@@ -13908,7 +14108,7 @@
         <v>168</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -13928,17 +14128,17 @@
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M44" s="32"/>
       <c r="N44" s="21">
         <v>1000</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -13958,17 +14158,17 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M45" s="32"/>
       <c r="N45" s="21">
         <v>1000</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
@@ -13983,7 +14183,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -13997,11 +14197,11 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="31" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="31" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M46" s="31">
         <v>100</v>
@@ -14173,7 +14373,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21" t="s">
@@ -14187,11 +14387,11 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="32" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M53" s="32">
         <v>100</v>

--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010FCF94-F673-4206-93F3-BF016D1443E7}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156497D8-FCA3-4743-9FB1-391E5C53F2F0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="30840" yWindow="795" windowWidth="22500" windowHeight="14115" firstSheet="1" activeTab="2" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230427 업데이트'!$B$1:$T$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">템플릿!$B$1:$P$58</definedName>
@@ -1183,7 +1183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,7 +1906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2209,12 +2209,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="8"/>
     <col min="8" max="8" width="11.125" style="8" customWidth="1"/>
@@ -2234,7 +2234,7 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" ht="16.5">
+    <row r="1" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="7:25" ht="16.5" customHeight="1">
+    <row r="2" spans="7:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="5">
         <v>150</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="7:25" ht="16.5">
+    <row r="3" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2351,7 +2351,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="7:25" ht="16.5">
+    <row r="4" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2377,7 +2377,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="7:25" ht="16.5">
+    <row r="5" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2403,7 +2403,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="7:25" ht="16.5">
+    <row r="6" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2429,7 +2429,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="7:25" ht="16.5">
+    <row r="7" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2455,7 +2455,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="7:25" ht="16.5">
+    <row r="8" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2481,7 +2481,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="7:25" ht="16.5">
+    <row r="9" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2507,7 +2507,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="7:25" ht="16.5">
+    <row r="10" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2533,7 +2533,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="7:25" ht="16.5">
+    <row r="11" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2559,7 +2559,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="7:25" ht="16.5">
+    <row r="12" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H12" s="7">
         <v>370</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="7:25" ht="16.5">
+    <row r="13" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
@@ -2629,7 +2629,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="7:25" ht="16.5">
+    <row r="14" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
@@ -2657,7 +2657,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="7:25" ht="16.5">
+    <row r="15" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
@@ -2685,7 +2685,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="7:25" ht="16.5">
+    <row r="16" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
@@ -2713,7 +2713,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="8:25" ht="16.5">
+    <row r="17" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
@@ -2741,7 +2741,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="8:25" ht="16.5">
+    <row r="18" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
@@ -2769,7 +2769,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="19" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H19" s="21">
         <v>371</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
     </row>
-    <row r="20" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="20" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
@@ -2839,7 +2839,7 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
     </row>
-    <row r="21" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="21" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -2867,7 +2867,7 @@
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
     </row>
-    <row r="22" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="22" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -2895,7 +2895,7 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
     </row>
-    <row r="23" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="23" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2923,7 +2923,7 @@
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
     </row>
-    <row r="24" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="24" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -2951,7 +2951,7 @@
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
     </row>
-    <row r="25" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="25" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2979,7 +2979,7 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
     </row>
-    <row r="26" spans="8:25" ht="16.5">
+    <row r="26" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H26" s="7">
         <v>30012</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="27" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H27" s="21">
         <v>20008</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
     </row>
-    <row r="28" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="28" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="26"/>
@@ -3085,7 +3085,7 @@
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
     </row>
-    <row r="29" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="29" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -3113,7 +3113,7 @@
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
     </row>
-    <row r="30" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="30" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3141,7 +3141,7 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
     </row>
-    <row r="31" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="31" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -3169,7 +3169,7 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
     </row>
-    <row r="32" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="32" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -3197,7 +3197,7 @@
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
     </row>
-    <row r="33" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="33" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="26"/>
@@ -3225,7 +3225,7 @@
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
     </row>
-    <row r="34" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="34" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="26"/>
@@ -3253,7 +3253,7 @@
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
     </row>
-    <row r="35" spans="8:25" ht="16.5">
+    <row r="35" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H35" s="7">
         <v>1104</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="16.5">
+    <row r="36" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="12"/>
@@ -3315,7 +3315,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="8:25" ht="16.5">
+    <row r="37" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="12"/>
@@ -3339,7 +3339,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="16.5">
+    <row r="38" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="12"/>
@@ -3363,7 +3363,7 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="16.5">
+    <row r="39" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="12"/>
@@ -3387,7 +3387,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="16.5">
+    <row r="40" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="12"/>
@@ -3411,7 +3411,7 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="41" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H41" s="21">
         <v>1105</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
     </row>
-    <row r="42" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="42" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="26"/>
@@ -3473,7 +3473,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="43" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="26"/>
@@ -3497,7 +3497,7 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="44" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="26"/>
@@ -3521,7 +3521,7 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
     </row>
-    <row r="45" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="45" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3545,7 +3545,7 @@
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
     </row>
-    <row r="46" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="46" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3577,7 +3577,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{FD9B61D1-F8B0-4FAF-B190-93EA59887337}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{D0406083-7B07-4048-9F1C-EE6E949823B9}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3594,12 +3594,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -3620,7 +3620,7 @@
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>154</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3750,7 +3750,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3781,7 +3781,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3812,7 +3812,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3843,7 +3843,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3874,7 +3874,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3905,7 +3905,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3936,7 +3936,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3967,7 +3967,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3998,7 +3998,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>156</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4074,7 +4074,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4105,7 +4105,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4136,7 +4136,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4167,7 +4167,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="2:20" ht="16.5">
+    <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4198,7 +4198,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="2:20" ht="16.5">
+    <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4229,7 +4229,7 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="2:20" ht="16.5">
+    <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4260,7 +4260,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="2:20" ht="16.5">
+    <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4291,7 +4291,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="2:20" ht="16.5">
+    <row r="21" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4322,7 +4322,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="2:20" ht="16.5">
+    <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4353,7 +4353,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="2:20" ht="16.5">
+    <row r="23" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4384,7 +4384,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="2:20" ht="16.5">
+    <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4415,7 +4415,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="2:20" ht="16.5">
+    <row r="25" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4446,7 +4446,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:20" ht="16.5">
+    <row r="26" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4477,7 +4477,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="2:20" ht="16.5">
+    <row r="27" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>155</v>
       </c>
@@ -4522,7 +4522,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="2:20" ht="16.5">
+    <row r="28" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -4553,7 +4553,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="2:20" ht="16.5">
+    <row r="29" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -4584,7 +4584,7 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="2:20" ht="16.5">
+    <row r="30" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -4615,7 +4615,7 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="2:20" ht="16.5">
+    <row r="31" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -4646,7 +4646,7 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="2:20" ht="16.5">
+    <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -4677,7 +4677,7 @@
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="2:20" ht="16.5">
+    <row r="33" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -4708,7 +4708,7 @@
       <c r="S33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="2:20" ht="16.5">
+    <row r="34" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -4739,7 +4739,7 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="2:20" ht="16.5">
+    <row r="35" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -4770,7 +4770,7 @@
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="2:20" ht="16.5">
+    <row r="36" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -4801,7 +4801,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="2:20" ht="16.5">
+    <row r="37" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>374</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="2:20" ht="16.5">
+    <row r="38" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -4877,7 +4877,7 @@
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="2:20" ht="16.5">
+    <row r="39" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -4908,7 +4908,7 @@
       <c r="S39"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="2:20" ht="16.5">
+    <row r="40" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -4939,7 +4939,7 @@
       <c r="S40"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="2:20" ht="16.5">
+    <row r="41" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -4970,7 +4970,7 @@
       <c r="S41"/>
       <c r="T41"/>
     </row>
-    <row r="42" spans="2:20" ht="16.5">
+    <row r="42" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -5001,7 +5001,7 @@
       <c r="S42"/>
       <c r="T42"/>
     </row>
-    <row r="43" spans="2:20" ht="16.5">
+    <row r="43" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -5032,7 +5032,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="2:20" ht="16.5">
+    <row r="44" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>376</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="S44"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="2:20" ht="16.5">
+    <row r="45" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -5108,7 +5108,7 @@
       <c r="S45"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="2:20" ht="16.5">
+    <row r="46" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -5139,7 +5139,7 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="2:20" ht="16.5">
+    <row r="47" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -5170,7 +5170,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="2:20" ht="16.5">
+    <row r="48" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -5201,7 +5201,7 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="2:20" ht="16.5">
+    <row r="49" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5232,7 +5232,7 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="2:20" ht="16.5">
+    <row r="50" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -5263,7 +5263,7 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="2:20" ht="16.5">
+    <row r="51" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>375</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="2:20" ht="16.5">
+    <row r="52" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -5339,7 +5339,7 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="2:20" ht="16.5">
+    <row r="53" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="12"/>
@@ -5370,7 +5370,7 @@
       <c r="S53"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="2:20" ht="16.5">
+    <row r="54" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="12"/>
@@ -5401,7 +5401,7 @@
       <c r="S54"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="2:20" ht="16.5">
+    <row r="55" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="12"/>
@@ -5432,7 +5432,7 @@
       <c r="S55"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="2:20" ht="16.5">
+    <row r="56" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="12"/>
@@ -5463,7 +5463,7 @@
       <c r="S56"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="2:20" ht="16.5">
+    <row r="57" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
@@ -5494,7 +5494,7 @@
       <c r="S57"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="2:20" ht="16.5">
+    <row r="58" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <v>30014</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="S58"/>
       <c r="T58"/>
     </row>
-    <row r="59" spans="2:20" ht="16.5">
+    <row r="59" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <v>20010</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="S59"/>
       <c r="T59"/>
     </row>
-    <row r="60" spans="2:20" ht="16.5">
+    <row r="60" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -5603,7 +5603,7 @@
       <c r="S60"/>
       <c r="T60"/>
     </row>
-    <row r="61" spans="2:20" ht="16.5">
+    <row r="61" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -5632,7 +5632,7 @@
       <c r="S61"/>
       <c r="T61"/>
     </row>
-    <row r="62" spans="2:20" ht="16.5">
+    <row r="62" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -5661,7 +5661,7 @@
       <c r="S62"/>
       <c r="T62"/>
     </row>
-    <row r="63" spans="2:20" ht="16.5">
+    <row r="63" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -5690,7 +5690,7 @@
       <c r="S63"/>
       <c r="T63"/>
     </row>
-    <row r="64" spans="2:20" ht="16.5">
+    <row r="64" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -5719,7 +5719,7 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="2:20" ht="16.5">
+    <row r="65" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12"/>
@@ -5748,7 +5748,7 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="2:20" ht="16.5">
+    <row r="66" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="12"/>
@@ -5777,7 +5777,7 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="2:20" ht="16.5">
+    <row r="67" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <v>1111</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="2:20" ht="16.5">
+    <row r="68" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="12"/>
@@ -5843,7 +5843,7 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="2:20" ht="16.5">
+    <row r="69" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="12"/>
@@ -5868,7 +5868,7 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="2:20" ht="16.5">
+    <row r="70" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="12"/>
@@ -5893,7 +5893,7 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="2:20" ht="16.5">
+    <row r="71" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="12"/>
@@ -5918,7 +5918,7 @@
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="2:20" ht="16.5">
+    <row r="72" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <v>1112</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="S72"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="2:20" ht="16.5">
+    <row r="73" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="12"/>
@@ -5984,7 +5984,7 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="2:20" ht="16.5">
+    <row r="74" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="12"/>
@@ -6009,7 +6009,7 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="2:20" ht="16.5">
+    <row r="75" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="12"/>
@@ -6034,7 +6034,7 @@
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="2:20" ht="16.5">
+    <row r="76" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -6059,7 +6059,7 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
         <v>421113</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
         <v>421114</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="2:20">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -6154,7 +6154,7 @@
       <c r="O79" s="7"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="2:20">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -6171,7 +6171,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -6188,7 +6188,7 @@
       <c r="O81" s="7"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -6205,7 +6205,7 @@
       <c r="O82" s="7"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="12"/>
@@ -6222,7 +6222,7 @@
       <c r="O83" s="7"/>
       <c r="P83" s="14"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
@@ -6253,13 +6253,13 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -6280,7 +6280,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>45056</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>45056</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>45056</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>45056</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>45056</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>45056</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>45056</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>45056</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>45056</v>
       </c>
@@ -6578,7 +6578,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>45056</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1">
+    <row r="12" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>45042</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1">
+    <row r="13" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>45042</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1">
+    <row r="14" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>45042</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1">
+    <row r="15" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>45042</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1">
+    <row r="16" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>45042</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1">
+    <row r="17" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>45042</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1">
+    <row r="18" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>45042</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1">
+    <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>45042</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1">
+    <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>45042</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1">
+    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>45042</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>45042</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>45042</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>45042</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>45042</v>
       </c>
@@ -7072,7 +7072,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>45042</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>45042</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>45042</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1">
+    <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>45042</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1">
+    <row r="30" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>45042</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1">
+    <row r="31" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>45042</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1">
+    <row r="32" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>45042</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1">
+    <row r="33" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>45042</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" s="20" customFormat="1">
+    <row r="34" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>45042</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="20" customFormat="1">
+    <row r="35" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>45042</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <v>45041</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:20" s="20" customFormat="1">
+    <row r="37" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37">
         <v>45041</v>
       </c>
@@ -7496,7 +7496,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" s="20" customFormat="1">
+    <row r="38" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37">
         <v>45041</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" s="20" customFormat="1">
+    <row r="39" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37">
         <v>45041</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1">
+    <row r="40" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>45042</v>
       </c>
@@ -7592,7 +7592,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1">
+    <row r="41" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37">
         <v>45041</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1">
+    <row r="42" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>45041</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1">
+    <row r="43" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37">
         <v>45041</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1">
+    <row r="44" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>45042</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1">
+    <row r="45" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>45042</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>45041</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <v>45041</v>
       </c>
@@ -7813,7 +7813,7 @@
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <v>45041</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <v>45041</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <v>45041</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="34">
         <v>45041</v>
       </c>
@@ -7909,7 +7909,7 @@
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <v>45041</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1">
+    <row r="53" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>45041</v>
       </c>
@@ -7975,7 +7975,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1">
+    <row r="54" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37">
         <v>45041</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1">
+    <row r="55" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37">
         <v>45041</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1">
+    <row r="56" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>45041</v>
       </c>
@@ -8059,7 +8059,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1">
+    <row r="57" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37">
         <v>45041</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1">
+    <row r="58" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>45041</v>
       </c>
@@ -8123,7 +8123,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{FF35DCE1-E53C-4DE1-857D-A7444BA7BD5D}"/>
+      <autoFilter ref="B1:T58" xr:uid="{7B984E71-0C7C-47E3-B5F5-70095F3C3A8D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8139,12 +8139,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -8164,7 +8164,7 @@
     <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1">
+    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>150</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -8269,7 +8269,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -8291,7 +8291,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -8313,7 +8313,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8335,7 +8335,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8357,7 +8357,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8379,7 +8379,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8401,7 +8401,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8423,7 +8423,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -8445,7 +8445,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="20" customFormat="1">
+    <row r="12" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>151</v>
       </c>
@@ -8485,7 +8485,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="20" customFormat="1">
+    <row r="13" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -8511,7 +8511,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" s="20" customFormat="1">
+    <row r="14" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -8537,7 +8537,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" s="20" customFormat="1">
+    <row r="15" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
@@ -8563,7 +8563,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" s="20" customFormat="1">
+    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="21"/>
@@ -8589,7 +8589,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="2:19" s="20" customFormat="1">
+    <row r="17" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
@@ -8615,7 +8615,7 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="2:19" s="20" customFormat="1">
+    <row r="18" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="21"/>
@@ -8641,7 +8641,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="2:19" s="20" customFormat="1">
+    <row r="19" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="21"/>
@@ -8667,7 +8667,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="2:19" s="20" customFormat="1">
+    <row r="20" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="21"/>
@@ -8693,7 +8693,7 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="2:19" s="20" customFormat="1">
+    <row r="21" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="21"/>
@@ -8719,7 +8719,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>370</v>
       </c>
@@ -8757,7 +8757,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -8781,7 +8781,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -8805,7 +8805,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -8829,7 +8829,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -8853,7 +8853,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -8877,7 +8877,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -8901,7 +8901,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:19" s="20" customFormat="1">
+    <row r="29" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="21">
         <v>371</v>
       </c>
@@ -8943,7 +8943,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="2:19" s="20" customFormat="1">
+    <row r="30" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -8971,7 +8971,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
-    <row r="31" spans="2:19" s="20" customFormat="1">
+    <row r="31" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -8999,7 +8999,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
     </row>
-    <row r="32" spans="2:19" s="20" customFormat="1">
+    <row r="32" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -9027,7 +9027,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="2:19" s="20" customFormat="1">
+    <row r="33" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -9055,7 +9055,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
-    <row r="34" spans="2:19" s="20" customFormat="1">
+    <row r="34" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -9083,7 +9083,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="2:19" s="20" customFormat="1">
+    <row r="35" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -9111,7 +9111,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>30012</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:19" s="20" customFormat="1">
+    <row r="37" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
         <v>20008</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="2:19" s="20" customFormat="1">
+    <row r="38" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="26"/>
@@ -9213,7 +9213,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="2:19" s="20" customFormat="1">
+    <row r="39" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -9241,7 +9241,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
     </row>
-    <row r="40" spans="2:19" s="20" customFormat="1">
+    <row r="40" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -9269,7 +9269,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
     </row>
-    <row r="41" spans="2:19" s="20" customFormat="1">
+    <row r="41" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -9297,7 +9297,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="2:19" s="20" customFormat="1">
+    <row r="42" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -9325,7 +9325,7 @@
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
     </row>
-    <row r="43" spans="2:19" s="20" customFormat="1">
+    <row r="43" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="26"/>
@@ -9353,7 +9353,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
     </row>
-    <row r="44" spans="2:19" s="20" customFormat="1">
+    <row r="44" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="26"/>
@@ -9381,7 +9381,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>1104</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="12"/>
@@ -9435,7 +9435,7 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -9455,7 +9455,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -9475,7 +9475,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -9495,7 +9495,7 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -9515,7 +9515,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="2:19" s="20" customFormat="1">
+    <row r="51" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="21">
         <v>1105</v>
       </c>
@@ -9553,7 +9553,7 @@
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
     </row>
-    <row r="52" spans="2:19" s="20" customFormat="1">
+    <row r="52" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="26"/>
@@ -9577,7 +9577,7 @@
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
     </row>
-    <row r="53" spans="2:19" s="20" customFormat="1">
+    <row r="53" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="26"/>
@@ -9601,7 +9601,7 @@
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
     </row>
-    <row r="54" spans="2:19" s="20" customFormat="1">
+    <row r="54" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="26"/>
@@ -9625,7 +9625,7 @@
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
     </row>
-    <row r="55" spans="2:19" s="20" customFormat="1">
+    <row r="55" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -9649,7 +9649,7 @@
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="2:19" s="20" customFormat="1">
+    <row r="56" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -9681,7 +9681,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{1A19EF48-E64E-4753-9F5B-3AB464489CF7}"/>
+      <autoFilter ref="B1:S56" xr:uid="{68EA2D54-2556-437B-8A7E-8B76E941F913}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9700,7 +9700,7 @@
       <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="7.5" style="8" bestFit="1" customWidth="1"/>
@@ -9718,7 +9718,7 @@
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>146</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -9827,7 +9827,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -9849,7 +9849,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -9871,7 +9871,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9893,7 +9893,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -9915,7 +9915,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -9937,7 +9937,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -9959,7 +9959,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -9981,7 +9981,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -10003,7 +10003,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>147</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -10061,7 +10061,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -10083,7 +10083,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -10105,7 +10105,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -10127,7 +10127,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -10149,7 +10149,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -10171,7 +10171,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -10193,7 +10193,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -10215,7 +10215,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -10237,7 +10237,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>148</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -10295,7 +10295,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -10317,7 +10317,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10339,7 +10339,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -10361,7 +10361,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -10383,7 +10383,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -10405,7 +10405,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -10427,7 +10427,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -10449,7 +10449,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -10471,7 +10471,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -10493,7 +10493,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -10515,7 +10515,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -10537,7 +10537,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -10559,7 +10559,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -10581,7 +10581,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -10603,7 +10603,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -10625,7 +10625,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -10647,7 +10647,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -10669,7 +10669,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -10691,7 +10691,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>149</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -10749,7 +10749,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -10771,7 +10771,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10793,7 +10793,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -10815,7 +10815,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10837,7 +10837,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10859,7 +10859,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -10881,7 +10881,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -10903,7 +10903,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -10925,7 +10925,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -10947,7 +10947,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -10969,7 +10969,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -10991,7 +10991,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -11013,7 +11013,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -11035,7 +11035,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -11057,7 +11057,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -11079,7 +11079,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -11101,7 +11101,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -11123,7 +11123,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -11145,7 +11145,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <v>365</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -11207,7 +11207,7 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -11231,7 +11231,7 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -11255,7 +11255,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -11279,7 +11279,7 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -11303,7 +11303,7 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -11327,7 +11327,7 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <v>366</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -11389,7 +11389,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -11413,7 +11413,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -11437,7 +11437,7 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -11461,7 +11461,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -11485,7 +11485,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -11509,7 +11509,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
         <v>367</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -11571,7 +11571,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -11595,7 +11595,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
@@ -11619,7 +11619,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="12"/>
@@ -11643,7 +11643,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="12"/>
@@ -11667,7 +11667,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
@@ -11691,7 +11691,7 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B83" s="7">
         <v>368</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="84" spans="2:17">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
@@ -11753,7 +11753,7 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
@@ -11777,7 +11777,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
@@ -11801,7 +11801,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
@@ -11825,7 +11825,7 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
@@ -11849,7 +11849,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="2:17">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
@@ -11873,7 +11873,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="2:17">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
         <v>30008</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="91" spans="2:17">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
         <v>30009</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="92" spans="2:17">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B92" s="7">
         <v>30010</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="93" spans="2:17">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B93" s="7">
         <v>30011</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="94" spans="2:17" ht="54">
+    <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
         <v>315</v>
@@ -12041,7 +12041,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="95" spans="2:17">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
         <v>315</v>
@@ -12073,7 +12073,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="2:17">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
         <v>315</v>
@@ -12107,7 +12107,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="27">
+    <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
         <v>315</v>
@@ -12141,7 +12141,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="27">
+    <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
         <v>315</v>
@@ -12175,7 +12175,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B99" s="7">
         <v>1102</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="12"/>
@@ -12237,7 +12237,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12"/>
@@ -12259,7 +12259,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12"/>
@@ -12303,7 +12303,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12"/>
@@ -12325,7 +12325,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B105" s="7">
         <v>1103</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12"/>
@@ -12387,7 +12387,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" spans="2:17">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12"/>
@@ -12409,7 +12409,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="12"/>
@@ -12431,7 +12431,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="12"/>
@@ -12453,7 +12453,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="12"/>
@@ -12475,7 +12475,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
     </row>
-    <row r="111" spans="2:17" ht="27">
+    <row r="111" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B111" s="7">
         <v>20007</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="112" spans="2:17" ht="27">
+    <row r="112" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12"/>
@@ -12541,7 +12541,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="113" spans="2:17" ht="40.5">
+    <row r="113" spans="2:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -12571,7 +12571,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="114" spans="2:17" ht="54">
+    <row r="114" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -12601,7 +12601,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="115" spans="2:17" ht="54">
+    <row r="115" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -12631,7 +12631,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="116" spans="2:17" ht="54">
+    <row r="116" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -12669,7 +12669,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{DC7BFE9A-DA4E-4145-9A61-534ABFE6143C}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{85666439-5170-4EF3-8F29-8CF265646AC5}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12687,12 +12687,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -12713,7 +12713,7 @@
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -12767,7 +12767,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>154</v>
       </c>
@@ -12810,7 +12810,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12839,7 +12839,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12868,7 +12868,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -12897,7 +12897,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -12926,7 +12926,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12955,7 +12955,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12984,7 +12984,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -13013,7 +13013,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -13042,7 +13042,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -13071,7 +13071,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="21">
         <v>155</v>
@@ -13115,7 +13115,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -13145,7 +13145,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -13175,7 +13175,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -13205,7 +13205,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -13235,7 +13235,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -13265,7 +13265,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -13295,7 +13295,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -13325,7 +13325,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -13355,7 +13355,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -13385,7 +13385,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>372</v>
       </c>
@@ -13430,7 +13430,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5">
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -13461,7 +13461,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -13492,7 +13492,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5">
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -13523,7 +13523,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -13554,7 +13554,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5">
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -13585,7 +13585,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -13616,7 +13616,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="21">
         <v>373</v>
@@ -13662,7 +13662,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -13694,7 +13694,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -13726,7 +13726,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -13758,7 +13758,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -13790,7 +13790,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -13822,7 +13822,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -13854,7 +13854,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>30013</v>
       </c>
@@ -13893,7 +13893,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="21">
         <v>20009</v>
@@ -13935,7 +13935,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -13965,7 +13965,7 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -13995,7 +13995,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -14025,7 +14025,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -14055,7 +14055,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="34"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -14085,7 +14085,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="34"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -14115,7 +14115,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -14145,7 +14145,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -14175,7 +14175,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>1106</v>
       </c>
@@ -14214,7 +14214,7 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -14239,7 +14239,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -14264,7 +14264,7 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -14289,7 +14289,7 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -14314,7 +14314,7 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="12"/>
@@ -14339,7 +14339,7 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -14364,7 +14364,7 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="21">
         <v>1107</v>
@@ -14404,7 +14404,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -14430,7 +14430,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -14456,7 +14456,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -14482,7 +14482,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -14508,7 +14508,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -14543,15 +14543,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -14774,10 +14765,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -8,31 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156497D8-FCA3-4743-9FB1-391E5C53F2F0}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FC917B-9B0D-4759-91B7-E6E56FE632E5}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="795" windowWidth="22500" windowHeight="14115" firstSheet="1" activeTab="2" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="1" r:id="rId1"/>
-    <sheet name="230525 업데이트" sheetId="5" r:id="rId2"/>
-    <sheet name="230427 업데이트" sheetId="2" r:id="rId3"/>
-    <sheet name="230330 업데이트" sheetId="3" r:id="rId4"/>
-    <sheet name="230223 업데이트" sheetId="4" r:id="rId5"/>
-    <sheet name="템플릿" sheetId="6" r:id="rId6"/>
+    <sheet name="230629 업데이트" sheetId="7" r:id="rId2"/>
+    <sheet name="230525 업데이트" sheetId="5" r:id="rId3"/>
+    <sheet name="230427 업데이트" sheetId="2" r:id="rId4"/>
+    <sheet name="230330 업데이트" sheetId="3" r:id="rId5"/>
+    <sheet name="230223 업데이트" sheetId="4" r:id="rId6"/>
+    <sheet name="템플릿" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230427 업데이트'!$B$1:$T$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230427 업데이트'!$B$1:$T$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230629 업데이트'!$B$1:$Q$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">템플릿!$B$1:$P$58</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="4" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">템플릿!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="5" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="4" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230629 업데이트'!$B$1:$Q$54</definedName>
     <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="5" hidden="1">템플릿!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="6" hidden="1">템플릿!$B$1:$P$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="383">
   <si>
     <t>최종수정일</t>
   </si>
@@ -350,57 +353,247 @@
     <t>QuestID</t>
   </si>
   <si>
+    <t>ItemML_0</t>
+  </si>
+  <si>
+    <t>여름을 부르는 출석 이벤트</t>
+  </si>
+  <si>
+    <t>1일차</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자[귀속]</t>
+  </si>
+  <si>
+    <t>2일차</t>
+  </si>
+  <si>
+    <t>명예 코인 상자[귀속]</t>
+  </si>
+  <si>
+    <t>3일차</t>
+  </si>
+  <si>
+    <t>4일차</t>
+  </si>
+  <si>
+    <t>5일차</t>
+  </si>
+  <si>
+    <t>계승자의 의지 물약[귀속]</t>
+  </si>
+  <si>
+    <t>6일차</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>7일차</t>
+  </si>
+  <si>
+    <t>8일차</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[30%][귀속]</t>
+  </si>
+  <si>
+    <t>9일차</t>
+  </si>
+  <si>
+    <t>최상급 아드레날린 증폭 포션[귀속]</t>
+  </si>
+  <si>
+    <t>10일차</t>
+  </si>
+  <si>
+    <t>여름의 발걸음 선물 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 프롤로그 출석 이벤트</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[1시간][귀속]</t>
+  </si>
+  <si>
+    <t>무료 경험치 복구 주문서[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 프롤로그 선물 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>여름을 부르는 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 전체 완료</t>
+  </si>
+  <si>
+    <t>여름맞이 선물 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>변신 합성 30회</t>
+  </si>
+  <si>
+    <t>서번트 합성 30회</t>
+  </si>
+  <si>
+    <t>아무 장비나 강화 30회 성공</t>
+  </si>
+  <si>
+    <t>최상급 회복의 마법 주문서[귀속]</t>
+  </si>
+  <si>
+    <t>아이템 제작 30회 성공</t>
+  </si>
+  <si>
+    <t>최상급 전투의 마법 주문서[귀속]</t>
+  </si>
+  <si>
+    <t>아무 마물 50,000마리 처치</t>
+  </si>
+  <si>
+    <t>3주년 프롤로그 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가오는 3주년 기념 상자Ⅱ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>변신 획득 30회</t>
+  </si>
+  <si>
+    <t>서번트 획득 30회</t>
+  </si>
+  <si>
+    <t>아이템 분해 20회 성공</t>
+  </si>
+  <si>
+    <t>아무 마물 60,000마리 처치</t>
+  </si>
+  <si>
+    <t>최상급 변신 뽑기권[11회][귀속]</t>
+  </si>
+  <si>
+    <t>50,000,000 골드 소모</t>
+  </si>
+  <si>
+    <t>최상급 서번트 뽑기권[11회][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 프롤로그 출석 이벤트 10회 수행</t>
+  </si>
+  <si>
+    <t>다가오는 3주년 기념 상자Ⅰ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>여름 바캉스 드랍 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 맵(기네아 제외)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조개껍데기[이벤트][귀속]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 바캉스 제작 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원한 비약 상자[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>계정당 100개</t>
+  </si>
+  <si>
+    <t>조개껍데기[이벤트][귀속] x20</t>
+  </si>
+  <si>
+    <t>푸른 산호[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>계정당 1개</t>
+  </si>
+  <si>
+    <t>조개껍데기[이벤트][귀속] x10</t>
+  </si>
+  <si>
+    <t>붉은 산호[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[30%][귀속] 1개</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회][이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>계정당 4개</t>
+  </si>
+  <si>
+    <t>조개껍데기[이벤트][귀속] x70</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회][이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>최상급 변신 뽑기권[11회][귀속] 1개</t>
+  </si>
+  <si>
+    <t>조개껍데기[이벤트][귀속] x100</t>
+  </si>
+  <si>
+    <t>최상급 서번트 뽑기권[11회][귀속] 1개</t>
+  </si>
+  <si>
+    <t>붉은 산호 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 산호[이벤트][귀속] 1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 효과 증가</t>
+  </si>
+  <si>
+    <t>치명타 확률</t>
+  </si>
+  <si>
+    <t>푸른 산호 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 산호[이벤트][귀속] 1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(근접)</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(원거리)</t>
+  </si>
+  <si>
     <t>현충일 기념 출석 이벤트</t>
   </si>
   <si>
-    <t>1일차</t>
-  </si>
-  <si>
     <t>종합 코인 상자[이벤트][귀속]</t>
   </si>
   <si>
-    <t>2일차</t>
-  </si>
-  <si>
-    <t>경험치 증폭제[30%][귀속]</t>
-  </si>
-  <si>
-    <t>3일차</t>
-  </si>
-  <si>
-    <t>최상급 회복의 마법 주문서[귀속]</t>
-  </si>
-  <si>
-    <t>4일차</t>
-  </si>
-  <si>
-    <t>최상급 전투의 마법 주문서[귀속]</t>
-  </si>
-  <si>
-    <t>5일차</t>
-  </si>
-  <si>
-    <t>최상급 아드레날린 증폭 포션[귀속]</t>
-  </si>
-  <si>
-    <t>6일차</t>
-  </si>
-  <si>
-    <t>7일차</t>
-  </si>
-  <si>
-    <t>8일차</t>
-  </si>
-  <si>
-    <t>9일차</t>
-  </si>
-  <si>
     <t>최상급 매터리얼 상자[이벤트][귀속]</t>
   </si>
   <si>
-    <t>10일차</t>
-  </si>
-  <si>
     <t>무궁화 매터리얼 상자[이벤트][귀속]</t>
   </si>
   <si>
@@ -413,15 +606,6 @@
     <t>일반 방어구 도감 징표[귀속]</t>
   </si>
   <si>
-    <t>계승자의 의지 물약[귀속]</t>
-  </si>
-  <si>
-    <t>로얄 코인 상자[귀속]</t>
-  </si>
-  <si>
-    <t>명예 코인 상자[귀속]</t>
-  </si>
-  <si>
     <t>일반 장신구 도감 징표[귀속]</t>
   </si>
   <si>
@@ -432,9 +616,6 @@
   </si>
   <si>
     <t>13일차</t>
-  </si>
-  <si>
-    <t>빛나는 유피테르의 계약서[1시간][귀속]</t>
   </si>
   <si>
     <t>14일차</t>
@@ -469,28 +650,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 전체 완료</t>
-  </si>
-  <si>
     <t>신념에 답하는 선물 상자[이벤트][귀속]</t>
   </si>
   <si>
-    <t>서번트 획득 30회</t>
-  </si>
-  <si>
-    <t>변신 획득 30회</t>
-  </si>
-  <si>
     <t>서번트 합성 15회</t>
   </si>
   <si>
-    <t>최상급 변신 뽑기권[11회][귀속]</t>
-  </si>
-  <si>
     <t>변신 합성 15회</t>
-  </si>
-  <si>
-    <t>최상급 서번트 뽑기권[11회][귀속]</t>
   </si>
   <si>
     <t>5,000,000 골드 소모</t>
@@ -549,9 +715,6 @@
     <t>희귀 변신 확정 뽑기권[이벤트][귀속]</t>
   </si>
   <si>
-    <t>아무 마물 50,000마리 처치</t>
-  </si>
-  <si>
     <t>희귀 매터리얼 확정 상자[이벤트][귀속]</t>
   </si>
   <si>
@@ -559,10 +722,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모든 맵(기네아 제외)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비단[이벤트][귀속]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -574,9 +733,6 @@
     <t>빨간 댕기[이벤트][귀속] 1개</t>
   </si>
   <si>
-    <t>계정당 1개</t>
-  </si>
-  <si>
     <t>비단[이벤트][귀속] x10</t>
   </si>
   <si>
@@ -590,9 +746,6 @@
   </si>
   <si>
     <t>최상급 전투의 마법 주문서[귀속] 1개</t>
-  </si>
-  <si>
-    <t>계정당 100개</t>
   </si>
   <si>
     <t>비단[이벤트][귀속] x5</t>
@@ -620,25 +773,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계약 효과 증가</t>
-  </si>
-  <si>
-    <t>치명타 확률</t>
-  </si>
-  <si>
     <t>초록 댕기 도감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>물리 피해 감소(근접)</t>
-  </si>
-  <si>
-    <t>물리 피해 감소(원거리)</t>
-  </si>
-  <si>
     <t>[프로모션] 제작 1</t>
   </si>
   <si>
@@ -673,9 +811,6 @@
   </si>
   <si>
     <t xml:space="preserve">일반 장신구 도감 증표 </t>
-  </si>
-  <si>
-    <t>희귀 포인트 충전석 상자[이벤트][귀속]</t>
   </si>
   <si>
     <t>1,000일 기념 선물 상자Ⅰ[이벤트][귀속]</t>
@@ -759,9 +894,6 @@
     <t>쌍둥이자리 우[이벤트][귀속] 1개</t>
   </si>
   <si>
-    <t>경험치 증폭제[30%][귀속] 1개</t>
-  </si>
-  <si>
     <t>솜사탕[이벤트][귀속] 1개</t>
   </si>
   <si>
@@ -875,9 +1007,6 @@
     <t>타나토스01 환영 보상 상자Ⅱ[귀속]</t>
   </si>
   <si>
-    <t>상급 변신 뽑기권[11회][이벤트][귀속]</t>
-  </si>
-  <si>
     <t>타나토스01 환영 보상 상자Ⅲ[귀속]</t>
   </si>
   <si>
@@ -934,9 +1063,6 @@
     <t>전설 서번트 소환 주문서 상자[귀속]</t>
   </si>
   <si>
-    <t>상급 서번트 뽑기권[11회][이벤트][귀속]</t>
-  </si>
-  <si>
     <t>축복받은 강화 미션 이벤트</t>
   </si>
   <si>
@@ -969,9 +1095,6 @@
   </si>
   <si>
     <t>인형 테디 서번트 카드[귀속]</t>
-  </si>
-  <si>
-    <t>아이템 제작 30회 성공</t>
   </si>
   <si>
     <t>아무 마물 30,000마리 처치</t>
@@ -1273,7 +1396,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,6 +1441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,6 +1725,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1903,6 +2068,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3577,7 +3746,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{D0406083-7B07-4048-9F1C-EE6E949823B9}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{A69EE2C8-673A-4159-A5CD-0D4645A579B4}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3588,12 +3757,2046 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A5C2B5-1724-489A-BCCF-F36239FA8431}">
+  <dimension ref="A1:U60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="8" customWidth="1"/>
+    <col min="17" max="17" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45106</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45120</v>
+      </c>
+      <c r="I2" s="5">
+        <v>90001855</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="5">
+        <v>501004</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="6">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5">
+        <v>90001856</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="5">
+        <v>501001</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="5">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5">
+        <v>90001857</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="5">
+        <v>910182</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5">
+        <v>90001858</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="5">
+        <v>910113</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5">
+        <v>90001859</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="5">
+        <v>280</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="5">
+        <v>10</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5">
+        <v>90001860</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1110277</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="5">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5">
+        <v>90001861</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="5">
+        <v>910317</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5">
+        <v>90001862</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="5">
+        <v>123</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="5">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5">
+        <v>90001863</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="5">
+        <v>62</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="5">
+        <v>40</v>
+      </c>
+      <c r="N10" s="5">
+        <v>6</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>90001864</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7">
+        <v>910544</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44">
+        <v>158</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="46">
+        <v>45120</v>
+      </c>
+      <c r="H12" s="46">
+        <v>45134</v>
+      </c>
+      <c r="I12" s="44">
+        <v>90001865</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="44">
+        <v>501004</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="44">
+        <v>30</v>
+      </c>
+      <c r="N12" s="44">
+        <v>7</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+    </row>
+    <row r="13" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44">
+        <v>90001866</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="44">
+        <v>501001</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="44">
+        <v>30</v>
+      </c>
+      <c r="N13" s="44">
+        <v>7</v>
+      </c>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+    </row>
+    <row r="14" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44">
+        <v>90001867</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="44">
+        <v>910317</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="44">
+        <v>10</v>
+      </c>
+      <c r="N14" s="44">
+        <v>6</v>
+      </c>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+    </row>
+    <row r="15" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44">
+        <v>90001868</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="44">
+        <v>660006</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="44">
+        <v>2</v>
+      </c>
+      <c r="N15" s="44">
+        <v>6</v>
+      </c>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+    </row>
+    <row r="16" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44">
+        <v>90001869</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="44">
+        <v>630006</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="44">
+        <v>2</v>
+      </c>
+      <c r="N16" s="44">
+        <v>6</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+    </row>
+    <row r="17" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44">
+        <v>90001870</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="44">
+        <v>600017</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="44">
+        <v>10</v>
+      </c>
+      <c r="N17" s="44">
+        <v>6</v>
+      </c>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+    </row>
+    <row r="18" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44">
+        <v>90001871</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="44">
+        <v>910323</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="44">
+        <v>5</v>
+      </c>
+      <c r="N18" s="44">
+        <v>6</v>
+      </c>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+    </row>
+    <row r="19" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44">
+        <v>90001872</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="44">
+        <v>150</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="44">
+        <v>10</v>
+      </c>
+      <c r="N19" s="44">
+        <v>6</v>
+      </c>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+    </row>
+    <row r="20" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44">
+        <v>90001873</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="44">
+        <v>510202</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="44">
+        <v>3</v>
+      </c>
+      <c r="N20" s="44">
+        <v>6</v>
+      </c>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+    </row>
+    <row r="21" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44">
+        <v>90001874</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="44">
+        <v>910558</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" s="44">
+        <v>1</v>
+      </c>
+      <c r="N21" s="44">
+        <v>7</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>377</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45106</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45120</v>
+      </c>
+      <c r="I22" s="5">
+        <v>90003442</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7">
+        <v>910547</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7">
+        <v>90003443</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="7">
+        <v>501001</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="7">
+        <v>30</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7">
+        <v>90003444</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7">
+        <v>501004</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="7">
+        <v>30</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7">
+        <v>90003445</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7">
+        <v>262</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="7">
+        <v>15</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7">
+        <v>90003446</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7">
+        <v>272</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="7">
+        <v>15</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7">
+        <v>90003447</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="7">
+        <v>510202</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7">
+        <v>90003448</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="7">
+        <v>910113</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+    </row>
+    <row r="29" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44">
+        <v>378</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="46">
+        <v>45120</v>
+      </c>
+      <c r="H29" s="46">
+        <v>45134</v>
+      </c>
+      <c r="I29" s="44">
+        <v>90003449</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="44">
+        <v>910549</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29" s="44">
+        <v>1</v>
+      </c>
+      <c r="N29" s="44">
+        <v>7</v>
+      </c>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+    </row>
+    <row r="30" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="44">
+        <v>90003450</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="44">
+        <v>910477</v>
+      </c>
+      <c r="L30" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="44">
+        <v>5</v>
+      </c>
+      <c r="N30" s="44">
+        <v>6</v>
+      </c>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+    </row>
+    <row r="31" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44">
+        <v>90003451</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="44">
+        <v>280</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="44">
+        <v>10</v>
+      </c>
+      <c r="N31" s="44">
+        <v>6</v>
+      </c>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+    </row>
+    <row r="32" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44">
+        <v>90003452</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="44">
+        <v>150</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="44">
+        <v>10</v>
+      </c>
+      <c r="N32" s="44">
+        <v>6</v>
+      </c>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+    </row>
+    <row r="33" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44">
+        <v>90003453</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="44">
+        <v>630301</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="44">
+        <v>3</v>
+      </c>
+      <c r="N33" s="44">
+        <v>6</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+    </row>
+    <row r="34" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44">
+        <v>90003454</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" s="44">
+        <v>660301</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="44">
+        <v>3</v>
+      </c>
+      <c r="N34" s="44">
+        <v>6</v>
+      </c>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+    </row>
+    <row r="35" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44">
+        <v>90003455</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="44">
+        <v>910548</v>
+      </c>
+      <c r="L35" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" s="44">
+        <v>1</v>
+      </c>
+      <c r="N35" s="44">
+        <v>7</v>
+      </c>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>30015</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="9">
+        <v>45106</v>
+      </c>
+      <c r="H36" s="9">
+        <v>45134</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="31">
+        <v>910557</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N36" s="31"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+    </row>
+    <row r="37" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44">
+        <v>20011</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="49">
+        <v>45106</v>
+      </c>
+      <c r="H37" s="46">
+        <v>45134</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44">
+        <v>100000</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+    </row>
+    <row r="38" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="P38" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q38" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+    </row>
+    <row r="39" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="P39" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q39" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+    </row>
+    <row r="40" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44">
+        <v>300000</v>
+      </c>
+      <c r="P40" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+    </row>
+    <row r="41" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44">
+        <v>7000000</v>
+      </c>
+      <c r="P41" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q41" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+    </row>
+    <row r="42" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44">
+        <v>7000000</v>
+      </c>
+      <c r="P42" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+    </row>
+    <row r="43" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44">
+        <v>10000000</v>
+      </c>
+      <c r="P43" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q43" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+    </row>
+    <row r="44" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="44">
+        <v>10000000</v>
+      </c>
+      <c r="P44" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
+        <v>1113</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9">
+        <v>45106</v>
+      </c>
+      <c r="H45" s="9">
+        <v>45134</v>
+      </c>
+      <c r="I45" s="7">
+        <v>910554</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" s="31">
+        <v>2</v>
+      </c>
+      <c r="N45" s="31"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+    </row>
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" s="31">
+        <v>2</v>
+      </c>
+      <c r="N46" s="31"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+    </row>
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M47" s="31">
+        <v>2</v>
+      </c>
+      <c r="N47" s="31"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+    </row>
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M48" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="N48" s="31"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+    </row>
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="M49" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="N49" s="31"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+    </row>
+    <row r="50" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="44">
+        <v>1114</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="46">
+        <v>45106</v>
+      </c>
+      <c r="H50" s="46">
+        <v>45134</v>
+      </c>
+      <c r="I50" s="44">
+        <v>910555</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="53">
+        <v>100</v>
+      </c>
+      <c r="N50" s="53"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+    </row>
+    <row r="51" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" s="53">
+        <v>1</v>
+      </c>
+      <c r="N51" s="53"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+    </row>
+    <row r="52" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="M52" s="53">
+        <v>1</v>
+      </c>
+      <c r="N52" s="53"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+    </row>
+    <row r="53" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="M53" s="53">
+        <v>1</v>
+      </c>
+      <c r="N53" s="53"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+    </row>
+    <row r="54" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="M54" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:U54" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEEB964-AFF2-4339-9A20-85575924DF1A}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
@@ -3682,7 +5885,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>31</v>
@@ -3700,13 +5903,13 @@
         <v>90001820</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2" s="5">
         <v>910319</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="M2" s="6">
         <v>30</v>
@@ -3731,13 +5934,13 @@
         <v>90001821</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="5">
         <v>123</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M3" s="5">
         <v>20</v>
@@ -3762,13 +5965,13 @@
         <v>90001822</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" s="5">
         <v>262</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M4" s="5">
         <v>10</v>
@@ -3799,7 +6002,7 @@
         <v>272</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M5" s="5">
         <v>10</v>
@@ -3824,13 +6027,13 @@
         <v>90001824</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="5">
         <v>62</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M6" s="5">
         <v>40</v>
@@ -3855,7 +6058,7 @@
         <v>90001825</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7" s="5">
         <v>910477</v>
@@ -3948,13 +6151,13 @@
         <v>90001828</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" s="5">
         <v>510212</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="M10" s="5">
         <v>2</v>
@@ -3979,13 +6182,13 @@
         <v>90001829</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7">
         <v>910532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4006,7 +6209,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -4024,7 +6227,7 @@
         <v>90001840</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="7">
         <v>910182</v>
@@ -4055,7 +6258,7 @@
         <v>90001841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7">
         <v>910317</v>
@@ -4086,13 +6289,13 @@
         <v>90001842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7">
         <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -4123,7 +6326,7 @@
         <v>1030100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -4148,13 +6351,13 @@
         <v>90001844</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7">
         <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4179,13 +6382,13 @@
         <v>90001845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7">
         <v>501004</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4216,7 +6419,7 @@
         <v>501001</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -4247,7 +6450,7 @@
         <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4272,13 +6475,13 @@
         <v>90001848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7">
         <v>1030200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4303,13 +6506,13 @@
         <v>90001849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7">
         <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -4334,13 +6537,13 @@
         <v>90001850</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7">
         <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4365,7 +6568,7 @@
         <v>90001851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7">
         <v>910477</v>
@@ -4396,13 +6599,13 @@
         <v>90001852</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7">
         <v>600017</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -4427,13 +6630,13 @@
         <v>90001853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7">
         <v>1030000</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4458,13 +6661,13 @@
         <v>90001854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7">
         <v>910478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4485,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>31</v>
@@ -4503,13 +6706,13 @@
         <v>90001830</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" s="7">
         <v>1110350</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -4534,13 +6737,13 @@
         <v>90001831</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" s="7">
         <v>1110350</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -4565,13 +6768,13 @@
         <v>90001832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" s="7">
         <v>501004</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -4602,7 +6805,7 @@
         <v>501001</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -4627,13 +6830,13 @@
         <v>90001834</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K31" s="7">
         <v>1110350</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -4658,13 +6861,13 @@
         <v>90001835</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K32" s="7">
         <v>2910</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -4695,7 +6898,7 @@
         <v>1110350</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -4726,7 +6929,7 @@
         <v>1110350</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4751,13 +6954,13 @@
         <v>90001838</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K35" s="7">
         <v>910534</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4782,13 +6985,13 @@
         <v>90001839</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K36" s="7">
         <v>910535</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4809,7 +7012,7 @@
         <v>29</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>31</v>
@@ -4827,13 +7030,13 @@
         <v>90003421</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K37" s="7">
         <v>910536</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4858,13 +7061,13 @@
         <v>90003422</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K38" s="7">
         <v>501004</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M38" s="7">
         <v>30</v>
@@ -4889,13 +7092,13 @@
         <v>90003423</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K39" s="7">
         <v>501001</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
@@ -4920,13 +7123,13 @@
         <v>90003424</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="K40" s="7">
         <v>630301</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -4951,13 +7154,13 @@
         <v>90003425</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="K41" s="7">
         <v>660301</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -4982,13 +7185,13 @@
         <v>90003426</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="K42" s="7">
         <v>351</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -5019,7 +7222,7 @@
         <v>62</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M43" s="7">
         <v>10</v>
@@ -5040,7 +7243,7 @@
         <v>29</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>31</v>
@@ -5058,13 +7261,13 @@
         <v>90003435</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K44" s="7">
         <v>501019</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -5089,13 +7292,13 @@
         <v>90003436</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K45" s="7">
         <v>501004</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M45" s="7">
         <v>20</v>
@@ -5120,13 +7323,13 @@
         <v>90003437</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="K46" s="7">
         <v>501001</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M46" s="7">
         <v>20</v>
@@ -5151,7 +7354,7 @@
         <v>90003438</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="K47" s="7">
         <v>910113</v>
@@ -5182,13 +7385,13 @@
         <v>90003439</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="K48" s="7">
         <v>1030100</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -5213,13 +7416,13 @@
         <v>90003440</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="K49" s="7">
         <v>1030200</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -5244,13 +7447,13 @@
         <v>90003441</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="K50" s="7">
         <v>1030000</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -5271,7 +7474,7 @@
         <v>29</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>31</v>
@@ -5289,13 +7492,13 @@
         <v>90003428</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K51" s="7">
         <v>910537</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -5320,13 +7523,13 @@
         <v>90003429</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="K52" s="7">
         <v>1110350</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -5351,13 +7554,13 @@
         <v>90003430</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="K53" s="7">
         <v>910116</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -5382,13 +7585,13 @@
         <v>90003431</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="K54" s="7">
         <v>1110350</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -5413,13 +7616,13 @@
         <v>90003432</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="K55" s="7">
         <v>910115</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -5450,7 +7653,7 @@
         <v>1110350</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -5475,13 +7678,13 @@
         <v>90003434</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="K57" s="7">
         <v>910114</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -5502,7 +7705,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
@@ -5516,11 +7719,11 @@
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="31" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K58" s="31"/>
       <c r="L58" s="31" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="M58" s="31">
         <v>1.1000000000000001</v>
@@ -5541,7 +7744,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
@@ -5557,17 +7760,17 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7">
         <v>5000000</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="P59" s="14" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="Q59"/>
       <c r="R59"/>
@@ -5586,17 +7789,17 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7">
         <v>5000000</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="Q60"/>
       <c r="R60"/>
@@ -5615,17 +7818,17 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7">
         <v>100000</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="Q61"/>
       <c r="R61"/>
@@ -5644,17 +7847,17 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7">
         <v>200000</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="Q62"/>
       <c r="R62"/>
@@ -5673,17 +7876,17 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7">
         <v>200000</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="Q63"/>
       <c r="R63"/>
@@ -5702,7 +7905,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7">
@@ -5712,7 +7915,7 @@
         <v>72</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="Q64"/>
       <c r="R64"/>
@@ -5731,7 +7934,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7">
@@ -5741,7 +7944,7 @@
         <v>72</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="Q65"/>
       <c r="R65"/>
@@ -5760,7 +7963,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="31"/>
       <c r="L66" s="31" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="7">
@@ -5770,7 +7973,7 @@
         <v>72</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="Q66"/>
       <c r="R66"/>
@@ -5785,7 +7988,7 @@
         <v>74</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
@@ -5801,7 +8004,7 @@
         <v>10940150</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="K67" s="31"/>
       <c r="L67" s="31" t="s">
@@ -5880,7 +8083,7 @@
       <c r="J70" s="31"/>
       <c r="K70" s="31"/>
       <c r="L70" s="31" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M70" s="31">
         <v>0.05</v>
@@ -5905,7 +8108,7 @@
       <c r="J71" s="31"/>
       <c r="K71" s="31"/>
       <c r="L71" s="31" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M71" s="31">
         <v>0.02</v>
@@ -5926,7 +8129,7 @@
         <v>74</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
@@ -5942,11 +8145,11 @@
         <v>10940151</v>
       </c>
       <c r="J72" s="31" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="K72" s="31"/>
       <c r="L72" s="31" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M72" s="31">
         <v>100</v>
@@ -5971,7 +8174,7 @@
       <c r="J73" s="31"/>
       <c r="K73" s="31"/>
       <c r="L73" s="31" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M73" s="31">
         <v>1</v>
@@ -5996,7 +8199,7 @@
       <c r="J74" s="31"/>
       <c r="K74" s="31"/>
       <c r="L74" s="31" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M74" s="31">
         <v>1</v>
@@ -6067,7 +8270,7 @@
         <v>58</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
@@ -6085,17 +8288,17 @@
         <v>630019</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7">
         <v>0</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.3">
@@ -6106,7 +8309,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
@@ -6124,17 +8327,17 @@
         <v>630018</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7">
         <v>0</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.3">
@@ -6247,16 +8450,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481331F9-E6D8-431C-BD91-EB6EDB09BB53}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6341,10 +8544,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -6361,7 +8564,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="M2" s="41">
         <v>2</v>
@@ -6387,7 +8590,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="M3" s="40">
         <v>1</v>
@@ -6413,7 +8616,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="M4" s="40">
         <v>1</v>
@@ -6439,7 +8642,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="M5" s="40">
         <v>20</v>
@@ -6465,7 +8668,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="M6" s="40">
         <v>1</v>
@@ -6491,7 +8694,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="M7" s="40">
         <v>2</v>
@@ -6517,7 +8720,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="M8" s="40">
         <v>2</v>
@@ -6543,7 +8746,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="M9" s="40">
         <v>1</v>
@@ -6569,7 +8772,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="40"/>
       <c r="L10" s="40" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="M10" s="40">
         <v>1</v>
@@ -6595,7 +8798,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="M11" s="42">
         <v>1</v>
@@ -6615,7 +8818,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>31</v>
@@ -6637,7 +8840,7 @@
         <v>262</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M12" s="42">
         <v>5</v>
@@ -6669,7 +8872,7 @@
         <v>272</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M13" s="42">
         <v>5</v>
@@ -6701,7 +8904,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M14" s="42">
         <v>20</v>
@@ -6733,7 +8936,7 @@
         <v>280</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M15" s="42">
         <v>5</v>
@@ -6765,7 +8968,7 @@
         <v>910520</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="M16" s="42">
         <v>1</v>
@@ -6797,7 +9000,7 @@
         <v>123</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M17" s="42">
         <v>20</v>
@@ -6861,7 +9064,7 @@
         <v>1110277</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="M19" s="42">
         <v>20</v>
@@ -6893,7 +9096,7 @@
         <v>510212</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="M20" s="42">
         <v>1</v>
@@ -6925,7 +9128,7 @@
         <v>910521</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="M21" s="42">
         <v>1</v>
@@ -6949,7 +9152,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -6973,7 +9176,7 @@
         <v>910522</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="M22" s="42">
         <v>1</v>
@@ -6997,13 +9200,13 @@
         <v>90003408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K23" s="42">
         <v>6300</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M23" s="42">
         <v>5</v>
@@ -7027,13 +9230,13 @@
         <v>90003409</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K24" s="42">
         <v>6300</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M24" s="42">
         <v>5</v>
@@ -7057,13 +9260,13 @@
         <v>90003410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="K25" s="42">
         <v>630006</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="M25" s="42">
         <v>1</v>
@@ -7087,13 +9290,13 @@
         <v>90003411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="K26" s="42">
         <v>660006</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="M26" s="42">
         <v>1</v>
@@ -7123,7 +9326,7 @@
         <v>600017</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M27" s="42">
         <v>5</v>
@@ -7147,7 +9350,7 @@
         <v>90003413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="K28" s="42">
         <v>910113</v>
@@ -7173,7 +9376,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>31</v>
@@ -7197,7 +9400,7 @@
         <v>910523</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="M29" s="42">
         <v>1</v>
@@ -7225,13 +9428,13 @@
         <v>90003415</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="K30" s="42">
         <v>151</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="M30" s="42">
         <v>5</v>
@@ -7259,13 +9462,13 @@
         <v>90003416</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="K31" s="42">
         <v>910120</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="M31" s="42">
         <v>20</v>
@@ -7293,7 +9496,7 @@
         <v>90003417</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="K32" s="42">
         <v>910113</v>
@@ -7327,13 +9530,13 @@
         <v>90003418</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="K33" s="42">
         <v>262</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M33" s="42">
         <v>5</v>
@@ -7361,13 +9564,13 @@
         <v>90003419</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="K34" s="42">
         <v>910114</v>
       </c>
       <c r="L34" s="42" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="M34" s="42">
         <v>1</v>
@@ -7395,13 +9598,13 @@
         <v>90003420</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="K35" s="42">
         <v>272</v>
       </c>
       <c r="L35" s="42" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M35" s="42">
         <v>5</v>
@@ -7425,7 +9628,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -7443,7 +9646,7 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="M36" s="15">
         <v>1.45</v>
@@ -7463,7 +9666,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -7479,7 +9682,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
@@ -7489,7 +9692,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
@@ -7511,17 +9714,17 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
         <v>1000</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
@@ -7543,17 +9746,17 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21">
         <v>1000</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -7575,17 +9778,17 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="42" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21">
         <v>1000</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -7607,17 +9810,17 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
         <v>1000</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
@@ -7638,17 +9841,17 @@
       <c r="I42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
         <v>1000</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -7670,17 +9873,17 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
         <v>1000</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -7702,17 +9905,17 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="32" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="M44" s="29"/>
       <c r="N44" s="21">
         <v>1000</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -7734,17 +9937,17 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="32" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="21">
         <v>1000</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
@@ -7762,7 +9965,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -7776,11 +9979,11 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="15" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="31" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="M46" s="15">
         <v>100</v>
@@ -7804,7 +10007,7 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M47" s="15">
         <v>0.05</v>
@@ -7828,7 +10031,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M48" s="15">
         <v>100</v>
@@ -7876,7 +10079,7 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M50" s="15">
         <v>1</v>
@@ -7900,7 +10103,7 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M51" s="15">
         <v>1</v>
@@ -7944,7 +10147,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21" t="s">
@@ -7958,11 +10161,11 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="29" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="M53" s="29">
         <v>100</v>
@@ -8074,7 +10277,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M57" s="21">
         <v>0.03</v>
@@ -8123,7 +10326,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{7B984E71-0C7C-47E3-B5F5-70095F3C3A8D}"/>
+      <autoFilter ref="B1:T58" xr:uid="{865208A0-03A1-4706-83E7-D264273ED15B}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8132,7 +10335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S56"/>
@@ -8453,7 +10656,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>17</v>
@@ -8472,7 +10675,7 @@
         <v>910120</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="L12" s="21">
         <v>10</v>
@@ -8498,7 +10701,7 @@
         <v>910443</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="L13" s="21">
         <v>10</v>
@@ -8550,7 +10753,7 @@
         <v>501004</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="L15" s="21">
         <v>20</v>
@@ -8576,7 +10779,7 @@
         <v>910511</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="L16" s="21">
         <v>1</v>
@@ -8602,7 +10805,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L17" s="21">
         <v>20</v>
@@ -8628,7 +10831,7 @@
         <v>501001</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="L18" s="21">
         <v>20</v>
@@ -8680,7 +10883,7 @@
         <v>6300</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="L20" s="21">
         <v>10</v>
@@ -8706,7 +10909,7 @@
         <v>910512</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="L21" s="21">
         <v>1</v>
@@ -9681,7 +11884,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{68EA2D54-2556-437B-8A7E-8B76E941F913}"/>
+      <autoFilter ref="B1:S56" xr:uid="{05CB409C-92EB-4F75-8907-93C914FE9ABE}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9690,7 +11893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q116"/>
@@ -9723,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -9742,13 +11945,13 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -9777,12 +11980,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H2" s="6">
         <v>20</v>
@@ -9812,7 +12015,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H3" s="5">
         <v>20</v>
@@ -9834,7 +12037,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H4" s="5">
         <v>3</v>
@@ -9856,7 +12059,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="H5" s="5">
         <v>10</v>
@@ -9878,7 +12081,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
@@ -9900,7 +12103,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="H7" s="5">
         <v>10</v>
@@ -9922,7 +12125,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -9988,7 +12191,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -10011,7 +12214,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -10090,7 +12293,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -10112,7 +12315,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -10200,7 +12403,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -10222,7 +12425,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -10245,12 +12448,12 @@
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>4000000</v>
@@ -10264,7 +12467,7 @@
         <v>17</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="P22" s="9">
         <v>44994</v>
@@ -10302,7 +12505,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10324,7 +12527,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -10346,7 +12549,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10368,7 +12571,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -10390,7 +12593,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10434,7 +12637,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -10456,7 +12659,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10478,7 +12681,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -10522,7 +12725,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10544,7 +12747,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -10588,7 +12791,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -10610,7 +12813,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10632,7 +12835,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -10654,7 +12857,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -10676,7 +12879,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -10699,12 +12902,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -10718,7 +12921,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P42" s="9">
         <v>44994</v>
@@ -10734,7 +12937,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -10756,7 +12959,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -10778,7 +12981,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -10800,7 +13003,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -10844,7 +13047,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H48" s="7">
         <v>5</v>
@@ -10866,7 +13069,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -10888,7 +13091,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10910,7 +13113,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H51" s="7">
         <v>4</v>
@@ -10954,7 +13157,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -10976,7 +13179,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="H54" s="7">
         <v>10</v>
@@ -10998,7 +13201,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -11020,7 +13223,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -11042,7 +13245,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -11064,7 +13267,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -11086,7 +13289,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -11130,7 +13333,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -11153,14 +13356,14 @@
         <v>29</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -11212,7 +13415,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
@@ -11236,11 +13439,11 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -11260,11 +13463,11 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -11284,11 +13487,11 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -11308,11 +13511,11 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -11335,14 +13538,14 @@
         <v>29</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -11374,7 +13577,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -11394,11 +13597,11 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -11418,11 +13621,11 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -11442,11 +13645,11 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -11470,7 +13673,7 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -11490,11 +13693,11 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -11517,14 +13720,14 @@
         <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H76" s="7">
         <v>10</v>
@@ -11552,11 +13755,11 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="H77" s="7">
         <v>8</v>
@@ -11576,11 +13779,11 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -11600,7 +13803,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
       <c r="E79" s="7" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
@@ -11624,11 +13827,11 @@
       <c r="C80" s="7"/>
       <c r="D80" s="12"/>
       <c r="E80" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="H80" s="13">
         <v>10</v>
@@ -11648,11 +13851,11 @@
       <c r="C81" s="7"/>
       <c r="D81" s="12"/>
       <c r="E81" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="H81" s="7">
         <v>10</v>
@@ -11672,11 +13875,11 @@
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
       <c r="E82" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="H82" s="7">
         <v>100</v>
@@ -11699,14 +13902,14 @@
         <v>29</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="H83" s="15">
         <v>3</v>
@@ -11720,7 +13923,7 @@
         <v>31</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P83" s="10">
         <v>44987</v>
@@ -11734,11 +13937,11 @@
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="16" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="H84" s="15">
         <v>10</v>
@@ -11758,11 +13961,11 @@
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H85" s="15">
         <v>20</v>
@@ -11782,11 +13985,11 @@
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
       <c r="E86" s="15" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="H86" s="15">
         <v>3</v>
@@ -11806,11 +14009,11 @@
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
       <c r="E87" s="15" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H87" s="15">
         <v>5</v>
@@ -11830,11 +14033,11 @@
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
       <c r="E88" s="15" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H88" s="15">
         <v>20</v>
@@ -11854,11 +14057,11 @@
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
       <c r="E89" s="15" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="H89" s="15">
         <v>10</v>
@@ -11881,12 +14084,12 @@
         <v>54</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H90" s="15">
         <v>0.2</v>
@@ -11898,7 +14101,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P90" s="10">
         <v>44994</v>
@@ -11915,12 +14118,12 @@
         <v>54</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="H91" s="15">
         <v>0.2</v>
@@ -11932,7 +14135,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P91" s="10">
         <v>44994</v>
@@ -11949,12 +14152,12 @@
         <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="H92" s="15">
         <v>0.2</v>
@@ -11966,7 +14169,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P92" s="10">
         <v>44994</v>
@@ -11983,12 +14186,12 @@
         <v>54</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="H93" s="15">
         <v>0.16</v>
@@ -12000,7 +14203,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P93" s="10">
         <v>44994</v>
@@ -12012,17 +14215,17 @@
     <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
@@ -12032,7 +14235,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="P94" s="10">
         <v>44994</v>
@@ -12044,17 +14247,17 @@
     <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -12064,7 +14267,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="P95" s="10">
         <v>44994</v>
@@ -12076,17 +14279,17 @@
     <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -12096,7 +14299,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="P96" s="10">
         <f>Q95</f>
@@ -12110,17 +14313,17 @@
     <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
@@ -12130,7 +14333,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="P97" s="10">
         <f t="shared" ref="P97:P98" si="0">Q96</f>
@@ -12144,17 +14347,17 @@
     <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
@@ -12164,7 +14367,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="P98" s="10">
         <f t="shared" si="0"/>
@@ -12183,12 +14386,12 @@
         <v>74</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="H99" s="15">
         <v>0.05</v>
@@ -12197,7 +14400,7 @@
         <v>910505</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K99" s="15">
         <v>1</v>
@@ -12206,7 +14409,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P99" s="10">
         <v>44994</v>
@@ -12222,7 +14425,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="H100" s="15">
         <v>4</v>
@@ -12244,7 +14447,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H101" s="15">
         <v>3</v>
@@ -12333,7 +14536,7 @@
         <v>74</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
@@ -12347,7 +14550,7 @@
         <v>910506</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="K105" s="15">
         <v>1</v>
@@ -12356,7 +14559,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P105" s="10">
         <v>44994</v>
@@ -12372,7 +14575,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
       <c r="G106" s="15" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H106" s="15">
         <v>0.05</v>
@@ -12394,7 +14597,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
       <c r="G107" s="15" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H107" s="15">
         <v>3</v>
@@ -12416,7 +14619,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="H108" s="15">
         <v>3</v>
@@ -12438,7 +14641,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H109" s="15">
         <v>400</v>
@@ -12460,7 +14663,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
       <c r="G110" s="15" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="H110" s="15">
         <v>0.03</v>
@@ -12483,12 +14686,12 @@
         <v>58</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -12498,7 +14701,7 @@
         <v>10000000</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="N111" s="7" t="s">
         <v>31</v>
@@ -12518,7 +14721,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -12528,7 +14731,7 @@
         <v>10000000</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>31</v>
@@ -12548,7 +14751,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -12558,10 +14761,10 @@
         <v>1000000</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="10">
@@ -12578,7 +14781,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -12588,10 +14791,10 @@
         <v>10000000</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="10">
@@ -12608,7 +14811,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -12618,10 +14821,10 @@
         <v>10000000</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="10">
@@ -12638,7 +14841,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -12648,10 +14851,10 @@
         <v>500000</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="10">
@@ -12669,7 +14872,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{85666439-5170-4EF3-8F29-8CF265646AC5}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{EEDE610E-09B1-4317-BF5C-D3FA55561CCD}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12678,7 +14881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F45F139-44C3-4D80-A135-02D99D78CD66}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -12775,10 +14978,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -12797,7 +15000,7 @@
         <v>910319</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="M2" s="41">
         <v>30</v>
@@ -12826,7 +15029,7 @@
         <v>123</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M3" s="40">
         <v>20</v>
@@ -12855,7 +15058,7 @@
         <v>262</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M4" s="40">
         <v>10</v>
@@ -12884,7 +15087,7 @@
         <v>272</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M5" s="40">
         <v>10</v>
@@ -12913,7 +15116,7 @@
         <v>62</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M6" s="40">
         <v>40</v>
@@ -13029,7 +15232,7 @@
         <v>510212</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="M10" s="40">
         <v>2</v>
@@ -13058,7 +15261,7 @@
         <v>910532</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="M11" s="42">
         <v>1</v>
@@ -13080,7 +15283,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>31</v>
@@ -13102,7 +15305,7 @@
         <v>262</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M12" s="42">
         <v>5</v>
@@ -13132,7 +15335,7 @@
         <v>272</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M13" s="42">
         <v>5</v>
@@ -13162,7 +15365,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M14" s="42">
         <v>20</v>
@@ -13192,7 +15395,7 @@
         <v>280</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M15" s="42">
         <v>5</v>
@@ -13222,7 +15425,7 @@
         <v>910520</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="M16" s="42">
         <v>1</v>
@@ -13252,7 +15455,7 @@
         <v>123</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M17" s="42">
         <v>20</v>
@@ -13312,7 +15515,7 @@
         <v>1110277</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="M19" s="42">
         <v>20</v>
@@ -13342,7 +15545,7 @@
         <v>510212</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="M20" s="42">
         <v>1</v>
@@ -13372,7 +15575,7 @@
         <v>910521</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="M21" s="42">
         <v>1</v>
@@ -13393,7 +15596,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -13417,7 +15620,7 @@
         <v>910522</v>
       </c>
       <c r="L22" s="42" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="M22" s="42">
         <v>1</v>
@@ -13442,13 +15645,13 @@
         <v>90003408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K23" s="42">
         <v>6300</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M23" s="42">
         <v>5</v>
@@ -13473,13 +15676,13 @@
         <v>90003409</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K24" s="42">
         <v>6300</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M24" s="42">
         <v>5</v>
@@ -13504,13 +15707,13 @@
         <v>90003410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="K25" s="42">
         <v>630006</v>
       </c>
       <c r="L25" s="42" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="M25" s="42">
         <v>1</v>
@@ -13535,13 +15738,13 @@
         <v>90003411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="K26" s="42">
         <v>660006</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="M26" s="42">
         <v>1</v>
@@ -13572,7 +15775,7 @@
         <v>600017</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M27" s="42">
         <v>5</v>
@@ -13597,7 +15800,7 @@
         <v>90003413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="K28" s="42">
         <v>910113</v>
@@ -13625,7 +15828,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>31</v>
@@ -13649,7 +15852,7 @@
         <v>910523</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="M29" s="42">
         <v>1</v>
@@ -13675,13 +15878,13 @@
         <v>90003415</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="K30" s="42">
         <v>151</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="M30" s="42">
         <v>5</v>
@@ -13707,13 +15910,13 @@
         <v>90003416</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="K31" s="42">
         <v>910120</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="M31" s="42">
         <v>20</v>
@@ -13739,7 +15942,7 @@
         <v>90003417</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="K32" s="42">
         <v>910113</v>
@@ -13771,13 +15974,13 @@
         <v>90003418</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="K33" s="42">
         <v>262</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M33" s="42">
         <v>5</v>
@@ -13803,13 +16006,13 @@
         <v>90003419</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="K34" s="42">
         <v>910114</v>
       </c>
       <c r="L34" s="42" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="M34" s="42">
         <v>1</v>
@@ -13835,13 +16038,13 @@
         <v>90003420</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="K35" s="42">
         <v>272</v>
       </c>
       <c r="L35" s="42" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M35" s="42">
         <v>5</v>
@@ -13862,7 +16065,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -13880,7 +16083,7 @@
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="M36" s="31">
         <v>1.45</v>
@@ -13902,7 +16105,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21" t="s">
@@ -13918,7 +16121,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21">
@@ -13928,7 +16131,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
@@ -13948,17 +16151,17 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21">
         <v>1000</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
@@ -13978,17 +16181,17 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21">
         <v>1000</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -14008,17 +16211,17 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="42" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21">
         <v>1000</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -14038,17 +16241,17 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
         <v>1000</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
@@ -14068,17 +16271,17 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
         <v>1000</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -14098,17 +16301,17 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
         <v>1000</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -14128,17 +16331,17 @@
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="M44" s="32"/>
       <c r="N44" s="21">
         <v>1000</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -14158,17 +16361,17 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="M45" s="32"/>
       <c r="N45" s="21">
         <v>1000</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
@@ -14183,7 +16386,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -14197,11 +16400,11 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="31" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="31" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="M46" s="31">
         <v>100</v>
@@ -14226,7 +16429,7 @@
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
       <c r="L47" s="31" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M47" s="31">
         <v>0.05</v>
@@ -14251,7 +16454,7 @@
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M48" s="31">
         <v>100</v>
@@ -14301,7 +16504,7 @@
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M50" s="31">
         <v>1</v>
@@ -14326,7 +16529,7 @@
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M51" s="31">
         <v>1</v>
@@ -14373,7 +16576,7 @@
         <v>74</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21" t="s">
@@ -14387,11 +16590,11 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="32" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="M53" s="32">
         <v>100</v>
@@ -14495,7 +16698,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M57" s="21">
         <v>0.03</v>

--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FC917B-9B0D-4759-91B7-E6E56FE632E5}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6DA3C09-EFDD-4E17-89B3-08CC6BAAB6B1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
@@ -460,7 +460,6 @@
   </si>
   <si>
     <t>3주년 프롤로그 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다가오는 3주년 기념 상자Ⅱ[이벤트][귀속]</t>
@@ -1306,7 +1305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2070,12 +2069,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2378,12 +2373,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="9" style="8"/>
     <col min="8" max="8" width="11.125" style="8" customWidth="1"/>
@@ -2403,7 +2398,7 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:25" ht="16.5">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2449,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="7:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:25" ht="16.5" customHeight="1">
       <c r="H2" s="5">
         <v>150</v>
       </c>
@@ -2494,7 +2489,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:25" ht="16.5">
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2520,7 +2515,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:25" ht="16.5">
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2546,7 +2541,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:25" ht="16.5">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2572,7 +2567,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:25" ht="16.5">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2598,7 +2593,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:25" ht="16.5">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2624,7 +2619,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:25" ht="16.5">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2650,7 +2645,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:25" ht="16.5">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2676,7 +2671,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:25" ht="16.5">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2702,7 +2697,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:25" ht="16.5">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2728,7 +2723,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:25" ht="16.5">
       <c r="H12" s="7">
         <v>370</v>
       </c>
@@ -2770,7 +2765,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:25" ht="16.5">
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
@@ -2798,7 +2793,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:25" ht="16.5">
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
@@ -2826,7 +2821,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:25" ht="16.5">
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
@@ -2854,7 +2849,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:25" ht="16.5">
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
@@ -2882,7 +2877,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:25" ht="16.5">
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
@@ -2910,7 +2905,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:25" ht="16.5">
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
@@ -2938,7 +2933,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H19" s="21">
         <v>371</v>
       </c>
@@ -2980,7 +2975,7 @@
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
     </row>
-    <row r="20" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
@@ -3008,7 +3003,7 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
     </row>
-    <row r="21" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -3036,7 +3031,7 @@
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
     </row>
-    <row r="22" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -3064,7 +3059,7 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
     </row>
-    <row r="23" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -3092,7 +3087,7 @@
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
     </row>
-    <row r="24" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -3120,7 +3115,7 @@
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
     </row>
-    <row r="25" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -3148,7 +3143,7 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
     </row>
-    <row r="26" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:25" ht="16.5">
       <c r="H26" s="7">
         <v>30012</v>
       </c>
@@ -3186,7 +3181,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H27" s="21">
         <v>20008</v>
       </c>
@@ -3226,7 +3221,7 @@
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
     </row>
-    <row r="28" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="26"/>
@@ -3254,7 +3249,7 @@
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
     </row>
-    <row r="29" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -3282,7 +3277,7 @@
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
     </row>
-    <row r="30" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3310,7 +3305,7 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
     </row>
-    <row r="31" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -3338,7 +3333,7 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
     </row>
-    <row r="32" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -3366,7 +3361,7 @@
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
     </row>
-    <row r="33" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="26"/>
@@ -3394,7 +3389,7 @@
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
     </row>
-    <row r="34" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="26"/>
@@ -3422,7 +3417,7 @@
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
     </row>
-    <row r="35" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:25" ht="16.5">
       <c r="H35" s="7">
         <v>1104</v>
       </c>
@@ -3460,7 +3455,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:25" ht="16.5">
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="12"/>
@@ -3484,7 +3479,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:25" ht="16.5">
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="12"/>
@@ -3508,7 +3503,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:25" ht="16.5">
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="12"/>
@@ -3532,7 +3527,7 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:25" ht="16.5">
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="12"/>
@@ -3556,7 +3551,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:25" ht="16.5">
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="12"/>
@@ -3580,7 +3575,7 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H41" s="21">
         <v>1105</v>
       </c>
@@ -3618,7 +3613,7 @@
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
     </row>
-    <row r="42" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="26"/>
@@ -3642,7 +3637,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="26"/>
@@ -3666,7 +3661,7 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="26"/>
@@ -3690,7 +3685,7 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
     </row>
-    <row r="45" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3714,7 +3709,7 @@
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
     </row>
-    <row r="46" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:25" s="20" customFormat="1" ht="16.5">
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3746,7 +3741,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{A69EE2C8-673A-4159-A5CD-0D4645A579B4}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{64A6EC38-9CD6-412F-9665-1C0823EBE960}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3761,13 +3756,13 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -3789,7 +3784,7 @@
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.5">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3846,7 +3841,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>157</v>
       </c>
@@ -3894,7 +3889,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.5">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3928,7 +3923,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.5">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3962,7 +3957,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3996,7 +3991,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.5">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4030,7 +4025,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16.5">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4064,7 +4059,7 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4098,7 +4093,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16.5">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4132,7 +4127,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16.5">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4166,7 +4161,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16.5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4200,7 +4195,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A12" s="43"/>
       <c r="B12" s="44">
         <v>158</v>
@@ -4249,7 +4244,7 @@
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
     </row>
-    <row r="13" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -4284,7 +4279,7 @@
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
     </row>
-    <row r="14" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -4319,7 +4314,7 @@
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
     </row>
-    <row r="15" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -4354,7 +4349,7 @@
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
     </row>
-    <row r="16" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -4389,7 +4384,7 @@
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
     </row>
-    <row r="17" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -4424,7 +4419,7 @@
       <c r="T17" s="47"/>
       <c r="U17" s="47"/>
     </row>
-    <row r="18" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -4459,7 +4454,7 @@
       <c r="T18" s="47"/>
       <c r="U18" s="47"/>
     </row>
-    <row r="19" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -4494,7 +4489,7 @@
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
     </row>
-    <row r="20" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -4529,7 +4524,7 @@
       <c r="T20" s="47"/>
       <c r="U20" s="47"/>
     </row>
-    <row r="21" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -4564,7 +4559,7 @@
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="B22" s="7">
         <v>377</v>
       </c>
@@ -4612,7 +4607,7 @@
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -4646,7 +4641,7 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -4680,7 +4675,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -4714,7 +4709,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -4748,7 +4743,7 @@
       <c r="T26"/>
       <c r="U26"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -4782,7 +4777,7 @@
       <c r="T27"/>
       <c r="U27"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -4816,7 +4811,7 @@
       <c r="T28"/>
       <c r="U28"/>
     </row>
-    <row r="29" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A29" s="43"/>
       <c r="B29" s="44">
         <v>378</v>
@@ -4865,7 +4860,7 @@
       <c r="T29" s="47"/>
       <c r="U29" s="47"/>
     </row>
-    <row r="30" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
       <c r="C30" s="45"/>
@@ -4900,7 +4895,7 @@
       <c r="T30" s="47"/>
       <c r="U30" s="47"/>
     </row>
-    <row r="31" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -4935,7 +4930,7 @@
       <c r="T31" s="47"/>
       <c r="U31" s="47"/>
     </row>
-    <row r="32" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -4970,7 +4965,7 @@
       <c r="T32" s="47"/>
       <c r="U32" s="47"/>
     </row>
-    <row r="33" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A33" s="43"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -5005,7 +5000,7 @@
       <c r="T33" s="47"/>
       <c r="U33" s="47"/>
     </row>
-    <row r="34" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -5040,7 +5035,7 @@
       <c r="T34" s="47"/>
       <c r="U34" s="47"/>
     </row>
-    <row r="35" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -5075,7 +5070,7 @@
       <c r="T35" s="47"/>
       <c r="U35" s="47"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="B36" s="7">
         <v>30015</v>
       </c>
@@ -5117,7 +5112,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A37" s="43"/>
       <c r="B37" s="44">
         <v>20011</v>
@@ -5160,7 +5155,7 @@
       <c r="T37" s="47"/>
       <c r="U37" s="47"/>
     </row>
-    <row r="38" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A38" s="43"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -5191,7 +5186,7 @@
       <c r="T38" s="47"/>
       <c r="U38" s="47"/>
     </row>
-    <row r="39" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -5222,7 +5217,7 @@
       <c r="T39" s="47"/>
       <c r="U39" s="47"/>
     </row>
-    <row r="40" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -5253,7 +5248,7 @@
       <c r="T40" s="47"/>
       <c r="U40" s="47"/>
     </row>
-    <row r="41" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A41" s="43"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -5284,7 +5279,7 @@
       <c r="T41" s="47"/>
       <c r="U41" s="47"/>
     </row>
-    <row r="42" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -5315,7 +5310,7 @@
       <c r="T42" s="47"/>
       <c r="U42" s="47"/>
     </row>
-    <row r="43" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A43" s="43"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -5346,7 +5341,7 @@
       <c r="T43" s="47"/>
       <c r="U43" s="47"/>
     </row>
-    <row r="44" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A44" s="43"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -5377,7 +5372,7 @@
       <c r="T44" s="47"/>
       <c r="U44" s="47"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="B45" s="7">
         <v>1113</v>
       </c>
@@ -5419,7 +5414,7 @@
       <c r="T45"/>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="12"/>
@@ -5445,7 +5440,7 @@
       <c r="T46"/>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -5471,7 +5466,7 @@
       <c r="T47"/>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -5497,7 +5492,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -5523,7 +5518,7 @@
       <c r="T49"/>
       <c r="U49"/>
     </row>
-    <row r="50" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A50" s="43"/>
       <c r="B50" s="44">
         <v>1114</v>
@@ -5566,7 +5561,7 @@
       <c r="T50" s="47"/>
       <c r="U50" s="47"/>
     </row>
-    <row r="51" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A51" s="43"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -5593,7 +5588,7 @@
       <c r="T51" s="47"/>
       <c r="U51" s="47"/>
     </row>
-    <row r="52" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A52" s="43"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -5620,7 +5615,7 @@
       <c r="T52" s="47"/>
       <c r="U52" s="47"/>
     </row>
-    <row r="53" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A53" s="43"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -5647,7 +5642,7 @@
       <c r="T53" s="47"/>
       <c r="U53" s="47"/>
     </row>
-    <row r="54" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="48" customFormat="1" ht="16.5">
       <c r="A54" s="43"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -5674,7 +5669,7 @@
       <c r="T54" s="47"/>
       <c r="U54" s="47"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -5692,7 +5687,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -5710,7 +5705,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -5728,7 +5723,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -5746,7 +5741,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="12"/>
@@ -5764,7 +5759,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -5797,12 +5792,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -5823,7 +5818,7 @@
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5877,7 +5872,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>154</v>
       </c>
@@ -5922,7 +5917,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5953,7 +5948,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5984,7 +5979,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6015,7 +6010,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6046,7 +6041,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6077,7 +6072,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6108,7 +6103,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6139,7 +6134,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6170,7 +6165,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6201,7 +6196,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="B12" s="7">
         <v>156</v>
       </c>
@@ -6246,7 +6241,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6277,7 +6272,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6308,7 +6303,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6339,7 +6334,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6370,7 +6365,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="16.5">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6401,7 +6396,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="16.5">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6432,7 +6427,7 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="16.5">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6463,7 +6458,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="16.5">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6494,7 +6489,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="16.5">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6525,7 +6520,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="16.5">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6556,7 +6551,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="16.5">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6587,7 +6582,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="16.5">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6618,7 +6613,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="16.5">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -6649,7 +6644,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="16.5">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6680,7 +6675,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="16.5">
       <c r="B27" s="7">
         <v>155</v>
       </c>
@@ -6725,7 +6720,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="16.5">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -6756,7 +6751,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="16.5">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -6787,7 +6782,7 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="16.5">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -6818,7 +6813,7 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" ht="16.5">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -6849,7 +6844,7 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" ht="16.5">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -6880,7 +6875,7 @@
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" ht="16.5">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -6911,7 +6906,7 @@
       <c r="S33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" ht="16.5">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -6942,7 +6937,7 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" ht="16.5">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -6973,7 +6968,7 @@
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" ht="16.5">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -7004,7 +6999,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" ht="16.5">
       <c r="B37" s="7">
         <v>374</v>
       </c>
@@ -7049,7 +7044,7 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" ht="16.5">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -7080,7 +7075,7 @@
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" ht="16.5">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -7111,7 +7106,7 @@
       <c r="S39"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" ht="16.5">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -7142,7 +7137,7 @@
       <c r="S40"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" ht="16.5">
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -7173,7 +7168,7 @@
       <c r="S41"/>
       <c r="T41"/>
     </row>
-    <row r="42" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" ht="16.5">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -7204,7 +7199,7 @@
       <c r="S42"/>
       <c r="T42"/>
     </row>
-    <row r="43" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" ht="16.5">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -7235,7 +7230,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" ht="16.5">
       <c r="B44" s="7">
         <v>376</v>
       </c>
@@ -7280,7 +7275,7 @@
       <c r="S44"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" ht="16.5">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -7311,7 +7306,7 @@
       <c r="S45"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" ht="16.5">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -7342,7 +7337,7 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" ht="16.5">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -7373,7 +7368,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" ht="16.5">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -7404,7 +7399,7 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" ht="16.5">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -7435,7 +7430,7 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" ht="16.5">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -7466,7 +7461,7 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" ht="16.5">
       <c r="B51" s="7">
         <v>375</v>
       </c>
@@ -7511,7 +7506,7 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" ht="16.5">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -7542,7 +7537,7 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" ht="16.5">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="12"/>
@@ -7573,7 +7568,7 @@
       <c r="S53"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" ht="16.5">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="12"/>
@@ -7604,7 +7599,7 @@
       <c r="S54"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" ht="16.5">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="12"/>
@@ -7635,7 +7630,7 @@
       <c r="S55"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20" ht="16.5">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="12"/>
@@ -7666,7 +7661,7 @@
       <c r="S56"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:20" ht="16.5">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
@@ -7697,7 +7692,7 @@
       <c r="S57"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:20" ht="16.5">
       <c r="B58" s="7">
         <v>30014</v>
       </c>
@@ -7736,7 +7731,7 @@
       <c r="S58"/>
       <c r="T58"/>
     </row>
-    <row r="59" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:20" ht="16.5">
       <c r="B59" s="7">
         <v>20010</v>
       </c>
@@ -7777,7 +7772,7 @@
       <c r="S59"/>
       <c r="T59"/>
     </row>
-    <row r="60" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:20" ht="16.5">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -7806,7 +7801,7 @@
       <c r="S60"/>
       <c r="T60"/>
     </row>
-    <row r="61" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:20" ht="16.5">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -7835,7 +7830,7 @@
       <c r="S61"/>
       <c r="T61"/>
     </row>
-    <row r="62" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:20" ht="16.5">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -7864,7 +7859,7 @@
       <c r="S62"/>
       <c r="T62"/>
     </row>
-    <row r="63" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:20" ht="16.5">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -7893,7 +7888,7 @@
       <c r="S63"/>
       <c r="T63"/>
     </row>
-    <row r="64" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:20" ht="16.5">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -7922,7 +7917,7 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" ht="16.5">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12"/>
@@ -7951,7 +7946,7 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" ht="16.5">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="12"/>
@@ -7980,7 +7975,7 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:20" ht="16.5">
       <c r="B67" s="7">
         <v>1111</v>
       </c>
@@ -8021,7 +8016,7 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:20" ht="16.5">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="12"/>
@@ -8046,7 +8041,7 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:20" ht="16.5">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="12"/>
@@ -8071,7 +8066,7 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:20" ht="16.5">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="12"/>
@@ -8096,7 +8091,7 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:20" ht="16.5">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="12"/>
@@ -8121,7 +8116,7 @@
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:20" ht="16.5">
       <c r="B72" s="7">
         <v>1112</v>
       </c>
@@ -8162,7 +8157,7 @@
       <c r="S72"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:20" ht="16.5">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="12"/>
@@ -8187,7 +8182,7 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:20" ht="16.5">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="12"/>
@@ -8212,7 +8207,7 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:20" ht="16.5">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="12"/>
@@ -8237,7 +8232,7 @@
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:20" ht="16.5">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -8262,7 +8257,7 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:20">
       <c r="B77" s="7">
         <v>421113</v>
       </c>
@@ -8301,7 +8296,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:20">
       <c r="B78" s="7">
         <v>421114</v>
       </c>
@@ -8340,7 +8335,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:20">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -8357,7 +8352,7 @@
       <c r="O79" s="7"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:20">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -8374,7 +8369,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -8391,7 +8386,7 @@
       <c r="O81" s="7"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -8408,7 +8403,7 @@
       <c r="O82" s="7"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="12"/>
@@ -8425,7 +8420,7 @@
       <c r="O83" s="7"/>
       <c r="P83" s="14"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
@@ -8457,12 +8452,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -8483,7 +8478,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8533,7 +8528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="A2" s="38">
         <v>45056</v>
       </c>
@@ -8573,7 +8568,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="38">
         <v>45056</v>
       </c>
@@ -8599,7 +8594,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="38">
         <v>45056</v>
       </c>
@@ -8625,7 +8620,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="38">
         <v>45056</v>
       </c>
@@ -8651,7 +8646,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="38">
         <v>45056</v>
       </c>
@@ -8677,7 +8672,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="38">
         <v>45056</v>
       </c>
@@ -8703,7 +8698,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="38">
         <v>45056</v>
       </c>
@@ -8729,7 +8724,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="38">
         <v>45056</v>
       </c>
@@ -8755,7 +8750,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="38">
         <v>45056</v>
       </c>
@@ -8781,7 +8776,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="38">
         <v>45056</v>
       </c>
@@ -8807,7 +8802,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="20" customFormat="1">
       <c r="A12" s="38">
         <v>45042</v>
       </c>
@@ -8853,7 +8848,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="20" customFormat="1">
       <c r="A13" s="38">
         <v>45042</v>
       </c>
@@ -8885,7 +8880,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="20" customFormat="1">
       <c r="A14" s="38">
         <v>45042</v>
       </c>
@@ -8917,7 +8912,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="20" customFormat="1">
       <c r="A15" s="38">
         <v>45042</v>
       </c>
@@ -8949,7 +8944,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="20" customFormat="1">
       <c r="A16" s="38">
         <v>45042</v>
       </c>
@@ -8981,7 +8976,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="20" customFormat="1">
       <c r="A17" s="38">
         <v>45042</v>
       </c>
@@ -9013,7 +9008,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="20" customFormat="1">
       <c r="A18" s="38">
         <v>45042</v>
       </c>
@@ -9045,7 +9040,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="20" customFormat="1">
       <c r="A19" s="38">
         <v>45042</v>
       </c>
@@ -9077,7 +9072,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="20" customFormat="1">
       <c r="A20" s="38">
         <v>45042</v>
       </c>
@@ -9109,7 +9104,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="20" customFormat="1">
       <c r="A21" s="38">
         <v>45042</v>
       </c>
@@ -9141,7 +9136,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="38">
         <v>45042</v>
       </c>
@@ -9185,7 +9180,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="38">
         <v>45042</v>
       </c>
@@ -9215,7 +9210,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="38">
         <v>45042</v>
       </c>
@@ -9245,7 +9240,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="38">
         <v>45042</v>
       </c>
@@ -9275,7 +9270,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="38">
         <v>45042</v>
       </c>
@@ -9305,7 +9300,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" s="38">
         <v>45042</v>
       </c>
@@ -9335,7 +9330,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" s="38">
         <v>45042</v>
       </c>
@@ -9365,7 +9360,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="20" customFormat="1">
       <c r="A29" s="38">
         <v>45042</v>
       </c>
@@ -9413,7 +9408,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="20" customFormat="1">
       <c r="A30" s="38">
         <v>45042</v>
       </c>
@@ -9447,7 +9442,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="20" customFormat="1">
       <c r="A31" s="38">
         <v>45042</v>
       </c>
@@ -9481,7 +9476,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="20" customFormat="1">
       <c r="A32" s="38">
         <v>45042</v>
       </c>
@@ -9515,7 +9510,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="20" customFormat="1">
       <c r="A33" s="38">
         <v>45042</v>
       </c>
@@ -9549,7 +9544,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="20" customFormat="1">
       <c r="A34" s="38">
         <v>45042</v>
       </c>
@@ -9583,7 +9578,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="20" customFormat="1">
       <c r="A35" s="38">
         <v>45042</v>
       </c>
@@ -9617,7 +9612,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" s="34">
         <v>45041</v>
       </c>
@@ -9655,7 +9650,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="20" customFormat="1">
       <c r="A37" s="37">
         <v>45041</v>
       </c>
@@ -9699,7 +9694,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="20" customFormat="1">
       <c r="A38" s="37">
         <v>45041</v>
       </c>
@@ -9731,7 +9726,7 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" s="20" customFormat="1">
       <c r="A39" s="37">
         <v>45041</v>
       </c>
@@ -9763,7 +9758,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="20" customFormat="1">
       <c r="A40" s="38">
         <v>45042</v>
       </c>
@@ -9795,7 +9790,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="20" customFormat="1">
       <c r="A41" s="37">
         <v>45041</v>
       </c>
@@ -9827,7 +9822,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="20" customFormat="1">
       <c r="A42" s="37">
         <v>45041</v>
       </c>
@@ -9858,7 +9853,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="20" customFormat="1">
       <c r="A43" s="37">
         <v>45041</v>
       </c>
@@ -9890,7 +9885,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="20" customFormat="1">
       <c r="A44" s="38">
         <v>45042</v>
       </c>
@@ -9922,7 +9917,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="20" customFormat="1">
       <c r="A45" s="38">
         <v>45042</v>
       </c>
@@ -9954,7 +9949,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" s="38">
         <v>45041</v>
       </c>
@@ -9992,7 +9987,7 @@
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" s="34">
         <v>45041</v>
       </c>
@@ -10016,7 +10011,7 @@
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="34">
         <v>45041</v>
       </c>
@@ -10040,7 +10035,7 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" s="34">
         <v>45041</v>
       </c>
@@ -10064,7 +10059,7 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" s="34">
         <v>45041</v>
       </c>
@@ -10088,7 +10083,7 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51" s="34">
         <v>45041</v>
       </c>
@@ -10112,7 +10107,7 @@
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" s="34">
         <v>45041</v>
       </c>
@@ -10136,7 +10131,7 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="20" customFormat="1">
       <c r="A53" s="38">
         <v>45041</v>
       </c>
@@ -10178,7 +10173,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="20" customFormat="1">
       <c r="A54" s="37">
         <v>45041</v>
       </c>
@@ -10206,7 +10201,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" s="20" customFormat="1">
       <c r="A55" s="37">
         <v>45041</v>
       </c>
@@ -10234,7 +10229,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" s="20" customFormat="1">
       <c r="A56" s="37">
         <v>45041</v>
       </c>
@@ -10262,7 +10257,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" s="20" customFormat="1">
       <c r="A57" s="37">
         <v>45041</v>
       </c>
@@ -10290,7 +10285,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" s="20" customFormat="1">
       <c r="A58" s="37">
         <v>45041</v>
       </c>
@@ -10326,7 +10321,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{865208A0-03A1-4706-83E7-D264273ED15B}"/>
+      <autoFilter ref="B1:T58" xr:uid="{2A5BB048-F394-4C8F-B4F8-01585D527FD2}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10342,12 +10337,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -10367,7 +10362,7 @@
     <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10414,7 +10409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>150</v>
       </c>
@@ -10450,7 +10445,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -10472,7 +10467,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -10494,7 +10489,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -10516,7 +10511,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -10538,7 +10533,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10560,7 +10555,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10582,7 +10577,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -10604,7 +10599,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -10626,7 +10621,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -10648,7 +10643,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="20" customFormat="1">
       <c r="B12" s="21">
         <v>151</v>
       </c>
@@ -10688,7 +10683,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="20" customFormat="1">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -10714,7 +10709,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="20" customFormat="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -10740,7 +10735,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="20" customFormat="1">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
@@ -10766,7 +10761,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="20" customFormat="1">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="21"/>
@@ -10792,7 +10787,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" s="20" customFormat="1">
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
@@ -10818,7 +10813,7 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" s="20" customFormat="1">
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="21"/>
@@ -10844,7 +10839,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" s="20" customFormat="1">
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="21"/>
@@ -10870,7 +10865,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" s="20" customFormat="1">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="21"/>
@@ -10896,7 +10891,7 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" s="20" customFormat="1">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="21"/>
@@ -10922,7 +10917,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19">
       <c r="B22" s="7">
         <v>370</v>
       </c>
@@ -10960,7 +10955,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -10984,7 +10979,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -11008,7 +11003,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -11032,7 +11027,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -11056,7 +11051,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -11080,7 +11075,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -11104,7 +11099,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" s="20" customFormat="1">
       <c r="B29" s="21">
         <v>371</v>
       </c>
@@ -11146,7 +11141,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" s="20" customFormat="1">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -11174,7 +11169,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
-    <row r="31" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" s="20" customFormat="1">
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -11202,7 +11197,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
     </row>
-    <row r="32" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" s="20" customFormat="1">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -11230,7 +11225,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" s="20" customFormat="1">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -11258,7 +11253,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
-    <row r="34" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" s="20" customFormat="1">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -11286,7 +11281,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" s="20" customFormat="1">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -11314,7 +11309,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19">
       <c r="B36" s="7">
         <v>30012</v>
       </c>
@@ -11348,7 +11343,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" s="20" customFormat="1">
       <c r="B37" s="21">
         <v>20008</v>
       </c>
@@ -11388,7 +11383,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" s="20" customFormat="1">
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="26"/>
@@ -11416,7 +11411,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" s="20" customFormat="1">
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -11444,7 +11439,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
     </row>
-    <row r="40" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" s="20" customFormat="1">
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -11472,7 +11467,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
     </row>
-    <row r="41" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" s="20" customFormat="1">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -11500,7 +11495,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" s="20" customFormat="1">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -11528,7 +11523,7 @@
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
     </row>
-    <row r="43" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" s="20" customFormat="1">
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="26"/>
@@ -11556,7 +11551,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
     </row>
-    <row r="44" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" s="20" customFormat="1">
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="26"/>
@@ -11584,7 +11579,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="7">
         <v>1104</v>
       </c>
@@ -11618,7 +11613,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="12"/>
@@ -11638,7 +11633,7 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -11658,7 +11653,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -11678,7 +11673,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -11698,7 +11693,7 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -11718,7 +11713,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" s="20" customFormat="1">
       <c r="B51" s="21">
         <v>1105</v>
       </c>
@@ -11756,7 +11751,7 @@
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
     </row>
-    <row r="52" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" s="20" customFormat="1">
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="26"/>
@@ -11780,7 +11775,7 @@
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
     </row>
-    <row r="53" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" s="20" customFormat="1">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="26"/>
@@ -11804,7 +11799,7 @@
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
     </row>
-    <row r="54" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" s="20" customFormat="1">
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="26"/>
@@ -11828,7 +11823,7 @@
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
     </row>
-    <row r="55" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" s="20" customFormat="1">
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -11852,7 +11847,7 @@
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19" s="20" customFormat="1">
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -11884,7 +11879,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{05CB409C-92EB-4F75-8907-93C914FE9ABE}"/>
+      <autoFilter ref="B1:S56" xr:uid="{E523A046-CD46-4EB2-807A-BC1084AAC731}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11903,7 +11898,7 @@
       <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="7.5" style="8" bestFit="1" customWidth="1"/>
@@ -11921,7 +11916,7 @@
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11972,7 +11967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>146</v>
       </c>
@@ -12008,7 +12003,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12030,7 +12025,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12052,7 +12047,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -12074,7 +12069,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -12096,7 +12091,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12118,7 +12113,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12140,7 +12135,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12162,7 +12157,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -12184,7 +12179,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -12206,7 +12201,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="B12" s="7">
         <v>147</v>
       </c>
@@ -12242,7 +12237,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -12264,7 +12259,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -12286,7 +12281,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -12308,7 +12303,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -12330,7 +12325,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -12352,7 +12347,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -12374,7 +12369,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -12396,7 +12391,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -12418,7 +12413,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -12440,7 +12435,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17">
       <c r="B22" s="7">
         <v>148</v>
       </c>
@@ -12476,7 +12471,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -12498,7 +12493,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -12520,7 +12515,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -12542,7 +12537,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -12564,7 +12559,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -12586,7 +12581,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -12608,7 +12603,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -12630,7 +12625,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -12652,7 +12647,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -12674,7 +12669,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -12696,7 +12691,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -12718,7 +12713,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -12740,7 +12735,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -12762,7 +12757,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -12784,7 +12779,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -12806,7 +12801,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -12828,7 +12823,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -12850,7 +12845,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -12872,7 +12867,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -12894,7 +12889,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17">
       <c r="B42" s="7">
         <v>149</v>
       </c>
@@ -12930,7 +12925,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -12952,7 +12947,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -12974,7 +12969,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -12996,7 +12991,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -13018,7 +13013,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -13040,7 +13035,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -13062,7 +13057,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -13084,7 +13079,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -13106,7 +13101,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -13128,7 +13123,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -13150,7 +13145,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -13172,7 +13167,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -13194,7 +13189,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -13216,7 +13211,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -13238,7 +13233,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:17">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -13260,7 +13255,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -13282,7 +13277,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:17">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -13304,7 +13299,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -13326,7 +13321,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -13348,7 +13343,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17">
       <c r="B62" s="7">
         <v>365</v>
       </c>
@@ -13386,7 +13381,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -13410,7 +13405,7 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -13434,7 +13429,7 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -13458,7 +13453,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -13482,7 +13477,7 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17">
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -13506,7 +13501,7 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -13530,7 +13525,7 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17">
       <c r="B69" s="7">
         <v>366</v>
       </c>
@@ -13568,7 +13563,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -13592,7 +13587,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -13616,7 +13611,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -13640,7 +13635,7 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -13664,7 +13659,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -13688,7 +13683,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -13712,7 +13707,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17">
       <c r="B76" s="7">
         <v>367</v>
       </c>
@@ -13750,7 +13745,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -13774,7 +13769,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -13798,7 +13793,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
@@ -13822,7 +13817,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="12"/>
@@ -13846,7 +13841,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:17">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="12"/>
@@ -13870,7 +13865,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:17">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
@@ -13894,7 +13889,7 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17">
       <c r="B83" s="7">
         <v>368</v>
       </c>
@@ -13932,7 +13927,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:17">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
@@ -13956,7 +13951,7 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
@@ -13980,7 +13975,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
@@ -14004,7 +13999,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:17">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
@@ -14028,7 +14023,7 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
@@ -14052,7 +14047,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:17">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
@@ -14076,7 +14071,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:17">
       <c r="B90" s="7">
         <v>30008</v>
       </c>
@@ -14110,7 +14105,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17">
       <c r="B91" s="7">
         <v>30009</v>
       </c>
@@ -14144,7 +14139,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17">
       <c r="B92" s="7">
         <v>30010</v>
       </c>
@@ -14178,7 +14173,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17">
       <c r="B93" s="7">
         <v>30011</v>
       </c>
@@ -14212,7 +14207,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:17" ht="54">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
         <v>352</v>
@@ -14244,7 +14239,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
         <v>352</v>
@@ -14276,7 +14271,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
         <v>352</v>
@@ -14310,7 +14305,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:17" ht="27">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
         <v>352</v>
@@ -14344,7 +14339,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:17" ht="27">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
         <v>352</v>
@@ -14378,7 +14373,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:17">
       <c r="B99" s="7">
         <v>1102</v>
       </c>
@@ -14418,7 +14413,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:17">
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="12"/>
@@ -14440,7 +14435,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:17">
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12"/>
@@ -14462,7 +14457,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:17">
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12"/>
@@ -14484,7 +14479,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:17">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12"/>
@@ -14506,7 +14501,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:17">
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12"/>
@@ -14528,7 +14523,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:17">
       <c r="B105" s="7">
         <v>1103</v>
       </c>
@@ -14568,7 +14563,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12"/>
@@ -14590,7 +14585,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:17">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12"/>
@@ -14612,7 +14607,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:17">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="12"/>
@@ -14634,7 +14629,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:17">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="12"/>
@@ -14656,7 +14651,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:17">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="12"/>
@@ -14678,7 +14673,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
     </row>
-    <row r="111" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:17" ht="27">
       <c r="B111" s="7">
         <v>20007</v>
       </c>
@@ -14714,7 +14709,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="112" spans="2:17" ht="27" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:17" ht="27">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12"/>
@@ -14744,7 +14739,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="113" spans="2:17" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:17" ht="40.5">
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -14774,7 +14769,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="114" spans="2:17" ht="54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:17" ht="54">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -14804,7 +14799,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="115" spans="2:17" ht="54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:17" ht="54">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -14834,7 +14829,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="116" spans="2:17" ht="54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:17" ht="54">
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -14872,7 +14867,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{EEDE610E-09B1-4317-BF5C-D3FA55561CCD}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{9E8DE80F-0F38-43FA-BD03-5AB93E3D1DC3}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14890,12 +14885,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -14916,7 +14911,7 @@
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -14970,7 +14965,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>154</v>
       </c>
@@ -15013,7 +15008,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -15042,7 +15037,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -15071,7 +15066,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -15100,7 +15095,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -15129,7 +15124,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -15158,7 +15153,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -15187,7 +15182,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -15216,7 +15211,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -15245,7 +15240,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -15274,7 +15269,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A12" s="34"/>
       <c r="B12" s="21">
         <v>155</v>
@@ -15318,7 +15313,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A13" s="34"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -15348,7 +15343,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A14" s="34"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -15378,7 +15373,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A15" s="34"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -15408,7 +15403,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A16" s="34"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -15438,7 +15433,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A17" s="34"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -15468,7 +15463,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A18" s="34"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -15498,7 +15493,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A19" s="34"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -15528,7 +15523,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A20" s="34"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -15558,7 +15553,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A21" s="34"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -15588,7 +15583,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="16.5">
       <c r="B22" s="7">
         <v>372</v>
       </c>
@@ -15633,7 +15628,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="16.5">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -15664,7 +15659,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="16.5">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -15695,7 +15690,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="16.5">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -15726,7 +15721,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="16.5">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -15757,7 +15752,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="16.5">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -15788,7 +15783,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -15819,7 +15814,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A29" s="34"/>
       <c r="B29" s="21">
         <v>373</v>
@@ -15865,7 +15860,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A30" s="34"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -15897,7 +15892,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A31" s="34"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -15929,7 +15924,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A32" s="34"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -15961,7 +15956,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A33" s="34"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -15993,7 +15988,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A34" s="34"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -16025,7 +16020,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A35" s="34"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -16057,7 +16052,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="16.5">
       <c r="B36" s="7">
         <v>30013</v>
       </c>
@@ -16096,7 +16091,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A37" s="34"/>
       <c r="B37" s="21">
         <v>20009</v>
@@ -16138,7 +16133,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A38" s="34"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -16168,7 +16163,7 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A39" s="34"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -16198,7 +16193,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A40" s="34"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -16228,7 +16223,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A41" s="34"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -16258,7 +16253,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A42" s="34"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -16288,7 +16283,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A43" s="34"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -16318,7 +16313,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A44" s="34"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -16348,7 +16343,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A45" s="34"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -16378,7 +16373,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="B46" s="7">
         <v>1106</v>
       </c>
@@ -16417,7 +16412,7 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -16442,7 +16437,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -16467,7 +16462,7 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="16.5">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -16492,7 +16487,7 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="16.5">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -16517,7 +16512,7 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="16.5">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="12"/>
@@ -16542,7 +16537,7 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="16.5">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -16567,7 +16562,7 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A53" s="34"/>
       <c r="B53" s="21">
         <v>1107</v>
@@ -16607,7 +16602,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A54" s="34"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -16633,7 +16628,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A55" s="34"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -16659,7 +16654,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A56" s="34"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -16685,7 +16680,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A57" s="34"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -16711,7 +16706,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5">
       <c r="A58" s="34"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -16746,8 +16741,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
     <xsd:import namespace="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
     <xsd:element name="properties">
@@ -16768,6 +16772,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16826,6 +16831,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e91ce72-769a-45b6-b2e9-1e3503954573" elementFormDefault="qualified">
@@ -16968,38 +16978,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1e91ce72-769a-45b6-b2e9-1e3503954573" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F54D97-86D7-414F-A2CA-4440D6773C86}"/>
 </file>
--- a/이벤트DATA_KR.xlsx
+++ b/이벤트DATA_KR.xlsx
@@ -1,41 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6DA3C09-EFDD-4E17-89B3-08CC6BAAB6B1}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:81_{AB671696-D832-4E10-BC32-0B2BF60F630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFFA749D-F48A-46BE-825D-4EFAB8210B92}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="1" r:id="rId1"/>
-    <sheet name="230629 업데이트" sheetId="7" r:id="rId2"/>
-    <sheet name="230525 업데이트" sheetId="5" r:id="rId3"/>
-    <sheet name="230427 업데이트" sheetId="2" r:id="rId4"/>
-    <sheet name="230330 업데이트" sheetId="3" r:id="rId5"/>
-    <sheet name="230223 업데이트" sheetId="4" r:id="rId6"/>
-    <sheet name="템플릿" sheetId="6" r:id="rId7"/>
+    <sheet name="230727 업데이트" sheetId="8" r:id="rId2"/>
+    <sheet name="230629 업데이트" sheetId="7" r:id="rId3"/>
+    <sheet name="230525 업데이트" sheetId="5" r:id="rId4"/>
+    <sheet name="230427 업데이트" sheetId="2" r:id="rId5"/>
+    <sheet name="230330 업데이트" sheetId="3" r:id="rId6"/>
+    <sheet name="230223 업데이트" sheetId="4" r:id="rId7"/>
+    <sheet name="템플릿" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230427 업데이트'!$B$1:$T$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230629 업데이트'!$B$1:$Q$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230427 업데이트'!$B$1:$T$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230629 업데이트'!$B$1:$Q$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230727 업데이트'!$B$1:$Q$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">템플릿!$B$1:$P$58</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="5" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="4" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230629 업데이트'!$B$1:$Q$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">템플릿!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="6" hidden="1">'230223 업데이트'!$B$1:$Q$116</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="5" hidden="1">'230330 업데이트'!$B$1:$O$56</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="4" hidden="1">'230427 업데이트'!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="3" hidden="1">'230525 업데이트'!$B$1:$P$76</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="2" hidden="1">'230629 업데이트'!$B$1:$Q$54</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="1" hidden="1">'230727 업데이트'!$B$1:$Q$72</definedName>
     <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="0" hidden="1">사용법!$H$1:$Y$46</definedName>
-    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="6" hidden="1">템플릿!$B$1:$P$58</definedName>
+    <definedName name="Z_449A71E9_8042_4C8D_AF61_6D2D9C1217BF_.wvu.FilterData" localSheetId="7" hidden="1">템플릿!$B$1:$P$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="443">
   <si>
     <t>최종수정일</t>
   </si>
@@ -1296,16 +1299,208 @@
 -&gt; 대체 아이템 - 딸기[이벤트][귀속] x10
 -&gt; 대체 아이템 - 오렌지[이벤트][귀속] x10
 -&gt; 대체 아이템 - 멜론[이벤트][귀속] x10</t>
+  </si>
+  <si>
+    <t>최상급 주문서 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>해바라기 매터리얼 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>영웅 포인트 충전석 상자[귀속]</t>
+  </si>
+  <si>
+    <t>3주년 전야제 출석 선물 상자Ⅰ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 전야제 출석 선물 상자Ⅱ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>레비의 행운 가득한 출석 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 전야제 기념 출석 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅의 흔적</t>
+  </si>
+  <si>
+    <t>영광의 3주년 선물 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 감사 선물 상자Ⅰ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[100%][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 감사 선물 상자Ⅱ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>영광의 3주년 출석 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 정찰 완료 보상 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>요일 던전 마물 5,000마리 처치</t>
+  </si>
+  <si>
+    <t>스페셜 던전 마물 20,000마리 처치</t>
+  </si>
+  <si>
+    <t>모든 마물 60,000마리 처치</t>
+  </si>
+  <si>
+    <t>시간의 모래 20개 사용</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 3,000개 사용</t>
+  </si>
+  <si>
+    <t>25,000,000골드 소모</t>
+  </si>
+  <si>
+    <t>던전 정찰 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 전야제 미션 선물 상자Ⅱ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>아무 장비나 강화 40회 성공</t>
+  </si>
+  <si>
+    <t>아이템 제작 40회 성공</t>
+  </si>
+  <si>
+    <t>3주년 전야제 미션 선물 상자Ⅰ[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 전야제 기념 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정당 1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한여름 밤의 야시장 드랍 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야시장 티켓[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>3주년 축하 기념품 상자[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>변신 획득 33회</t>
+  </si>
+  <si>
+    <t>로얄 코인</t>
+  </si>
+  <si>
+    <t>서번트 획득 33회</t>
+  </si>
+  <si>
+    <t>명예 코인</t>
+  </si>
+  <si>
+    <t>일일 미션 33회 달성</t>
+  </si>
+  <si>
+    <t>모든 마물 33,333마리 처치</t>
+  </si>
+  <si>
+    <t>33,333,333골드 소모</t>
+  </si>
+  <si>
+    <t>희귀~영웅 서번트 뽑기권[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>영광의 3주년 출석 이벤트 10회 완료</t>
+  </si>
+  <si>
+    <t>희귀~영웅 변신 뽑기권[이벤트][귀속]</t>
+  </si>
+  <si>
+    <t>영광의 3주년 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랍스타 구이[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>수박 주스[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>특별한 모둠 꼬치구이[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니[이벤트][귀속] 1개</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[20%][귀속] 1개</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[1시간][귀속] 1개</t>
+  </si>
+  <si>
+    <t>한여름 방의 야시장 제작 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야시장 티켓[이벤트][귀속] x200</t>
+  </si>
+  <si>
+    <t>야시장 티켓[이벤트][귀속] x10</t>
+  </si>
+  <si>
+    <t>야시장 티켓[이벤트][귀속] x20</t>
+  </si>
+  <si>
+    <t>야시장 티켓[이벤트][귀속] x70</t>
+  </si>
+  <si>
+    <t>야시장 티켓[이벤트][귀속] x300</t>
+  </si>
+  <si>
+    <t>계정당 25회</t>
+  </si>
+  <si>
+    <t>계정당 20회</t>
+  </si>
+  <si>
+    <t>계정당 6회</t>
+  </si>
+  <si>
+    <t>랍스타 구이 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 명중력(근접)</t>
+  </si>
+  <si>
+    <t>물리 명중력(원거리)</t>
+  </si>
+  <si>
+    <t>랍스타 구이[이벤트][귀속] 1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,8 +1589,24 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1446,6 +1657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1754,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,8 +1812,411 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1762,29 +2382,205 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="158">
     <cellStyle name="백분율 2" xfId="5" xr:uid="{98B67D86-B04C-4176-9AB3-B5846AA634BE}"/>
     <cellStyle name="백분율 2 2" xfId="8" xr:uid="{B631D362-9CE0-40FE-9A0C-75814C42CB07}"/>
+    <cellStyle name="백분율 2 2 2" xfId="43" xr:uid="{8A4BEF58-57DC-4B15-95EE-A764798FF04F}"/>
+    <cellStyle name="백분율 2 3" xfId="24" xr:uid="{529FEA4F-EE62-494F-A08D-E269809BE72B}"/>
+    <cellStyle name="백분율 2 4" xfId="28" xr:uid="{9D4D59CD-4B20-4407-AE5E-2F29E044F6CC}"/>
+    <cellStyle name="백분율 2 5" xfId="116" xr:uid="{1A0BAE72-BE5F-4A0F-A734-C929C9F1D79E}"/>
     <cellStyle name="백분율 3" xfId="3" xr:uid="{AECD300A-AA17-40A4-8D77-99AD8504D8E0}"/>
+    <cellStyle name="백분율 4" xfId="101" xr:uid="{BB95B8A6-7AED-4230-BC54-A38FB693ADE4}"/>
+    <cellStyle name="백분율 5" xfId="113" xr:uid="{30CDCAF2-0D7A-4269-BC2F-3B33E16C161C}"/>
+    <cellStyle name="백분율 5 2" xfId="124" xr:uid="{8A519324-5D35-4294-98BD-CF3EEFF4DC7A}"/>
+    <cellStyle name="백분율 6" xfId="146" xr:uid="{4B853793-C150-4884-BE3E-1751950D9DBF}"/>
+    <cellStyle name="백분율 7" xfId="149" xr:uid="{BDB303C5-A46E-4E42-8E14-7290A2A05424}"/>
+    <cellStyle name="백분율 8" xfId="153" xr:uid="{18353F71-068B-4913-9372-2EFBC9838926}"/>
+    <cellStyle name="백분율 9" xfId="156" xr:uid="{19D8C703-092C-45A6-9D98-02A8C046D4C5}"/>
     <cellStyle name="보통 2" xfId="11" xr:uid="{BEEDF76A-DAFC-4293-97CB-A7E8F3726B57}"/>
     <cellStyle name="쉼표 [0] 2" xfId="17" xr:uid="{8F427039-BF56-4FD3-A721-B0C0E31759FC}"/>
+    <cellStyle name="쉼표 [0] 2 2" xfId="45" xr:uid="{CADAC52A-8B54-4688-A549-F54608D4253B}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="92" xr:uid="{B9FA7E89-F0A1-44D4-9C19-B54FFD4BC850}"/>
+    <cellStyle name="쉼표 [0] 4" xfId="107" xr:uid="{F6241006-A08A-4DEA-97AE-AB60256524F3}"/>
+    <cellStyle name="쉼표 [0] 5" xfId="115" xr:uid="{B4C147AF-3F5E-44E6-B705-153666DFADAB}"/>
+    <cellStyle name="쉼표 [0] 5 2" xfId="126" xr:uid="{DCB9A491-D74E-46E1-9988-30445DF9C8FD}"/>
+    <cellStyle name="쉼표 [0] 6" xfId="157" xr:uid="{23169CA7-5649-4C5B-BEAA-777ECDD2E7A4}"/>
+    <cellStyle name="쉼표 [0] 7" xfId="71" xr:uid="{5CB77C79-A2BB-4BD7-ACDF-F65DD3576A6F}"/>
+    <cellStyle name="통화 [0] 2" xfId="114" xr:uid="{56CEB00B-3BE7-444E-9C8C-7B71981B5500}"/>
+    <cellStyle name="통화 [0] 2 2" xfId="125" xr:uid="{ADD063D2-1FAA-4F94-81CD-B5DF97056F60}"/>
+    <cellStyle name="통화 [0] 3" xfId="147" xr:uid="{134A6990-C199-42D3-82E6-346BEA665C8B}"/>
+    <cellStyle name="통화 [0] 4" xfId="150" xr:uid="{64C26C92-9741-4F4A-83F0-CD2C01CB7A1D}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 10" xfId="30" xr:uid="{31FCFCDA-75A6-49C8-A076-CB3A243E72FF}"/>
+    <cellStyle name="표준 11" xfId="32" xr:uid="{5637D8B8-5486-4254-9AC9-26AF382C516E}"/>
+    <cellStyle name="표준 12" xfId="34" xr:uid="{E1A8143E-86FC-4BF2-A1C3-D2B50F13C934}"/>
+    <cellStyle name="표준 12 2" xfId="38" xr:uid="{F788C955-EB19-4E77-834F-2158797A2F6E}"/>
+    <cellStyle name="표준 12 3" xfId="40" xr:uid="{60E7C1E7-FAB9-41B3-B64C-4BAE9DBBC519}"/>
+    <cellStyle name="표준 13" xfId="35" xr:uid="{286A8426-A004-40DB-85AA-78424E20CB11}"/>
+    <cellStyle name="표준 14" xfId="39" xr:uid="{298C706B-616B-4A2C-9305-BF0A5685854C}"/>
+    <cellStyle name="표준 15" xfId="41" xr:uid="{8E580632-7A01-4F75-891F-683631BDF435}"/>
+    <cellStyle name="표준 16" xfId="48" xr:uid="{95FE06A8-56AF-4E1C-B670-D5C50325E665}"/>
+    <cellStyle name="표준 17" xfId="57" xr:uid="{A86E79F0-08A6-4616-A84D-3F83FCA628D3}"/>
+    <cellStyle name="표준 18" xfId="59" xr:uid="{6EA39998-CCF7-4BAB-8AA2-AA6B9818B01B}"/>
+    <cellStyle name="표준 18 2" xfId="64" xr:uid="{59C116BC-BB54-4BEA-94B0-25F47D1D2E6A}"/>
+    <cellStyle name="표준 19" xfId="61" xr:uid="{D048CA45-BEAA-4342-A23A-F19993DA96E3}"/>
     <cellStyle name="표준 2" xfId="4" xr:uid="{CC02A70B-D647-4B7B-81D3-ABC5B459A09A}"/>
+    <cellStyle name="표준 2 10" xfId="27" xr:uid="{EE380745-C994-4FAB-8E60-6E11A686234A}"/>
+    <cellStyle name="표준 2 11" xfId="37" xr:uid="{680A0E3B-EDC8-4A16-8E96-80D5BF4655BB}"/>
+    <cellStyle name="표준 2 12" xfId="49" xr:uid="{34C2EEB4-2C0C-485B-AEBC-BF728C87E7DF}"/>
+    <cellStyle name="표준 2 13" xfId="52" xr:uid="{78A6B08C-ED2E-4ECD-B078-7764DB5C2816}"/>
+    <cellStyle name="표준 2 13 2" xfId="72" xr:uid="{303BDC43-56A7-41DC-946B-21755F9D81B0}"/>
+    <cellStyle name="표준 2 14" xfId="55" xr:uid="{54049874-9FEF-4161-9B99-C8625BB9903D}"/>
+    <cellStyle name="표준 2 15" xfId="58" xr:uid="{5C0AEC5F-24DD-42BA-A957-3F6609EF99F9}"/>
+    <cellStyle name="표준 2 16" xfId="60" xr:uid="{67724461-5165-4901-8585-8BB01FED1E0F}"/>
+    <cellStyle name="표준 2 17" xfId="63" xr:uid="{C882A689-D208-4747-B46A-E89560056249}"/>
+    <cellStyle name="표준 2 18" xfId="65" xr:uid="{7ED68398-6162-4DEA-91FE-8C9AE3459F83}"/>
+    <cellStyle name="표준 2 19" xfId="67" xr:uid="{F6CF2FA5-46E9-4DC9-A798-BABEE37065F1}"/>
     <cellStyle name="표준 2 2" xfId="6" xr:uid="{D4CE2D77-6586-428A-B9F8-34E0AC433D12}"/>
+    <cellStyle name="표준 2 2 2" xfId="42" xr:uid="{7B07E921-A8AA-4FF4-B47C-96236E76B623}"/>
+    <cellStyle name="표준 2 2 2 2" xfId="46" xr:uid="{FB2A7D87-8BDC-4607-9D02-1809AD58A017}"/>
+    <cellStyle name="표준 2 2 2 2 2" xfId="47" xr:uid="{3D63D557-58A5-4363-9C0B-0BD4B7BD1ED6}"/>
+    <cellStyle name="표준 2 2 2 2 3" xfId="51" xr:uid="{9C3CA6AD-FF4E-452B-B6E0-F795D05F04A0}"/>
+    <cellStyle name="표준 2 2 2 2 4" xfId="54" xr:uid="{CD4C310D-F011-483B-9500-E6F578FFD902}"/>
+    <cellStyle name="표준 2 2 2 2 5" xfId="134" xr:uid="{74E6B722-B01D-4B3A-B39A-2B771A49C75B}"/>
+    <cellStyle name="표준 2 2 2 3" xfId="103" xr:uid="{230025F0-0C66-49D6-AFB1-6B79F770796F}"/>
+    <cellStyle name="표준 2 2 2 4" xfId="111" xr:uid="{2C8B8BBB-2977-4E34-847D-1D189ADB8057}"/>
+    <cellStyle name="표준 2 2 2 4 2" xfId="123" xr:uid="{6B239A71-35C5-4847-9CCC-93E33285A386}"/>
+    <cellStyle name="표준 2 2 2 5" xfId="130" xr:uid="{2C010FB4-9C4F-4334-AD78-D27C79B525F9}"/>
+    <cellStyle name="표준 2 2 2 6" xfId="145" xr:uid="{157D0B54-7E8E-4BDD-8DC4-218C40D459FA}"/>
+    <cellStyle name="표준 2 2 3" xfId="56" xr:uid="{14297A82-795A-4ED1-BEE2-1425954B08E8}"/>
+    <cellStyle name="표준 2 2 3 2" xfId="118" xr:uid="{4C59509C-C8AC-4165-9864-F531DC13FA1F}"/>
+    <cellStyle name="표준 2 2 3 3" xfId="133" xr:uid="{46D3E5D8-89CA-4B92-AFDE-46D053B0CEB2}"/>
+    <cellStyle name="표준 2 2 4" xfId="66" xr:uid="{B9DBA5C7-CB93-45C2-A341-01F905125795}"/>
+    <cellStyle name="표준 2 2 4 2" xfId="144" xr:uid="{0D34A2AA-6640-486E-A10A-16A06F275211}"/>
+    <cellStyle name="표준 2 2 5" xfId="68" xr:uid="{4DE25D4A-616C-478D-8659-B99A8F61855B}"/>
+    <cellStyle name="표준 2 2 6" xfId="80" xr:uid="{2A7B3008-AA1C-4342-8D47-BDEBC7CECC4F}"/>
+    <cellStyle name="표준 2 2 7" xfId="120" xr:uid="{BA937ADE-B800-4C91-B6CE-8D91E42AC259}"/>
+    <cellStyle name="표준 2 2 8" xfId="129" xr:uid="{110BF8A5-A653-4FCB-BDD1-267EE3DF1731}"/>
+    <cellStyle name="표준 2 2 9" xfId="139" xr:uid="{449DA22C-56B6-462D-9151-AB8048366B65}"/>
+    <cellStyle name="표준 2 20" xfId="75" xr:uid="{9E0B494A-6630-4BC4-91FF-C6FFB867A272}"/>
+    <cellStyle name="표준 2 21" xfId="78" xr:uid="{6AC04D10-059B-49CE-94DB-99844BD7C35A}"/>
+    <cellStyle name="표준 2 22" xfId="94" xr:uid="{39F0D69A-0762-420D-A12A-E6453DA3620D}"/>
+    <cellStyle name="표준 2 23" xfId="97" xr:uid="{110E2B7D-D39F-4D47-8A6A-6C2C5DB87614}"/>
+    <cellStyle name="표준 2 24" xfId="102" xr:uid="{BFE0EA0D-2D68-45AC-9C43-F9E1B68C9B7C}"/>
+    <cellStyle name="표준 2 25" xfId="110" xr:uid="{FF036D0D-07BD-40C5-BCAD-343932AC2BD4}"/>
+    <cellStyle name="표준 2 25 2" xfId="122" xr:uid="{14E8E59C-8A26-441B-A75B-F13AB8B20BE5}"/>
+    <cellStyle name="표준 2 26" xfId="128" xr:uid="{DD1A01BE-B00F-4C7E-BD2D-527F5E15E2D4}"/>
+    <cellStyle name="표준 2 27" xfId="151" xr:uid="{6AEFBFBC-9F20-4F99-B08F-E63CEEC91254}"/>
+    <cellStyle name="표준 2 28" xfId="155" xr:uid="{9B6C9AC4-3CDA-46E4-A902-B78699ABE18C}"/>
     <cellStyle name="표준 2 3" xfId="7" xr:uid="{53868E92-CBCB-4CAC-971D-7B859A0B5011}"/>
+    <cellStyle name="표준 2 3 2" xfId="31" xr:uid="{EE49FAD7-8D98-4739-907C-823D8D81F9CF}"/>
+    <cellStyle name="표준 2 3 2 2" xfId="135" xr:uid="{92070FB7-BAFA-4DF6-BFC0-7E89BACF1699}"/>
+    <cellStyle name="표준 2 3 3" xfId="33" xr:uid="{2F45C79D-0600-41A4-886E-5E529D5682A3}"/>
+    <cellStyle name="표준 2 3 4" xfId="76" xr:uid="{75E32400-2735-4FED-A917-4C5722F4A461}"/>
+    <cellStyle name="표준 2 3 5" xfId="86" xr:uid="{B1EA0784-46A3-4D77-AC36-B26C20B7BA4D}"/>
+    <cellStyle name="표준 2 3 6" xfId="105" xr:uid="{15CD2B59-340F-4DC2-AD02-47B2C4B875C5}"/>
+    <cellStyle name="표준 2 3 7" xfId="131" xr:uid="{4B124BB6-FC2E-4062-94DB-8EF110056310}"/>
     <cellStyle name="표준 2 4" xfId="12" xr:uid="{7F92E22D-CA2D-4AF8-975F-7154BD665CE8}"/>
+    <cellStyle name="표준 2 4 2" xfId="88" xr:uid="{BF9CAA8E-990D-4755-81F0-44E6A18F5350}"/>
+    <cellStyle name="표준 2 4 3" xfId="132" xr:uid="{916ADB14-1E6E-46F2-A2CB-2D94A064A0F1}"/>
     <cellStyle name="표준 2 5" xfId="16" xr:uid="{C9E4CF59-0077-47FB-A01C-AD82D425A761}"/>
+    <cellStyle name="표준 2 5 2" xfId="90" xr:uid="{B9CA85B4-7986-432C-9D54-9161922F46FB}"/>
     <cellStyle name="표준 2 6" xfId="13" xr:uid="{6D64B4E0-AC11-4BCD-8427-97279B956418}"/>
+    <cellStyle name="표준 2 6 2" xfId="29" xr:uid="{0B7D8729-BB0C-48FB-93E6-3201E1B23916}"/>
+    <cellStyle name="표준 2 6 2 2" xfId="53" xr:uid="{B7E11FC8-0414-4C57-83AE-DF0C2CC8FC1D}"/>
+    <cellStyle name="표준 2 6 2 2 2" xfId="73" xr:uid="{1D374578-1015-4971-AD1C-FD1B54C9293A}"/>
+    <cellStyle name="표준 2 6 2 3" xfId="93" xr:uid="{F9F8F8B7-3A5A-4E79-81EA-BE2BAE9C1E95}"/>
+    <cellStyle name="표준 2 6 3" xfId="91" xr:uid="{F3FCED43-AD83-4A57-A958-31C097E7A722}"/>
     <cellStyle name="표준 2 7" xfId="18" xr:uid="{3633ED46-EEB3-46E0-96E2-03EBDCFE5992}"/>
     <cellStyle name="표준 2 8" xfId="20" xr:uid="{87AA7E21-9AB4-4072-9E27-ECD10C903AA6}"/>
+    <cellStyle name="표준 2 9" xfId="23" xr:uid="{F02D9647-1BF9-4253-9211-3DA1FB88D963}"/>
+    <cellStyle name="표준 20" xfId="62" xr:uid="{5B1E9600-3068-410C-8968-416679019DD6}"/>
+    <cellStyle name="표준 21" xfId="69" xr:uid="{5A839CFF-B74B-49C6-AA45-D7F954E5A74A}"/>
+    <cellStyle name="표준 22" xfId="70" xr:uid="{E9A09D43-8E13-4928-8B33-16854876E236}"/>
+    <cellStyle name="표준 23" xfId="74" xr:uid="{E6B3FA34-72FD-496A-9982-F1F5107D52AE}"/>
+    <cellStyle name="표준 24" xfId="77" xr:uid="{BECD5F14-F289-4604-9333-7C84E9D26B3B}"/>
+    <cellStyle name="표준 25" xfId="95" xr:uid="{87BA4E3C-C5C2-4414-B1AD-33245D8A8A88}"/>
+    <cellStyle name="표준 26" xfId="96" xr:uid="{7F40BC35-D318-4F67-AF98-EB00E5E858CA}"/>
+    <cellStyle name="표준 27" xfId="98" xr:uid="{06D7CE6B-735B-451C-ACEC-631D67E369BC}"/>
+    <cellStyle name="표준 28" xfId="99" xr:uid="{5550D70C-5826-4B2E-846F-B05FC9ACD4CB}"/>
+    <cellStyle name="표준 29" xfId="100" xr:uid="{5573ADD9-9431-404C-9EE6-4E5B24920C52}"/>
     <cellStyle name="표준 3" xfId="9" xr:uid="{C42FDE84-FDD2-41AF-A27C-DA8814ADDB23}"/>
+    <cellStyle name="표준 3 2" xfId="26" xr:uid="{7C5CCC19-95EC-46E7-A80F-1E58B173927D}"/>
+    <cellStyle name="표준 3 2 2" xfId="81" xr:uid="{654411A1-0411-42E4-9AE3-65529A82E2AB}"/>
+    <cellStyle name="표준 3 3" xfId="44" xr:uid="{E073C303-17A1-4DF5-8E1C-42367DCCC6FA}"/>
+    <cellStyle name="표준 3 4" xfId="50" xr:uid="{C40FA770-FA63-4755-99B0-E1C6864E0822}"/>
+    <cellStyle name="표준 3 5" xfId="79" xr:uid="{5149F172-FD08-4015-A431-86598F45B851}"/>
+    <cellStyle name="표준 3 6" xfId="104" xr:uid="{A0FD863C-0FF3-4942-B929-6EC724D0E3A1}"/>
+    <cellStyle name="표준 3 7" xfId="127" xr:uid="{6D407269-208C-4040-B398-1422DAF74276}"/>
+    <cellStyle name="표준 3 8" xfId="142" xr:uid="{0588359A-1B0F-40A2-91D1-4ED8964D0579}"/>
+    <cellStyle name="표준 3 9" xfId="152" xr:uid="{CB31BBDD-E8C7-426D-9613-90BE5E7B225B}"/>
+    <cellStyle name="표준 30" xfId="108" xr:uid="{2BA12A3B-33F7-4168-92E1-00CE260239CB}"/>
+    <cellStyle name="표준 31" xfId="109" xr:uid="{57C2483B-3359-4C95-B68B-94ACB8369A7A}"/>
+    <cellStyle name="표준 32" xfId="117" xr:uid="{474DAF24-562B-4B09-8DF4-4294A398434B}"/>
+    <cellStyle name="표준 33" xfId="119" xr:uid="{E4A50432-AFBD-48ED-87ED-53B14D361956}"/>
+    <cellStyle name="표준 34" xfId="136" xr:uid="{55E07DC7-3BCC-407B-A26B-6EE25DF765BC}"/>
+    <cellStyle name="표준 35" xfId="137" xr:uid="{F15CAAA4-8FCF-4F51-A4A2-06CA16F9A13C}"/>
+    <cellStyle name="표준 36" xfId="138" xr:uid="{B6E645A4-1DC0-4744-8A63-C41128F342D8}"/>
+    <cellStyle name="표준 37" xfId="140" xr:uid="{87F0233D-08EB-4D80-9F46-5E3D0A6C52B3}"/>
+    <cellStyle name="표준 38" xfId="141" xr:uid="{E3AA4AD7-61CF-42E9-8177-4A5302DE5321}"/>
+    <cellStyle name="표준 39" xfId="148" xr:uid="{3711D00B-2FE3-4765-A213-807047DCD9FE}"/>
     <cellStyle name="표준 4" xfId="10" xr:uid="{A2E836DA-C521-4A74-80B5-98B628A4D65F}"/>
+    <cellStyle name="표준 4 2" xfId="82" xr:uid="{F4881EFF-5FED-49A2-8EB5-F4727A65B0CE}"/>
+    <cellStyle name="표준 4 3" xfId="106" xr:uid="{82495AB9-9F2A-45B3-A9B8-9D645CEA2029}"/>
+    <cellStyle name="표준 4 4" xfId="112" xr:uid="{C216B99E-FDC3-4BCF-A0EE-1C1564FC4673}"/>
+    <cellStyle name="표준 40" xfId="154" xr:uid="{1C3C624D-509F-49D2-83E5-045291A1722F}"/>
     <cellStyle name="표준 5" xfId="14" xr:uid="{84720495-DE02-48B3-ADF0-40B7AFBF85AC}"/>
+    <cellStyle name="표준 5 2" xfId="83" xr:uid="{163F8395-3A5C-42E1-92C3-BACB97629A46}"/>
+    <cellStyle name="표준 5 3" xfId="143" xr:uid="{18777C80-A69F-4CDA-B377-EFAF6231A077}"/>
     <cellStyle name="표준 6" xfId="15" xr:uid="{E87A5EF5-CF43-432C-9051-37C2207C5D08}"/>
+    <cellStyle name="표준 6 2" xfId="84" xr:uid="{0A0BF2E2-B37B-48A4-BB18-E16D97D46658}"/>
     <cellStyle name="표준 7" xfId="19" xr:uid="{A8FF5516-A8F4-49E5-A6F3-AAD2F78B94D4}"/>
+    <cellStyle name="표준 7 2" xfId="85" xr:uid="{46FE3779-406A-4575-B25F-31698970C0DE}"/>
     <cellStyle name="표준 8" xfId="1" xr:uid="{E526E70E-76A5-4476-86A0-3D29844194CF}"/>
+    <cellStyle name="표준 8 2" xfId="87" xr:uid="{90B86584-4D1D-4158-A3D8-C108BFD53CF5}"/>
+    <cellStyle name="표준 8 3" xfId="22" xr:uid="{DCFE07DB-3558-4656-AD90-E082989A5043}"/>
+    <cellStyle name="표준 9" xfId="25" xr:uid="{6D7E7CB3-C375-44B8-AA72-6FFE37DED25F}"/>
+    <cellStyle name="표준 9 2" xfId="89" xr:uid="{6EDDD29A-1CA1-4DD7-891A-B9A25A00C500}"/>
+    <cellStyle name="하이퍼링크" xfId="21" builtinId="8"/>
     <cellStyle name="하이퍼링크 2" xfId="2" xr:uid="{F7E26649-BBE5-4F1A-ADAA-7382846ECA4D}"/>
+    <cellStyle name="하이퍼링크 2 2" xfId="121" xr:uid="{2F929613-8497-4095-A9C0-C2AF189DB890}"/>
+    <cellStyle name="하이퍼링크 2 3" xfId="36" xr:uid="{BFC03C82-22AF-4850-B6EA-DA11C1E42E2C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2070,7 +2866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2373,12 +3169,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="8"/>
     <col min="8" max="8" width="11.125" style="8" customWidth="1"/>
@@ -2398,7 +3194,7 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" ht="16.5">
+    <row r="1" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +3245,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="7:25" ht="16.5" customHeight="1">
+    <row r="2" spans="7:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="5">
         <v>150</v>
       </c>
@@ -2489,7 +3285,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="7:25" ht="16.5">
+    <row r="3" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -2515,7 +3311,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="7:25" ht="16.5">
+    <row r="4" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2541,7 +3337,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="7:25" ht="16.5">
+    <row r="5" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2567,7 +3363,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="7:25" ht="16.5">
+    <row r="6" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2593,7 +3389,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="7:25" ht="16.5">
+    <row r="7" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2619,7 +3415,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="7:25" ht="16.5">
+    <row r="8" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2645,7 +3441,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="7:25" ht="16.5">
+    <row r="9" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2671,7 +3467,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="7:25" ht="16.5">
+    <row r="10" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2697,7 +3493,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="7:25" ht="16.5">
+    <row r="11" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2723,7 +3519,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="7:25" ht="16.5">
+    <row r="12" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H12" s="7">
         <v>370</v>
       </c>
@@ -2765,7 +3561,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="7:25" ht="16.5">
+    <row r="13" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
@@ -2793,7 +3589,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="7:25" ht="16.5">
+    <row r="14" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
@@ -2821,7 +3617,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="7:25" ht="16.5">
+    <row r="15" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
@@ -2849,7 +3645,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="7:25" ht="16.5">
+    <row r="16" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
@@ -2877,7 +3673,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="8:25" ht="16.5">
+    <row r="17" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
@@ -2905,7 +3701,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="8:25" ht="16.5">
+    <row r="18" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
@@ -2933,7 +3729,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="19" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H19" s="21">
         <v>371</v>
       </c>
@@ -2975,7 +3771,7 @@
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
     </row>
-    <row r="20" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="20" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
@@ -3003,7 +3799,7 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
     </row>
-    <row r="21" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="21" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -3031,7 +3827,7 @@
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
     </row>
-    <row r="22" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="22" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -3059,7 +3855,7 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
     </row>
-    <row r="23" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="23" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -3087,7 +3883,7 @@
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
     </row>
-    <row r="24" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="24" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -3115,7 +3911,7 @@
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
     </row>
-    <row r="25" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="25" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -3143,7 +3939,7 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
     </row>
-    <row r="26" spans="8:25" ht="16.5">
+    <row r="26" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H26" s="7">
         <v>30012</v>
       </c>
@@ -3181,7 +3977,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="27" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H27" s="21">
         <v>20008</v>
       </c>
@@ -3221,7 +4017,7 @@
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
     </row>
-    <row r="28" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="28" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="26"/>
@@ -3249,7 +4045,7 @@
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
     </row>
-    <row r="29" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="29" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -3277,7 +4073,7 @@
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
     </row>
-    <row r="30" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="30" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3305,7 +4101,7 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
     </row>
-    <row r="31" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="31" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -3333,7 +4129,7 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
     </row>
-    <row r="32" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="32" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -3361,7 +4157,7 @@
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
     </row>
-    <row r="33" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="33" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="26"/>
@@ -3389,7 +4185,7 @@
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
     </row>
-    <row r="34" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="34" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="26"/>
@@ -3417,7 +4213,7 @@
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
     </row>
-    <row r="35" spans="8:25" ht="16.5">
+    <row r="35" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H35" s="7">
         <v>1104</v>
       </c>
@@ -3455,7 +4251,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="16.5">
+    <row r="36" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="12"/>
@@ -3479,7 +4275,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="8:25" ht="16.5">
+    <row r="37" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="12"/>
@@ -3503,7 +4299,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="16.5">
+    <row r="38" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="12"/>
@@ -3527,7 +4323,7 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="16.5">
+    <row r="39" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="12"/>
@@ -3551,7 +4347,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="16.5">
+    <row r="40" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="12"/>
@@ -3575,7 +4371,7 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="41" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H41" s="21">
         <v>1105</v>
       </c>
@@ -3613,7 +4409,7 @@
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
     </row>
-    <row r="42" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="42" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="26"/>
@@ -3637,7 +4433,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="43" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="26"/>
@@ -3661,7 +4457,7 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="44" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="26"/>
@@ -3685,7 +4481,7 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
     </row>
-    <row r="45" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="45" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3709,7 +4505,7 @@
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
     </row>
-    <row r="46" spans="8:25" s="20" customFormat="1" ht="16.5">
+    <row r="46" spans="8:25" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3741,7 +4537,7 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="H1:Y46" xr:uid="{64A6EC38-9CD6-412F-9665-1C0823EBE960}"/>
+      <autoFilter ref="H1:Y46" xr:uid="{8D3248EA-CE6B-4350-81B3-7F388B4AB1D5}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3752,17 +4548,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A5C2B5-1724-489A-BCCF-F36239FA8431}">
-  <dimension ref="A1:U60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98FCADE-7B49-4255-8B45-677C49F847D0}">
+  <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -3784,7 +4580,7 @@
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3841,15 +4637,15 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" customHeight="1">
+    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>31</v>
@@ -3858,28 +4654,28 @@
         <v>18</v>
       </c>
       <c r="G2" s="9">
-        <v>45106</v>
+        <v>45134</v>
       </c>
       <c r="H2" s="9">
-        <v>45120</v>
+        <v>45148</v>
       </c>
       <c r="I2" s="5">
-        <v>90001855</v>
+        <v>90001875</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>92</v>
       </c>
       <c r="K2" s="5">
-        <v>501004</v>
+        <v>910182</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M2" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N2" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -3889,7 +4685,2667 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5">
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5">
+        <v>90001876</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="5">
+        <v>910317</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="5">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5">
+        <v>90001877</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="5">
+        <v>910578</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5">
+        <v>90001878</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="5">
+        <v>910113</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5">
+        <v>90001879</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="5">
+        <v>501015</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5">
+        <v>90001880</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>910319</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M7" s="5">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5">
+        <v>90001881</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="5">
+        <v>280</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5">
+        <v>90001882</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="5">
+        <v>910478</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5">
+        <v>90001883</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="5">
+        <v>910114</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>6</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>90001884</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7">
+        <v>910559</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44">
+        <v>160</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="46">
+        <v>45148</v>
+      </c>
+      <c r="H12" s="46">
+        <v>45162</v>
+      </c>
+      <c r="I12" s="44">
+        <v>90001885</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="44">
+        <v>123</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="44">
+        <v>30</v>
+      </c>
+      <c r="N12" s="44">
+        <v>6</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+    </row>
+    <row r="13" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44">
+        <v>90001886</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="44">
+        <v>1110170</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M13" s="44">
+        <v>20</v>
+      </c>
+      <c r="N13" s="44">
+        <v>7</v>
+      </c>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+    </row>
+    <row r="14" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44">
+        <v>90001887</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="44">
+        <v>703</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M14" s="44">
+        <v>30</v>
+      </c>
+      <c r="N14" s="44">
+        <v>6</v>
+      </c>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+    </row>
+    <row r="15" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44">
+        <v>90001888</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="44">
+        <v>910347</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="44">
+        <v>30</v>
+      </c>
+      <c r="N15" s="44">
+        <v>6</v>
+      </c>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+    </row>
+    <row r="16" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44">
+        <v>90001889</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="44">
+        <v>910561</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M16" s="44">
+        <v>1</v>
+      </c>
+      <c r="N16" s="44">
+        <v>6</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+    </row>
+    <row r="17" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44">
+        <v>90001890</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="44">
+        <v>910323</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="44">
+        <v>15</v>
+      </c>
+      <c r="N17" s="44">
+        <v>6</v>
+      </c>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+    </row>
+    <row r="18" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44">
+        <v>90001891</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="44">
+        <v>600017</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="44">
+        <v>13</v>
+      </c>
+      <c r="N18" s="44">
+        <v>6</v>
+      </c>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+    </row>
+    <row r="19" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44">
+        <v>90001892</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="44">
+        <v>2910</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="44">
+        <v>35</v>
+      </c>
+      <c r="N19" s="44">
+        <v>6</v>
+      </c>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+    </row>
+    <row r="20" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44">
+        <v>90001893</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="44">
+        <v>910114</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" s="44">
+        <v>1</v>
+      </c>
+      <c r="N20" s="44">
+        <v>6</v>
+      </c>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+    </row>
+    <row r="21" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44">
+        <v>90001894</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="44">
+        <v>910562</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="M21" s="44">
+        <v>1</v>
+      </c>
+      <c r="N21" s="44">
+        <v>6</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>161</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45162</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45176</v>
+      </c>
+      <c r="I22" s="5">
+        <v>90001895</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1110350</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7">
+        <v>90001896</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="7">
+        <v>910564</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7">
+        <v>90001897</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="7">
+        <v>910578</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7">
+        <v>90001898</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1110350</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7">
+        <v>90001899</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="7">
+        <v>910565</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7">
+        <v>90001900</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1110350</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7">
+        <v>90001901</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="7">
+        <v>125</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M28" s="7">
+        <v>5</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="7">
+        <v>90001902</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7">
+        <v>600017</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>15</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="7">
+        <v>90001903</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2910</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" s="7">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="7">
+        <v>90001904</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="7">
+        <v>910566</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+    </row>
+    <row r="32" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44">
+        <v>379</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="46">
+        <v>45134</v>
+      </c>
+      <c r="H32" s="46">
+        <v>45148</v>
+      </c>
+      <c r="I32" s="44">
+        <v>90003456</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="44">
+        <v>910569</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M32" s="44">
+        <v>1</v>
+      </c>
+      <c r="N32" s="44">
+        <v>6</v>
+      </c>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+    </row>
+    <row r="33" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="44">
+        <v>90003457</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="K33" s="44">
+        <v>910477</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="44">
+        <v>20</v>
+      </c>
+      <c r="N33" s="44">
+        <v>6</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+    </row>
+    <row r="34" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44">
+        <v>90003458</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K34" s="44">
+        <v>123</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="44">
+        <v>30</v>
+      </c>
+      <c r="N34" s="44">
+        <v>6</v>
+      </c>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+    </row>
+    <row r="35" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44">
+        <v>90003459</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="K35" s="44">
+        <v>600017</v>
+      </c>
+      <c r="L35" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="44">
+        <v>10</v>
+      </c>
+      <c r="N35" s="44">
+        <v>6</v>
+      </c>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+    </row>
+    <row r="36" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44">
+        <v>90003460</v>
+      </c>
+      <c r="J36" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="K36" s="44">
+        <v>910113</v>
+      </c>
+      <c r="L36" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="44">
+        <v>3</v>
+      </c>
+      <c r="N36" s="44">
+        <v>6</v>
+      </c>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+    </row>
+    <row r="37" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44">
+        <v>90003461</v>
+      </c>
+      <c r="J37" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="K37" s="44">
+        <v>630301</v>
+      </c>
+      <c r="L37" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" s="44">
+        <v>3</v>
+      </c>
+      <c r="N37" s="44">
+        <v>6</v>
+      </c>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+    </row>
+    <row r="38" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44">
+        <v>90003462</v>
+      </c>
+      <c r="J38" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="K38" s="44">
+        <v>660301</v>
+      </c>
+      <c r="L38" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="M38" s="44">
+        <v>3</v>
+      </c>
+      <c r="N38" s="44">
+        <v>6</v>
+      </c>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+    </row>
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>380</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="9">
+        <v>45148</v>
+      </c>
+      <c r="H39" s="9">
+        <v>45162</v>
+      </c>
+      <c r="I39" s="7">
+        <v>90003463</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="31">
+        <v>910573</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="M39" s="31">
+        <v>1</v>
+      </c>
+      <c r="N39" s="31">
+        <v>7</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+    </row>
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="7">
+        <v>90003464</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="31">
+        <v>910578</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="M40" s="31">
+        <v>3</v>
+      </c>
+      <c r="N40" s="31">
+        <v>6</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="7">
+        <v>90003465</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="K41" s="31">
+        <v>630006</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" s="31">
+        <v>5</v>
+      </c>
+      <c r="N41" s="31">
+        <v>6</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="7">
+        <v>90003466</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="K42" s="31">
+        <v>660006</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M42" s="31">
+        <v>5</v>
+      </c>
+      <c r="N42" s="31">
+        <v>6</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+    </row>
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7">
+        <v>90003467</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="31">
+        <v>600017</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" s="31">
+        <v>10</v>
+      </c>
+      <c r="N43" s="31">
+        <v>6</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+    </row>
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7">
+        <v>90003468</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="31">
+        <v>510202</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="31">
+        <v>3</v>
+      </c>
+      <c r="N44" s="31">
+        <v>6</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7">
+        <v>90003469</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="31">
+        <v>910570</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" s="31">
+        <v>1</v>
+      </c>
+      <c r="N45" s="31">
+        <v>6</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+    </row>
+    <row r="46" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="61"/>
+      <c r="B46" s="59">
+        <v>381</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="56">
+        <v>45162</v>
+      </c>
+      <c r="H46" s="56">
+        <v>45176</v>
+      </c>
+      <c r="I46" s="59">
+        <v>90003470</v>
+      </c>
+      <c r="J46" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="55">
+        <v>910574</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" s="55">
+        <v>1</v>
+      </c>
+      <c r="N46" s="55">
+        <v>7</v>
+      </c>
+      <c r="O46" s="59"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+    </row>
+    <row r="47" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="61"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="59">
+        <v>90003471</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="K47" s="55">
+        <v>952</v>
+      </c>
+      <c r="L47" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" s="63">
+        <v>300000</v>
+      </c>
+      <c r="N47" s="55">
+        <v>6</v>
+      </c>
+      <c r="O47" s="59"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+    </row>
+    <row r="48" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="59">
+        <v>90003472</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" s="55">
+        <v>951</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" s="63">
+        <v>300000</v>
+      </c>
+      <c r="N48" s="55">
+        <v>6</v>
+      </c>
+      <c r="O48" s="59"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+    </row>
+    <row r="49" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="61"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="59">
+        <v>90003473</v>
+      </c>
+      <c r="J49" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" s="55">
+        <v>1110350</v>
+      </c>
+      <c r="L49" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="M49" s="55">
+        <v>3</v>
+      </c>
+      <c r="N49" s="55">
+        <v>6</v>
+      </c>
+      <c r="O49" s="59"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+    </row>
+    <row r="50" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="59">
+        <v>90003474</v>
+      </c>
+      <c r="J50" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" s="55">
+        <v>1110350</v>
+      </c>
+      <c r="L50" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="M50" s="55">
+        <v>3</v>
+      </c>
+      <c r="N50" s="55">
+        <v>6</v>
+      </c>
+      <c r="O50" s="59"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+    </row>
+    <row r="51" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="61"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="59">
+        <v>90003475</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="K51" s="55">
+        <v>660209</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="M51" s="55">
+        <v>3</v>
+      </c>
+      <c r="N51" s="55">
+        <v>6</v>
+      </c>
+      <c r="O51" s="59"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+    </row>
+    <row r="52" spans="1:21" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="61"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="59">
+        <v>90003476</v>
+      </c>
+      <c r="J52" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" s="55">
+        <v>630208</v>
+      </c>
+      <c r="L52" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" s="55">
+        <v>3</v>
+      </c>
+      <c r="N52" s="55">
+        <v>6</v>
+      </c>
+      <c r="O52" s="59"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+    </row>
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
+        <v>30016</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="9">
+        <v>45134</v>
+      </c>
+      <c r="H53" s="9">
+        <v>45162</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K53" s="31">
+        <v>910577</v>
+      </c>
+      <c r="L53" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="N53" s="31"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+    </row>
+    <row r="54" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="44">
+        <v>20012</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="49">
+        <v>45134</v>
+      </c>
+      <c r="H54" s="46">
+        <v>45162</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44">
+        <v>910575</v>
+      </c>
+      <c r="L54" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44">
+        <v>6</v>
+      </c>
+      <c r="O54" s="66">
+        <v>5000000</v>
+      </c>
+      <c r="P54" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+    </row>
+    <row r="55" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44">
+        <v>910576</v>
+      </c>
+      <c r="L55" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44">
+        <v>7</v>
+      </c>
+      <c r="O55" s="66">
+        <v>300000</v>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q55" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+    </row>
+    <row r="56" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44">
+        <v>910182</v>
+      </c>
+      <c r="L56" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44">
+        <v>6</v>
+      </c>
+      <c r="O56" s="66">
+        <v>100000</v>
+      </c>
+      <c r="P56" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q56" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+    </row>
+    <row r="57" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44">
+        <v>910317</v>
+      </c>
+      <c r="L57" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44">
+        <v>6</v>
+      </c>
+      <c r="O57" s="66">
+        <v>100000</v>
+      </c>
+      <c r="P57" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q57" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+    </row>
+    <row r="58" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44">
+        <v>121</v>
+      </c>
+      <c r="L58" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44">
+        <v>6</v>
+      </c>
+      <c r="O58" s="66">
+        <v>100000</v>
+      </c>
+      <c r="P58" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q58" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+    </row>
+    <row r="59" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44">
+        <v>600017</v>
+      </c>
+      <c r="L59" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44">
+        <v>6</v>
+      </c>
+      <c r="O59" s="66">
+        <v>1000000</v>
+      </c>
+      <c r="P59" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q59" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+    </row>
+    <row r="60" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44">
+        <v>910478</v>
+      </c>
+      <c r="L60" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44">
+        <v>6</v>
+      </c>
+      <c r="O60" s="66">
+        <v>7000000</v>
+      </c>
+      <c r="P60" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q60" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
+        <v>1115</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="9">
+        <v>45134</v>
+      </c>
+      <c r="H61" s="9">
+        <v>45162</v>
+      </c>
+      <c r="I61" s="7">
+        <v>910575</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M61" s="31">
+        <v>2</v>
+      </c>
+      <c r="N61" s="31"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+    </row>
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M62" s="31">
+        <v>2</v>
+      </c>
+      <c r="N62" s="31"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="31">
+        <v>2</v>
+      </c>
+      <c r="N63" s="31"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+    </row>
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="M64" s="31">
+        <v>4</v>
+      </c>
+      <c r="N64" s="31"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+    </row>
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="M65" s="31">
+        <v>4</v>
+      </c>
+      <c r="N65" s="31"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+    </row>
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="M66" s="31">
+        <v>4</v>
+      </c>
+      <c r="N66" s="31"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+    </row>
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M67" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="N67" s="31"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+    </row>
+    <row r="68" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+    </row>
+    <row r="69" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+    </row>
+    <row r="70" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+    </row>
+    <row r="71" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+    </row>
+    <row r="72" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="11"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="11"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="11"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="11"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:U72" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A5C2B5-1724-489A-BCCF-F36239FA8431}">
+  <dimension ref="A1:U60"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="8" customWidth="1"/>
+    <col min="17" max="17" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>157</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45106</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45120</v>
+      </c>
+      <c r="I2" s="5">
+        <v>90001855</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="5">
+        <v>501004</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="6">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3923,7 +7379,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3957,7 +7413,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" ht="16.5">
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3991,7 +7447,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5">
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4025,7 +7481,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" ht="16.5">
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4059,7 +7515,7 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5">
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4093,7 +7549,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5">
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4127,7 +7583,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5">
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4161,7 +7617,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5">
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4195,7 +7651,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="12" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="44">
         <v>158</v>
@@ -4244,7 +7700,7 @@
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
     </row>
-    <row r="13" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="13" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -4279,7 +7735,7 @@
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
     </row>
-    <row r="14" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="14" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -4314,7 +7770,7 @@
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
     </row>
-    <row r="15" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="15" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -4349,7 +7805,7 @@
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
     </row>
-    <row r="16" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="16" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -4384,7 +7840,7 @@
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
     </row>
-    <row r="17" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="17" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -4419,7 +7875,7 @@
       <c r="T17" s="47"/>
       <c r="U17" s="47"/>
     </row>
-    <row r="18" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="18" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -4454,7 +7910,7 @@
       <c r="T18" s="47"/>
       <c r="U18" s="47"/>
     </row>
-    <row r="19" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="19" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -4489,7 +7945,7 @@
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
     </row>
-    <row r="20" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="20" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -4524,7 +7980,7 @@
       <c r="T20" s="47"/>
       <c r="U20" s="47"/>
     </row>
-    <row r="21" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="21" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -4559,7 +8015,7 @@
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>377</v>
       </c>
@@ -4607,7 +8063,7 @@
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -4641,7 +8097,7 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -4675,7 +8131,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -4709,7 +8165,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -4743,7 +8199,7 @@
       <c r="T26"/>
       <c r="U26"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -4777,7 +8233,7 @@
       <c r="T27"/>
       <c r="U27"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -4811,7 +8267,7 @@
       <c r="T28"/>
       <c r="U28"/>
     </row>
-    <row r="29" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="29" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="44">
         <v>378</v>
@@ -4860,7 +8316,7 @@
       <c r="T29" s="47"/>
       <c r="U29" s="47"/>
     </row>
-    <row r="30" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="30" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
       <c r="C30" s="45"/>
@@ -4895,7 +8351,7 @@
       <c r="T30" s="47"/>
       <c r="U30" s="47"/>
     </row>
-    <row r="31" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="31" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -4930,7 +8386,7 @@
       <c r="T31" s="47"/>
       <c r="U31" s="47"/>
     </row>
-    <row r="32" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="32" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -4965,7 +8421,7 @@
       <c r="T32" s="47"/>
       <c r="U32" s="47"/>
     </row>
-    <row r="33" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="33" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -5000,7 +8456,7 @@
       <c r="T33" s="47"/>
       <c r="U33" s="47"/>
     </row>
-    <row r="34" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="34" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -5035,7 +8491,7 @@
       <c r="T34" s="47"/>
       <c r="U34" s="47"/>
     </row>
-    <row r="35" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="35" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -5070,7 +8526,7 @@
       <c r="T35" s="47"/>
       <c r="U35" s="47"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>30015</v>
       </c>
@@ -5112,7 +8568,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="37" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="44">
         <v>20011</v>
@@ -5155,7 +8611,7 @@
       <c r="T37" s="47"/>
       <c r="U37" s="47"/>
     </row>
-    <row r="38" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="38" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -5186,7 +8642,7 @@
       <c r="T38" s="47"/>
       <c r="U38" s="47"/>
     </row>
-    <row r="39" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="39" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -5217,7 +8673,7 @@
       <c r="T39" s="47"/>
       <c r="U39" s="47"/>
     </row>
-    <row r="40" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="40" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -5248,7 +8704,7 @@
       <c r="T40" s="47"/>
       <c r="U40" s="47"/>
     </row>
-    <row r="41" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="41" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -5279,7 +8735,7 @@
       <c r="T41" s="47"/>
       <c r="U41" s="47"/>
     </row>
-    <row r="42" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="42" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -5310,7 +8766,7 @@
       <c r="T42" s="47"/>
       <c r="U42" s="47"/>
     </row>
-    <row r="43" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="43" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -5341,7 +8797,7 @@
       <c r="T43" s="47"/>
       <c r="U43" s="47"/>
     </row>
-    <row r="44" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="44" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -5372,7 +8828,7 @@
       <c r="T44" s="47"/>
       <c r="U44" s="47"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>1113</v>
       </c>
@@ -5414,7 +8870,7 @@
       <c r="T45"/>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="12"/>
@@ -5440,7 +8896,7 @@
       <c r="T46"/>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -5466,7 +8922,7 @@
       <c r="T47"/>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -5492,7 +8948,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -5518,7 +8974,7 @@
       <c r="T49"/>
       <c r="U49"/>
     </row>
-    <row r="50" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="50" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="44">
         <v>1114</v>
@@ -5561,7 +9017,7 @@
       <c r="T50" s="47"/>
       <c r="U50" s="47"/>
     </row>
-    <row r="51" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="51" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -5588,7 +9044,7 @@
       <c r="T51" s="47"/>
       <c r="U51" s="47"/>
     </row>
-    <row r="52" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="52" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -5615,7 +9071,7 @@
       <c r="T52" s="47"/>
       <c r="U52" s="47"/>
     </row>
-    <row r="53" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="53" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -5642,7 +9098,7 @@
       <c r="T53" s="47"/>
       <c r="U53" s="47"/>
     </row>
-    <row r="54" spans="1:21" s="48" customFormat="1" ht="16.5">
+    <row r="54" spans="1:21" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -5669,7 +9125,7 @@
       <c r="T54" s="47"/>
       <c r="U54" s="47"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -5687,7 +9143,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -5705,7 +9161,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -5723,7 +9179,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -5741,7 +9197,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="12"/>
@@ -5759,7 +9215,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -5785,19 +9241,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEEB964-AFF2-4339-9A20-85575924DF1A}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -5818,7 +9274,7 @@
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +9328,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>154</v>
       </c>
@@ -5917,7 +9373,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5948,7 +9404,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5979,7 +9435,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -6010,7 +9466,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6041,7 +9497,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6072,7 +9528,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6103,7 +9559,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6134,7 +9590,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6165,7 +9621,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6196,7 +9652,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>156</v>
       </c>
@@ -6241,7 +9697,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6272,7 +9728,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6303,7 +9759,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6334,7 +9790,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6365,7 +9821,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="2:20" ht="16.5">
+    <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6396,7 +9852,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="2:20" ht="16.5">
+    <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6427,7 +9883,7 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="2:20" ht="16.5">
+    <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6458,7 +9914,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="2:20" ht="16.5">
+    <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6489,7 +9945,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="2:20" ht="16.5">
+    <row r="21" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6520,7 +9976,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="2:20" ht="16.5">
+    <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6551,7 +10007,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="2:20" ht="16.5">
+    <row r="23" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6582,7 +10038,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="2:20" ht="16.5">
+    <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6613,7 +10069,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="2:20" ht="16.5">
+    <row r="25" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -6644,7 +10100,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:20" ht="16.5">
+    <row r="26" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6675,7 +10131,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="2:20" ht="16.5">
+    <row r="27" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>155</v>
       </c>
@@ -6720,7 +10176,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="2:20" ht="16.5">
+    <row r="28" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -6751,7 +10207,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="2:20" ht="16.5">
+    <row r="29" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -6782,7 +10238,7 @@
       <c r="S29"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="2:20" ht="16.5">
+    <row r="30" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -6813,7 +10269,7 @@
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="2:20" ht="16.5">
+    <row r="31" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -6844,7 +10300,7 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="2:20" ht="16.5">
+    <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -6875,7 +10331,7 @@
       <c r="S32"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="2:20" ht="16.5">
+    <row r="33" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -6906,7 +10362,7 @@
       <c r="S33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="2:20" ht="16.5">
+    <row r="34" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -6937,7 +10393,7 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="2:20" ht="16.5">
+    <row r="35" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -6968,7 +10424,7 @@
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="2:20" ht="16.5">
+    <row r="36" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -6999,7 +10455,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="2:20" ht="16.5">
+    <row r="37" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>374</v>
       </c>
@@ -7044,7 +10500,7 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="2:20" ht="16.5">
+    <row r="38" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -7075,7 +10531,7 @@
       <c r="S38"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="2:20" ht="16.5">
+    <row r="39" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -7106,7 +10562,7 @@
       <c r="S39"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="2:20" ht="16.5">
+    <row r="40" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -7137,7 +10593,7 @@
       <c r="S40"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="2:20" ht="16.5">
+    <row r="41" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -7168,7 +10624,7 @@
       <c r="S41"/>
       <c r="T41"/>
     </row>
-    <row r="42" spans="2:20" ht="16.5">
+    <row r="42" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -7199,7 +10655,7 @@
       <c r="S42"/>
       <c r="T42"/>
     </row>
-    <row r="43" spans="2:20" ht="16.5">
+    <row r="43" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -7230,7 +10686,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="2:20" ht="16.5">
+    <row r="44" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>376</v>
       </c>
@@ -7275,7 +10731,7 @@
       <c r="S44"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="2:20" ht="16.5">
+    <row r="45" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -7306,7 +10762,7 @@
       <c r="S45"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="2:20" ht="16.5">
+    <row r="46" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -7337,7 +10793,7 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="2:20" ht="16.5">
+    <row r="47" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -7368,7 +10824,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="2:20" ht="16.5">
+    <row r="48" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -7399,7 +10855,7 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="2:20" ht="16.5">
+    <row r="49" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -7430,7 +10886,7 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="2:20" ht="16.5">
+    <row r="50" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -7461,7 +10917,7 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="2:20" ht="16.5">
+    <row r="51" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>375</v>
       </c>
@@ -7506,7 +10962,7 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="2:20" ht="16.5">
+    <row r="52" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -7537,7 +10993,7 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="2:20" ht="16.5">
+    <row r="53" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="12"/>
@@ -7568,7 +11024,7 @@
       <c r="S53"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="2:20" ht="16.5">
+    <row r="54" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="12"/>
@@ -7599,7 +11055,7 @@
       <c r="S54"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="2:20" ht="16.5">
+    <row r="55" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="12"/>
@@ -7630,7 +11086,7 @@
       <c r="S55"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="2:20" ht="16.5">
+    <row r="56" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="12"/>
@@ -7661,7 +11117,7 @@
       <c r="S56"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="2:20" ht="16.5">
+    <row r="57" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
@@ -7692,7 +11148,7 @@
       <c r="S57"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="2:20" ht="16.5">
+    <row r="58" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <v>30014</v>
       </c>
@@ -7731,7 +11187,7 @@
       <c r="S58"/>
       <c r="T58"/>
     </row>
-    <row r="59" spans="2:20" ht="16.5">
+    <row r="59" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <v>20010</v>
       </c>
@@ -7772,7 +11228,7 @@
       <c r="S59"/>
       <c r="T59"/>
     </row>
-    <row r="60" spans="2:20" ht="16.5">
+    <row r="60" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -7801,7 +11257,7 @@
       <c r="S60"/>
       <c r="T60"/>
     </row>
-    <row r="61" spans="2:20" ht="16.5">
+    <row r="61" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -7830,7 +11286,7 @@
       <c r="S61"/>
       <c r="T61"/>
     </row>
-    <row r="62" spans="2:20" ht="16.5">
+    <row r="62" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -7859,7 +11315,7 @@
       <c r="S62"/>
       <c r="T62"/>
     </row>
-    <row r="63" spans="2:20" ht="16.5">
+    <row r="63" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -7888,7 +11344,7 @@
       <c r="S63"/>
       <c r="T63"/>
     </row>
-    <row r="64" spans="2:20" ht="16.5">
+    <row r="64" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -7917,7 +11373,7 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="2:20" ht="16.5">
+    <row r="65" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12"/>
@@ -7946,7 +11402,7 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="2:20" ht="16.5">
+    <row r="66" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="12"/>
@@ -7975,7 +11431,7 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="2:20" ht="16.5">
+    <row r="67" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <v>1111</v>
       </c>
@@ -8016,7 +11472,7 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="2:20" ht="16.5">
+    <row r="68" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="12"/>
@@ -8041,7 +11497,7 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="2:20" ht="16.5">
+    <row r="69" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="12"/>
@@ -8066,7 +11522,7 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="2:20" ht="16.5">
+    <row r="70" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="12"/>
@@ -8091,7 +11547,7 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="2:20" ht="16.5">
+    <row r="71" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="12"/>
@@ -8116,7 +11572,7 @@
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="2:20" ht="16.5">
+    <row r="72" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <v>1112</v>
       </c>
@@ -8157,7 +11613,7 @@
       <c r="S72"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="2:20" ht="16.5">
+    <row r="73" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="12"/>
@@ -8182,7 +11638,7 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="2:20" ht="16.5">
+    <row r="74" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="12"/>
@@ -8207,7 +11663,7 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="2:20" ht="16.5">
+    <row r="75" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="12"/>
@@ -8232,7 +11688,7 @@
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="2:20" ht="16.5">
+    <row r="76" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -8257,7 +11713,7 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
         <v>421113</v>
       </c>
@@ -8296,7 +11752,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
         <v>421114</v>
       </c>
@@ -8335,7 +11791,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="2:20">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -8352,7 +11808,7 @@
       <c r="O79" s="7"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="2:20">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -8369,7 +11825,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -8386,7 +11842,7 @@
       <c r="O81" s="7"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -8403,7 +11859,7 @@
       <c r="O82" s="7"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="12"/>
@@ -8420,7 +11876,7 @@
       <c r="O83" s="7"/>
       <c r="P83" s="14"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
@@ -8445,19 +11901,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481331F9-E6D8-431C-BD91-EB6EDB09BB53}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -8478,7 +11934,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -8528,7 +11984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>45056</v>
       </c>
@@ -8568,7 +12024,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>45056</v>
       </c>
@@ -8594,7 +12050,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>45056</v>
       </c>
@@ -8620,7 +12076,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>45056</v>
       </c>
@@ -8646,7 +12102,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>45056</v>
       </c>
@@ -8672,7 +12128,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>45056</v>
       </c>
@@ -8698,7 +12154,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>45056</v>
       </c>
@@ -8724,7 +12180,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>45056</v>
       </c>
@@ -8750,7 +12206,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>45056</v>
       </c>
@@ -8776,7 +12232,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>45056</v>
       </c>
@@ -8802,7 +12258,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1">
+    <row r="12" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>45042</v>
       </c>
@@ -8848,7 +12304,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1">
+    <row r="13" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>45042</v>
       </c>
@@ -8880,7 +12336,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1">
+    <row r="14" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>45042</v>
       </c>
@@ -8912,7 +12368,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1">
+    <row r="15" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>45042</v>
       </c>
@@ -8944,7 +12400,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1">
+    <row r="16" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>45042</v>
       </c>
@@ -8976,7 +12432,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1">
+    <row r="17" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>45042</v>
       </c>
@@ -9008,7 +12464,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1">
+    <row r="18" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>45042</v>
       </c>
@@ -9040,7 +12496,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1">
+    <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>45042</v>
       </c>
@@ -9072,7 +12528,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1">
+    <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>45042</v>
       </c>
@@ -9104,7 +12560,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1">
+    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>45042</v>
       </c>
@@ -9136,7 +12592,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>45042</v>
       </c>
@@ -9180,7 +12636,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>45042</v>
       </c>
@@ -9210,7 +12666,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>45042</v>
       </c>
@@ -9240,7 +12696,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>45042</v>
       </c>
@@ -9270,7 +12726,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>45042</v>
       </c>
@@ -9300,7 +12756,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>45042</v>
       </c>
@@ -9330,7 +12786,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>45042</v>
       </c>
@@ -9360,7 +12816,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1">
+    <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>45042</v>
       </c>
@@ -9408,7 +12864,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1">
+    <row r="30" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>45042</v>
       </c>
@@ -9442,7 +12898,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1">
+    <row r="31" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>45042</v>
       </c>
@@ -9476,7 +12932,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1">
+    <row r="32" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>45042</v>
       </c>
@@ -9510,7 +12966,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1">
+    <row r="33" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>45042</v>
       </c>
@@ -9544,7 +13000,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" s="20" customFormat="1">
+    <row r="34" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>45042</v>
       </c>
@@ -9578,7 +13034,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="20" customFormat="1">
+    <row r="35" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>45042</v>
       </c>
@@ -9612,7 +13068,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <v>45041</v>
       </c>
@@ -9650,7 +13106,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:20" s="20" customFormat="1">
+    <row r="37" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37">
         <v>45041</v>
       </c>
@@ -9694,7 +13150,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" s="20" customFormat="1">
+    <row r="38" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37">
         <v>45041</v>
       </c>
@@ -9726,7 +13182,7 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" s="20" customFormat="1">
+    <row r="39" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37">
         <v>45041</v>
       </c>
@@ -9758,7 +13214,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1">
+    <row r="40" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>45042</v>
       </c>
@@ -9790,7 +13246,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1">
+    <row r="41" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37">
         <v>45041</v>
       </c>
@@ -9822,7 +13278,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1">
+    <row r="42" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>45041</v>
       </c>
@@ -9853,7 +13309,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1">
+    <row r="43" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37">
         <v>45041</v>
       </c>
@@ -9885,7 +13341,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1">
+    <row r="44" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>45042</v>
       </c>
@@ -9917,7 +13373,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1">
+    <row r="45" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>45042</v>
       </c>
@@ -9949,7 +13405,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>45041</v>
       </c>
@@ -9987,7 +13443,7 @@
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <v>45041</v>
       </c>
@@ -10011,7 +13467,7 @@
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <v>45041</v>
       </c>
@@ -10035,7 +13491,7 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <v>45041</v>
       </c>
@@ -10059,7 +13515,7 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <v>45041</v>
       </c>
@@ -10083,7 +13539,7 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="34">
         <v>45041</v>
       </c>
@@ -10107,7 +13563,7 @@
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <v>45041</v>
       </c>
@@ -10131,7 +13587,7 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1">
+    <row r="53" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>45041</v>
       </c>
@@ -10173,7 +13629,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1">
+    <row r="54" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37">
         <v>45041</v>
       </c>
@@ -10201,7 +13657,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1">
+    <row r="55" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37">
         <v>45041</v>
       </c>
@@ -10229,7 +13685,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1">
+    <row r="56" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>45041</v>
       </c>
@@ -10257,7 +13713,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1">
+    <row r="57" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37">
         <v>45041</v>
       </c>
@@ -10285,7 +13741,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1">
+    <row r="58" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>45041</v>
       </c>
@@ -10321,7 +13777,7 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-      <autoFilter ref="B1:T58" xr:uid="{2A5BB048-F394-4C8F-B4F8-01585D527FD2}"/>
+      <autoFilter ref="B1:T58" xr:uid="{26CD8889-4244-49E0-AD91-BC07D660B886}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10330,19 +13786,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -10362,7 +13818,7 @@
     <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10409,7 +13865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1">
+    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>150</v>
       </c>
@@ -10445,7 +13901,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -10467,7 +13923,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -10489,7 +13945,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -10511,7 +13967,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -10533,7 +13989,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10555,7 +14011,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10577,7 +14033,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -10599,7 +14055,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -10621,7 +14077,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -10643,7 +14099,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="20" customFormat="1">
+    <row r="12" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>151</v>
       </c>
@@ -10683,7 +14139,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="20" customFormat="1">
+    <row r="13" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -10709,7 +14165,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" s="20" customFormat="1">
+    <row r="14" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
@@ -10735,7 +14191,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" s="20" customFormat="1">
+    <row r="15" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
@@ -10761,7 +14217,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" s="20" customFormat="1">
+    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="21"/>
@@ -10787,7 +14243,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="2:19" s="20" customFormat="1">
+    <row r="17" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
@@ -10813,7 +14269,7 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="2:19" s="20" customFormat="1">
+    <row r="18" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="21"/>
@@ -10839,7 +14295,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="2:19" s="20" customFormat="1">
+    <row r="19" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="21"/>
@@ -10865,7 +14321,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="2:19" s="20" customFormat="1">
+    <row r="20" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="21"/>
@@ -10891,7 +14347,7 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="2:19" s="20" customFormat="1">
+    <row r="21" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="21"/>
@@ -10917,7 +14373,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>370</v>
       </c>
@@ -10955,7 +14411,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -10979,7 +14435,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -11003,7 +14459,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -11027,7 +14483,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -11051,7 +14507,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -11075,7 +14531,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -11099,7 +14555,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:19" s="20" customFormat="1">
+    <row r="29" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="21">
         <v>371</v>
       </c>
@@ -11141,7 +14597,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="2:19" s="20" customFormat="1">
+    <row r="30" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="21"/>
@@ -11169,7 +14625,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
-    <row r="31" spans="2:19" s="20" customFormat="1">
+    <row r="31" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -11197,7 +14653,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
     </row>
-    <row r="32" spans="2:19" s="20" customFormat="1">
+    <row r="32" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -11225,7 +14681,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="2:19" s="20" customFormat="1">
+    <row r="33" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -11253,7 +14709,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
-    <row r="34" spans="2:19" s="20" customFormat="1">
+    <row r="34" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -11281,7 +14737,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="2:19" s="20" customFormat="1">
+    <row r="35" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -11309,7 +14765,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>30012</v>
       </c>
@@ -11343,7 +14799,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:19" s="20" customFormat="1">
+    <row r="37" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
         <v>20008</v>
       </c>
@@ -11383,7 +14839,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="2:19" s="20" customFormat="1">
+    <row r="38" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="26"/>
@@ -11411,7 +14867,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="2:19" s="20" customFormat="1">
+    <row r="39" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -11439,7 +14895,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
     </row>
-    <row r="40" spans="2:19" s="20" customFormat="1">
+    <row r="40" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -11467,7 +14923,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
     </row>
-    <row r="41" spans="2:19" s="20" customFormat="1">
+    <row r="41" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -11495,7 +14951,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="2:19" s="20" customFormat="1">
+    <row r="42" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -11523,7 +14979,7 @@
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
     </row>
-    <row r="43" spans="2:19" s="20" customFormat="1">
+    <row r="43" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="26"/>
@@ -11551,7 +15007,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
     </row>
-    <row r="44" spans="2:19" s="20" customFormat="1">
+    <row r="44" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="26"/>
@@ -11579,7 +15035,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>1104</v>
       </c>
@@ -11613,7 +15069,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="12"/>
@@ -11633,7 +15089,7 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -11653,7 +15109,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -11673,7 +15129,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -11693,7 +15149,7 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -11713,7 +15169,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="2:19" s="20" customFormat="1">
+    <row r="51" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="21">
         <v>1105</v>
       </c>
@@ -11751,7 +15207,7 @@
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
     </row>
-    <row r="52" spans="2:19" s="20" customFormat="1">
+    <row r="52" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="26"/>
@@ -11775,7 +15231,7 @@
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
     </row>
-    <row r="53" spans="2:19" s="20" customFormat="1">
+    <row r="53" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="26"/>
@@ -11799,7 +15255,7 @@
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
     </row>
-    <row r="54" spans="2:19" s="20" customFormat="1">
+    <row r="54" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="26"/>
@@ -11823,7 +15279,7 @@
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
     </row>
-    <row r="55" spans="2:19" s="20" customFormat="1">
+    <row r="55" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -11847,7 +15303,7 @@
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="2:19" s="20" customFormat="1">
+    <row r="56" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -11879,7 +15335,7 @@
       <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:S56" xr:uid="{E523A046-CD46-4EB2-807A-BC1084AAC731}"/>
+      <autoFilter ref="B1:S56" xr:uid="{8D5031FC-B74E-43D3-BCD4-7A6F39537BA8}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11888,7 +15344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q116"/>
@@ -11898,7 +15354,7 @@
       <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="7.5" style="8" bestFit="1" customWidth="1"/>
@@ -11916,7 +15372,7 @@
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11967,7 +15423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>146</v>
       </c>
@@ -12003,7 +15459,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -12025,7 +15481,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -12047,7 +15503,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -12069,7 +15525,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -12091,7 +15547,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12113,7 +15569,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -12135,7 +15591,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -12157,7 +15613,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -12179,7 +15635,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -12201,7 +15657,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>147</v>
       </c>
@@ -12237,7 +15693,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -12259,7 +15715,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -12281,7 +15737,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -12303,7 +15759,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -12325,7 +15781,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -12347,7 +15803,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -12369,7 +15825,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -12391,7 +15847,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -12413,7 +15869,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -12435,7 +15891,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>148</v>
       </c>
@@ -12471,7 +15927,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -12493,7 +15949,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -12515,7 +15971,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -12537,7 +15993,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -12559,7 +16015,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -12581,7 +16037,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -12603,7 +16059,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -12625,7 +16081,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -12647,7 +16103,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -12669,7 +16125,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -12691,7 +16147,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -12713,7 +16169,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -12735,7 +16191,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -12757,7 +16213,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -12779,7 +16235,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -12801,7 +16257,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -12823,7 +16279,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -12845,7 +16301,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -12867,7 +16323,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -12889,7 +16345,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>149</v>
       </c>
@@ -12925,7 +16381,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -12947,7 +16403,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -12969,7 +16425,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -12991,7 +16447,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -13013,7 +16469,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -13035,7 +16491,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -13057,7 +16513,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -13079,7 +16535,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -13101,7 +16557,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -13123,7 +16579,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -13145,7 +16601,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -13167,7 +16623,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -13189,7 +16645,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -13211,7 +16667,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -13233,7 +16689,7 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -13255,7 +16711,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -13277,7 +16733,7 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -13299,7 +16755,7 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -13321,7 +16777,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -13343,7 +16799,7 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <v>365</v>
       </c>
@@ -13381,7 +16837,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -13405,7 +16861,7 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="2:17">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -13429,7 +16885,7 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -13453,7 +16909,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -13477,7 +16933,7 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -13501,7 +16957,7 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -13525,7 +16981,7 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <v>366</v>
       </c>
@@ -13563,7 +17019,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -13587,7 +17043,7 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -13611,7 +17067,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -13635,7 +17091,7 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -13659,7 +17115,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -13683,7 +17139,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -13707,7 +17163,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
         <v>367</v>
       </c>
@@ -13745,7 +17201,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -13769,7 +17225,7 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -13793,7 +17249,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="12"/>
@@ -13817,7 +17273,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="12"/>
@@ -13841,7 +17297,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="2:17">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="12"/>
@@ -13865,7 +17321,7 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="2:17">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="12"/>
@@ -13889,7 +17345,7 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="2:17">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B83" s="7">
         <v>368</v>
       </c>
@@ -13927,7 +17383,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="84" spans="2:17">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="12"/>
@@ -13951,7 +17407,7 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="2:17">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="12"/>
@@ -13975,7 +17431,7 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="2:17">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="12"/>
@@ -13999,7 +17455,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="2:17">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="12"/>
@@ -14023,7 +17479,7 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="2:17">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="12"/>
@@ -14047,7 +17503,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="2:17">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="12"/>
@@ -14071,7 +17527,7 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="2:17">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
         <v>30008</v>
       </c>
@@ -14105,7 +17561,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="91" spans="2:17">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
         <v>30009</v>
       </c>
@@ -14139,7 +17595,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="92" spans="2:17">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B92" s="7">
         <v>30010</v>
       </c>
@@ -14173,7 +17629,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="93" spans="2:17">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B93" s="7">
         <v>30011</v>
       </c>
@@ -14207,7 +17663,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="94" spans="2:17" ht="54">
+    <row r="94" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
         <v>352</v>
@@ -14239,7 +17695,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="95" spans="2:17">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
         <v>352</v>
@@ -14271,7 +17727,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="2:17">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
         <v>352</v>
@@ -14305,7 +17761,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="27">
+    <row r="97" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
         <v>352</v>
@@ -14339,7 +17795,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="27">
+    <row r="98" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
         <v>352</v>
@@ -14373,7 +17829,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B99" s="7">
         <v>1102</v>
       </c>
@@ -14413,7 +17869,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="12"/>
@@ -14435,7 +17891,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12"/>
@@ -14457,7 +17913,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12"/>
@@ -14479,7 +17935,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12"/>
@@ -14501,7 +17957,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12"/>
@@ -14523,7 +17979,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B105" s="7">
         <v>1103</v>
       </c>
@@ -14563,7 +18019,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12"/>
@@ -14585,7 +18041,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
     </row>
-    <row r="107" spans="2:17">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12"/>
@@ -14607,7 +18063,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="12"/>
@@ -14629,7 +18085,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="12"/>
@@ -14651,7 +18107,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="12"/>
@@ -14673,7 +18129,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
     </row>
-    <row r="111" spans="2:17" ht="27">
+    <row r="111" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B111" s="7">
         <v>20007</v>
       </c>
@@ -14709,7 +18165,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="112" spans="2:17" ht="27">
+    <row r="112" spans="2:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12"/>
@@ -14739,7 +18195,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="113" spans="2:17" ht="40.5">
+    <row r="113" spans="2:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -14769,7 +18225,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="114" spans="2:17" ht="54">
+    <row r="114" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -14799,7 +18255,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="115" spans="2:17" ht="54">
+    <row r="115" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -14829,7 +18285,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="116" spans="2:17" ht="54">
+    <row r="116" spans="2:17" ht="54" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -14867,7 +18323,7 @@
       <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="B1:Q116" xr:uid="{9E8DE80F-0F38-43FA-BD03-5AB93E3D1DC3}"/>
+      <autoFilter ref="B1:Q116" xr:uid="{6DA3A6D2-A466-4A04-A755-AD82511591BD}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14876,7 +18332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F45F139-44C3-4D80-A135-02D99D78CD66}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -14884,13 +18340,13 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -14911,7 +18367,7 @@
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -14965,7 +18421,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>154</v>
       </c>
@@ -15008,7 +18464,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -15037,7 +18493,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -15066,7 +18522,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -15095,7 +18551,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -15124,7 +18580,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -15153,7 +18609,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -15182,7 +18638,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -15211,7 +18667,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -15240,7 +18696,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -15269,7 +18725,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="21">
         <v>155</v>
@@ -15313,7 +18769,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -15343,7 +18799,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -15373,7 +18829,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -15403,7 +18859,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -15433,7 +18889,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -15463,7 +18919,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -15493,7 +18949,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -15523,7 +18979,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -15553,7 +19009,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -15583,7 +19039,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>372</v>
       </c>
@@ -15628,7 +19084,7 @@
       <c r="S22"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5">
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -15659,7 +19115,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -15690,7 +19146,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5">
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -15721,7 +19177,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -15752,7 +19208,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5">
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -15783,7 +19239,7 @@
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -15814,7 +19270,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="21">
         <v>373</v>
@@ -15860,7 +19316,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -15892,7 +19348,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -15924,7 +19380,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -15956,7 +19412,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -15988,7 +19444,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -16020,7 +19476,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -16052,7 +19508,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>30013</v>
       </c>
@@ -16091,7 +19547,7 @@
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="21">
         <v>20009</v>
@@ -16133,7 +19589,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -16163,7 +19619,7 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -16193,7 +19649,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -16223,7 +19679,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -16253,7 +19709,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="34"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -16283,7 +19739,7 @@
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="34"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -16313,7 +19769,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -16343,7 +19799,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -16373,7 +19829,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>1106</v>
       </c>
@@ -16412,7 +19868,7 @@
       <c r="S46"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="12"/>
@@ -16437,7 +19893,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="12"/>
@@ -16462,7 +19918,7 @@
       <c r="S48"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="12"/>
@@ -16487,7 +19943,7 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="12"/>
@@ -16512,7 +19968,7 @@
       <c r="S50"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="12"/>
@@ -16537,7 +19993,7 @@
       <c r="S51"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -16562,7 +20018,7 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="21">
         <v>1107</v>
@@ -16602,7 +20058,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -16628,7 +20084,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -16654,7 +20110,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -16680,7 +20136,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -16706,7 +20162,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -16741,6 +20197,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1e91ce72-769a-45b6-b2e9-1e3503954573" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16749,7 +20216,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -16978,25 +20445,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1e91ce72-769a-45b6-b2e9-1e3503954573" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F54D97-86D7-414F-A2CA-4440D6773C86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F54D97-86D7-414F-A2CA-4440D6773C86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DA6E6A-CC9C-469E-B61D-630EB79AA076}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>